--- a/pairwisecontrasts.NaivevMluteus_reverse.xlsx
+++ b/pairwisecontrasts.NaivevMluteus_reverse.xlsx
@@ -411,28 +411,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.998109635686703</v>
+        <v>2.071183109101307</v>
       </c>
       <c r="C2">
-        <v>0.3919102375774433</v>
+        <v>0.3954248463192555</v>
       </c>
       <c r="D2">
-        <v>131.7085821921122</v>
+        <v>136.114521241616</v>
       </c>
       <c r="E2">
-        <v>0.939647187796998</v>
+        <v>0.9944637671237618</v>
       </c>
       <c r="F2">
-        <v>4.248873585823556</v>
+        <v>4.313681014074279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>3.529110641030916</v>
+        <v>3.813796344920088</v>
       </c>
       <c r="I2">
-        <v>0.1467531225315535</v>
+        <v>0.05546465204147011</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.68768845859671</v>
+        <v>1.626563325778575</v>
       </c>
       <c r="C3">
-        <v>0.4432359194426569</v>
+        <v>0.4237191857654732</v>
       </c>
       <c r="D3">
-        <v>127.1585569946727</v>
+        <v>131.4344735749112</v>
       </c>
       <c r="E3">
-        <v>0.6139198349448941</v>
+        <v>0.5971419359109524</v>
       </c>
       <c r="F3">
-        <v>4.639518339615472</v>
+        <v>4.430618741810144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1.992772434697995</v>
+        <v>1.867447384129145</v>
       </c>
       <c r="I3">
-        <v>0.9999988780854739</v>
+        <v>0.9999999884221722</v>
       </c>
     </row>
     <row r="4">
@@ -473,25 +473,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.8446425703846282</v>
+        <v>0.7853305285423777</v>
       </c>
       <c r="C4">
-        <v>0.1550227096072294</v>
+        <v>0.1396403218714571</v>
       </c>
       <c r="D4">
-        <v>142.7400680432594</v>
+        <v>147.9139925723362</v>
       </c>
       <c r="E4">
-        <v>0.4176001919515728</v>
+        <v>0.3971555090707747</v>
       </c>
       <c r="F4">
-        <v>1.708383007133971</v>
+        <v>1.552903144925894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-0.9199356480094547</v>
+        <v>-1.359031449087584</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -504,28 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.350983843668514</v>
+        <v>1.387192384423883</v>
       </c>
       <c r="C5">
-        <v>0.1735957205261627</v>
+        <v>0.1755539393164848</v>
       </c>
       <c r="D5">
-        <v>132.2415186569505</v>
+        <v>137.2925103445045</v>
       </c>
       <c r="E5">
-        <v>0.8241797167013074</v>
+        <v>0.8530561284087472</v>
       </c>
       <c r="F5">
-        <v>2.21451378730643</v>
+        <v>2.255775027363236</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2.341190535458684</v>
+        <v>2.586116117966462</v>
       </c>
       <c r="I5">
-        <v>0.996905131069922</v>
+        <v>0.9493304394206246</v>
       </c>
     </row>
     <row r="6">
@@ -535,28 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6761309887804093</v>
+        <v>0.6697584478785124</v>
       </c>
       <c r="C6">
-        <v>0.1409001223302859</v>
+        <v>0.1362079999515345</v>
       </c>
       <c r="D6">
-        <v>130.9891125033908</v>
+        <v>136.1149316901353</v>
       </c>
       <c r="E6">
-        <v>0.3032878194611567</v>
+        <v>0.3065546845869905</v>
       </c>
       <c r="F6">
-        <v>1.50732434557176</v>
+        <v>1.463283391375943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-1.878041932082533</v>
+        <v>-1.970990999670921</v>
       </c>
       <c r="I6">
-        <v>0.9999999821572612</v>
+        <v>0.9999994290401519</v>
       </c>
     </row>
     <row r="7">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8004936200084219</v>
+        <v>0.8528363835818604</v>
       </c>
       <c r="C7">
-        <v>0.2128692623357515</v>
+        <v>0.2247523711763515</v>
       </c>
       <c r="D7">
-        <v>133.1460604885031</v>
+        <v>137.8274140326273</v>
       </c>
       <c r="E7">
-        <v>0.2879195996479001</v>
+        <v>0.3098810499771079</v>
       </c>
       <c r="F7">
-        <v>2.225586713991742</v>
+        <v>2.347126089880994</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.8368104204120894</v>
+        <v>-0.6040467767435257</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>2.603522496266099</v>
+        <v>2.783790947402989</v>
       </c>
       <c r="C8">
-        <v>0.5876043050887323</v>
+        <v>0.6103173502971903</v>
       </c>
       <c r="D8">
-        <v>134.9912998681028</v>
+        <v>139.469878737883</v>
       </c>
       <c r="E8">
-        <v>1.093454013314265</v>
+        <v>1.199460835665343</v>
       </c>
       <c r="F8">
-        <v>6.199007279710382</v>
+        <v>6.460812898942359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>4.239622484610106</v>
+        <v>4.669838021655747</v>
       </c>
       <c r="I8">
-        <v>0.01132277584021346</v>
+        <v>0.001933355941709625</v>
       </c>
     </row>
     <row r="9">
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.302992813690791</v>
+        <v>1.344058347700066</v>
       </c>
       <c r="C9">
-        <v>0.1510112232375628</v>
+        <v>0.1535131447678093</v>
       </c>
       <c r="D9">
-        <v>133.69623125565</v>
+        <v>138.6881296067031</v>
       </c>
       <c r="E9">
-        <v>0.8344894412633255</v>
+        <v>0.8667575755632647</v>
       </c>
       <c r="F9">
-        <v>2.034525769384902</v>
+        <v>2.084196196206625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2.283638260797574</v>
+        <v>2.588895729177079</v>
       </c>
       <c r="I9">
-        <v>0.9987643941772214</v>
+        <v>0.9479996127376047</v>
       </c>
     </row>
     <row r="10">
@@ -659,28 +659,28 @@
         </is>
       </c>
       <c r="B10">
-        <v>1.542655863411481</v>
+        <v>1.711455621360757</v>
       </c>
       <c r="C10">
-        <v>0.3549785303790015</v>
+        <v>0.3828560011587962</v>
       </c>
       <c r="D10">
-        <v>145.3271427646461</v>
+        <v>150.4974879293808</v>
       </c>
       <c r="E10">
-        <v>0.6381377221454132</v>
+        <v>0.7261403636437029</v>
       </c>
       <c r="F10">
-        <v>3.729268824474126</v>
+        <v>4.033766046538839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.883916269336618</v>
+        <v>2.402054121480289</v>
       </c>
       <c r="I10">
-        <v>0.9999999758774062</v>
+        <v>0.9923956409487205</v>
       </c>
     </row>
     <row r="11">
@@ -690,28 +690,28 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.927130741398352</v>
+        <v>2.006780731108994</v>
       </c>
       <c r="C11">
-        <v>0.3323224719010834</v>
+        <v>0.3338511910394905</v>
       </c>
       <c r="D11">
-        <v>134.950146983199</v>
+        <v>139.8960499045278</v>
       </c>
       <c r="E11">
-        <v>0.9932133050906877</v>
+        <v>1.059407978246682</v>
       </c>
       <c r="F11">
-        <v>3.739209770355886</v>
+        <v>3.801339035991882</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3.80431656859854</v>
+        <v>4.186855269670652</v>
       </c>
       <c r="I11">
-        <v>0.05754570414646254</v>
+        <v>0.01364161758897942</v>
       </c>
     </row>
     <row r="12">
@@ -721,28 +721,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>2.147019347995498</v>
+        <v>2.140956234012676</v>
       </c>
       <c r="C12">
-        <v>0.5408533872736634</v>
+        <v>0.5340039310758585</v>
       </c>
       <c r="D12">
-        <v>125.3322190141986</v>
+        <v>129.5819988576337</v>
       </c>
       <c r="E12">
-        <v>0.8135738250966228</v>
+        <v>0.8198709607389034</v>
       </c>
       <c r="F12">
-        <v>5.6659788435543</v>
+        <v>5.590750027085624</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>3.03316152030682</v>
+        <v>3.052053244030054</v>
       </c>
       <c r="I12">
-        <v>0.5565910343825098</v>
+        <v>0.533392581675358</v>
       </c>
     </row>
     <row r="13">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.074525296134522</v>
+        <v>1.033687569488554</v>
       </c>
       <c r="C13">
-        <v>0.2078631268768463</v>
+        <v>0.1952962045069008</v>
       </c>
       <c r="D13">
-        <v>134.2837854070054</v>
+        <v>139.2815460442095</v>
       </c>
       <c r="E13">
-        <v>0.5107901541984881</v>
+        <v>0.5003515751804496</v>
       </c>
       <c r="F13">
-        <v>2.26042848035069</v>
+        <v>2.135518392102195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.3715703810578061</v>
+        <v>0.175368124589613</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -783,28 +783,28 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.272165687369051</v>
+        <v>1.316245239322534</v>
       </c>
       <c r="C14">
-        <v>0.1586787576890508</v>
+        <v>0.1623716727486638</v>
       </c>
       <c r="D14">
-        <v>133.4353030886216</v>
+        <v>138.2113739237488</v>
       </c>
       <c r="E14">
-        <v>0.7875123636115395</v>
+        <v>0.8194917637752607</v>
       </c>
       <c r="F14">
-        <v>2.055085876616775</v>
+        <v>2.114117074292353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1.9299157416927</v>
+        <v>2.227494673736449</v>
       </c>
       <c r="I14">
-        <v>0.9999998665321429</v>
+        <v>0.9995494908844603</v>
       </c>
     </row>
     <row r="15">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.589226516703114</v>
+        <v>1.543373693549969</v>
       </c>
       <c r="C15">
-        <v>0.3317849056856487</v>
+        <v>0.3198913371469518</v>
       </c>
       <c r="D15">
-        <v>130.5679534318163</v>
+        <v>135.0477056482959</v>
       </c>
       <c r="E15">
-        <v>0.7117752759545316</v>
+        <v>0.6957885502519506</v>
       </c>
       <c r="F15">
-        <v>3.548368434131523</v>
+        <v>3.42345725160256</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2.218922824842839</v>
+        <v>2.093770387997727</v>
       </c>
       <c r="I15">
-        <v>0.9996294184281395</v>
+        <v>0.9999782413605873</v>
       </c>
     </row>
     <row r="16">
@@ -845,28 +845,28 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.8246594185664592</v>
+        <v>0.7690793865142725</v>
       </c>
       <c r="C16">
-        <v>0.1412913441648767</v>
+        <v>0.12755243472662</v>
       </c>
       <c r="D16">
-        <v>145.1879470775235</v>
+        <v>150.3969779683309</v>
       </c>
       <c r="E16">
-        <v>0.4273970456049416</v>
+        <v>0.4072986070180415</v>
       </c>
       <c r="F16">
-        <v>1.591174210546549</v>
+        <v>1.452209981987416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-1.125205547461514</v>
+        <v>-1.583116118577945</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.999999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.638587304256976</v>
+        <v>1.702356231176661</v>
       </c>
       <c r="C17">
-        <v>0.3216299621955332</v>
+        <v>0.329485791675928</v>
       </c>
       <c r="D17">
-        <v>132.4951441795678</v>
+        <v>137.2436388383124</v>
       </c>
       <c r="E17">
-        <v>0.7702476950673237</v>
+        <v>0.8092953005681113</v>
       </c>
       <c r="F17">
-        <v>3.485850552837375</v>
+        <v>3.580913834284776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2.515906443206442</v>
+        <v>2.748756382907837</v>
       </c>
       <c r="I17">
-        <v>0.9734896389785446</v>
+        <v>0.8473654076041188</v>
       </c>
     </row>
     <row r="18">
@@ -907,25 +907,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.8200687664938024</v>
+        <v>0.8219245433665779</v>
       </c>
       <c r="C18">
-        <v>0.1834946228383872</v>
+        <v>0.1802340885727569</v>
       </c>
       <c r="D18">
-        <v>133.0513490174069</v>
+        <v>138.1494291302753</v>
       </c>
       <c r="E18">
-        <v>0.3468764408832737</v>
+        <v>0.3540081607015701</v>
       </c>
       <c r="F18">
-        <v>1.938767533667621</v>
+        <v>1.908317462652667</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-0.8865363171699894</v>
+        <v>-0.8943086094882695</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -938,25 +938,25 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.9709062688142329</v>
+        <v>1.046596959489301</v>
       </c>
       <c r="C19">
-        <v>0.2610933221312955</v>
+        <v>0.2785575461001834</v>
       </c>
       <c r="D19">
-        <v>138.3033995142781</v>
+        <v>143.2912849099499</v>
       </c>
       <c r="E19">
-        <v>0.3455973353867391</v>
+        <v>0.3768827560544231</v>
       </c>
       <c r="F19">
-        <v>2.727622253707186</v>
+        <v>2.906381833649281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-0.1097934761835862</v>
+        <v>0.1711176674564564</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.212884455973575</v>
+        <v>1.22719548513357</v>
       </c>
       <c r="C20">
-        <v>0.1034085576212698</v>
+        <v>0.1039159210665038</v>
       </c>
       <c r="D20">
-        <v>131.6715354326412</v>
+        <v>136.2175809617289</v>
       </c>
       <c r="E20">
-        <v>0.8737624517588197</v>
+        <v>0.8863291532721238</v>
       </c>
       <c r="F20">
-        <v>1.683625452868938</v>
+        <v>1.699152908569441</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2.263723311138674</v>
+        <v>2.417777144183765</v>
       </c>
       <c r="I20">
-        <v>0.99913426930518</v>
+        <v>0.9910393050773689</v>
       </c>
     </row>
     <row r="21">
@@ -1000,28 +1000,28 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.629373207493691</v>
+        <v>0.6115244511319347</v>
       </c>
       <c r="C21">
-        <v>0.1078251022371084</v>
+        <v>0.1019755972809419</v>
       </c>
       <c r="D21">
-        <v>137.0553752174216</v>
+        <v>142.0433343420564</v>
       </c>
       <c r="E21">
-        <v>0.3258654669300919</v>
+        <v>0.3224285900064536</v>
       </c>
       <c r="F21">
-        <v>1.215564932493674</v>
+        <v>1.159829388345273</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>-2.702702930375673</v>
+        <v>-2.949214718895888</v>
       </c>
       <c r="I21">
-        <v>0.8831423128334559</v>
+        <v>0.6431595884996784</v>
       </c>
     </row>
     <row r="22">
@@ -1031,25 +1031,25 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.7631916804973348</v>
+        <v>0.7951382677197603</v>
       </c>
       <c r="C22">
-        <v>0.1587620116365559</v>
+        <v>0.1645704606582395</v>
       </c>
       <c r="D22">
-        <v>138.3457753167734</v>
+        <v>143.1929321572353</v>
       </c>
       <c r="E22">
-        <v>0.343250987510418</v>
+        <v>0.3593353177908181</v>
       </c>
       <c r="F22">
-        <v>1.696896913261371</v>
+        <v>1.75948434091979</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-1.299111433156882</v>
+        <v>-1.107591882551219</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>3.017483494179969</v>
+        <v>3.283327549881193</v>
       </c>
       <c r="C23">
-        <v>0.7515927470966466</v>
+        <v>0.791301652926274</v>
       </c>
       <c r="D23">
-        <v>135.7899524157829</v>
+        <v>140.5090884189175</v>
       </c>
       <c r="E23">
-        <v>1.15856043666487</v>
+        <v>1.30149625241676</v>
       </c>
       <c r="F23">
-        <v>7.859069194404371</v>
+        <v>8.282958771330238</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4.434022017058018</v>
+        <v>4.932895383787407</v>
       </c>
       <c r="I23">
-        <v>0.005209687839042965</v>
+        <v>0.0006226007501600739</v>
       </c>
     </row>
     <row r="24">
@@ -1093,28 +1093,28 @@
         </is>
       </c>
       <c r="B24">
-        <v>1.510169132007079</v>
+        <v>1.585242528993895</v>
       </c>
       <c r="C24">
-        <v>0.2382329752090123</v>
+        <v>0.2460646852048315</v>
       </c>
       <c r="D24">
-        <v>134.5164328830699</v>
+        <v>139.3677170766737</v>
       </c>
       <c r="E24">
-        <v>0.8234899682776926</v>
+        <v>0.8733919851658386</v>
       </c>
       <c r="F24">
-        <v>2.769445767550577</v>
+        <v>2.877280669405037</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2.613090881367371</v>
+        <v>2.968246083870289</v>
       </c>
       <c r="I24">
-        <v>0.9374756193080737</v>
+        <v>0.6228349238543436</v>
       </c>
     </row>
     <row r="25">
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.787938691415219</v>
+        <v>2.01856730558559</v>
       </c>
       <c r="C25">
-        <v>0.4755184817547747</v>
+        <v>0.521254982848332</v>
       </c>
       <c r="D25">
-        <v>145.1093277003255</v>
+        <v>150.4607499663652</v>
       </c>
       <c r="E25">
-        <v>0.6445473416978105</v>
+        <v>0.7502817539468982</v>
       </c>
       <c r="F25">
-        <v>4.9596430819791</v>
+        <v>5.430778431894868</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2.184785138923961</v>
+        <v>2.720007500375272</v>
       </c>
       <c r="I25">
-        <v>0.9998067968461588</v>
+        <v>0.8675147011599909</v>
       </c>
     </row>
     <row r="26">
@@ -1155,28 +1155,28 @@
         </is>
       </c>
       <c r="B26">
-        <v>2.233545211011685</v>
+        <v>2.366886948593506</v>
       </c>
       <c r="C26">
-        <v>0.41615989209651</v>
+        <v>0.4225947286961374</v>
       </c>
       <c r="D26">
-        <v>135.409289123834</v>
+        <v>140.738511325606</v>
       </c>
       <c r="E26">
-        <v>1.091410588152049</v>
+        <v>1.192538233170314</v>
       </c>
       <c r="F26">
-        <v>4.570895924768352</v>
+        <v>4.697672302320388</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4.312897187151709</v>
+        <v>4.825549938175164</v>
       </c>
       <c r="I26">
-        <v>0.008472617143426509</v>
+        <v>0.0009897778404936997</v>
       </c>
     </row>
     <row r="27">
@@ -1186,28 +1186,28 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.159000353754408</v>
+        <v>1.179444725525896</v>
       </c>
       <c r="C27">
-        <v>0.06897624703315569</v>
+        <v>0.06937373094316235</v>
       </c>
       <c r="D27">
-        <v>131.4654168229467</v>
+        <v>136.6644027804056</v>
       </c>
       <c r="E27">
-        <v>0.92185002097638</v>
+        <v>0.9408564816531739</v>
       </c>
       <c r="F27">
-        <v>1.457158745389086</v>
+        <v>1.478535661599079</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2.479398784365153</v>
+        <v>2.80596106060417</v>
       </c>
       <c r="I27">
-        <v>0.9818749708140702</v>
+        <v>0.796375135623989</v>
       </c>
     </row>
     <row r="28">
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.405429111291966</v>
+        <v>1.533579947931693</v>
       </c>
       <c r="C28">
-        <v>0.274121607275755</v>
+        <v>0.2884767265712549</v>
       </c>
       <c r="D28">
-        <v>146.8155788861673</v>
+        <v>152.4156073133138</v>
       </c>
       <c r="E28">
-        <v>0.6652063023270475</v>
+        <v>0.7459477503242773</v>
       </c>
       <c r="F28">
-        <v>2.969350981728685</v>
+        <v>3.15285816691018</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1.744946360953439</v>
+        <v>2.273203153078401</v>
       </c>
       <c r="I28">
-        <v>0.9999999999599489</v>
+        <v>0.9989094216531059</v>
       </c>
     </row>
     <row r="29">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="B29">
-        <v>1.841515240805713</v>
+        <v>1.928695939046654</v>
       </c>
       <c r="C29">
-        <v>0.3162618930053023</v>
+        <v>0.3187776514929895</v>
       </c>
       <c r="D29">
-        <v>137.8638872919243</v>
+        <v>143.428448373745</v>
       </c>
       <c r="E29">
-        <v>0.9520368209651111</v>
+        <v>1.022854137694416</v>
       </c>
       <c r="F29">
-        <v>3.562024395949281</v>
+        <v>3.636753167641181</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3.555308062280173</v>
+        <v>3.974094586755569</v>
       </c>
       <c r="I29">
-        <v>0.1332029860796108</v>
+        <v>0.03030804999972447</v>
       </c>
     </row>
     <row r="30">
@@ -1279,28 +1279,28 @@
         </is>
       </c>
       <c r="B30">
-        <v>2.414654185550513</v>
+        <v>2.45966256869303</v>
       </c>
       <c r="C30">
-        <v>0.5931343256720856</v>
+        <v>0.5975928749967973</v>
       </c>
       <c r="D30">
-        <v>124.932621472225</v>
+        <v>129.0984712025679</v>
       </c>
       <c r="E30">
-        <v>0.9372695938365623</v>
+        <v>0.9655498648490726</v>
       </c>
       <c r="F30">
-        <v>6.220787353113818</v>
+        <v>6.265797523336898</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>3.588821270633621</v>
+        <v>3.704454759589158</v>
       </c>
       <c r="I30">
-        <v>0.1230074943296185</v>
+        <v>0.08275003951024085</v>
       </c>
     </row>
     <row r="31">
@@ -1310,25 +1310,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.208469316409984</v>
+        <v>1.187564034239486</v>
       </c>
       <c r="C31">
-        <v>0.2565453375096852</v>
+        <v>0.2490141212222637</v>
       </c>
       <c r="D31">
-        <v>130.7011832835091</v>
+        <v>134.9955090117497</v>
       </c>
       <c r="E31">
-        <v>0.5339796163418109</v>
+        <v>0.5304254019550018</v>
       </c>
       <c r="F31">
-        <v>2.734932278331734</v>
+        <v>2.658825030289191</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.8919637475717845</v>
+        <v>0.8198218613659737</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.43074639946182</v>
+        <v>1.512183712561995</v>
       </c>
       <c r="C32">
-        <v>0.2754268917663374</v>
+        <v>0.28817765449273</v>
       </c>
       <c r="D32">
-        <v>132.7104114205579</v>
+        <v>137.3244625257592</v>
       </c>
       <c r="E32">
-        <v>0.6824181921307073</v>
+        <v>0.7271643736846832</v>
       </c>
       <c r="F32">
-        <v>2.999678618152787</v>
+        <v>3.144680437176297</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1.860704356997149</v>
+        <v>2.170087731746409</v>
       </c>
       <c r="I32">
-        <v>0.9999999912069791</v>
+        <v>0.9998631540195402</v>
       </c>
     </row>
     <row r="33">
@@ -1372,28 +1372,28 @@
         </is>
       </c>
       <c r="B33">
-        <v>1.787330171909137</v>
+        <v>1.773122889306054</v>
       </c>
       <c r="C33">
-        <v>0.3577014918318302</v>
+        <v>0.3526668363249807</v>
       </c>
       <c r="D33">
-        <v>128.2910983699588</v>
+        <v>132.8082032466639</v>
       </c>
       <c r="E33">
-        <v>0.8272256477910263</v>
+        <v>0.8252040933959897</v>
       </c>
       <c r="F33">
-        <v>3.861762690684553</v>
+        <v>3.809923879124967</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2.901703603639535</v>
+        <v>2.879608858526457</v>
       </c>
       <c r="I33">
-        <v>0.70138296249749</v>
+        <v>0.7231970075469193</v>
       </c>
     </row>
     <row r="34">
@@ -1403,25 +1403,25 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.9274566242517757</v>
+        <v>0.8835658334860456</v>
       </c>
       <c r="C34">
-        <v>0.1565753010208969</v>
+        <v>0.1466080025902255</v>
       </c>
       <c r="D34">
-        <v>139.936248831241</v>
+        <v>144.2229189127975</v>
       </c>
       <c r="E34">
-        <v>0.4850154197754545</v>
+        <v>0.4674686383693403</v>
       </c>
       <c r="F34">
-        <v>1.773501944055163</v>
+        <v>1.670034132828991</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>-0.4460860945897442</v>
+        <v>-0.7460448900324084</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1434,28 +1434,28 @@
         </is>
       </c>
       <c r="B35">
-        <v>1.124654134023005</v>
+        <v>1.148861676673801</v>
       </c>
       <c r="C35">
-        <v>0.0983579283754937</v>
+        <v>0.09973604576886703</v>
       </c>
       <c r="D35">
-        <v>129.0576639718826</v>
+        <v>133.986600958197</v>
       </c>
       <c r="E35">
-        <v>0.8032217333999576</v>
+        <v>0.8228441044200419</v>
       </c>
       <c r="F35">
-        <v>1.574717003511675</v>
+        <v>1.604050080737979</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1.343250791727759</v>
+        <v>1.598513140015278</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.9999999999999947</v>
       </c>
     </row>
     <row r="36">
@@ -1465,28 +1465,28 @@
         </is>
       </c>
       <c r="B36">
-        <v>1.473619488737249</v>
+        <v>1.444857735206763</v>
       </c>
       <c r="C36">
-        <v>0.2995779024393446</v>
+        <v>0.2930327890710808</v>
       </c>
       <c r="D36">
-        <v>136.1602652655384</v>
+        <v>140.8849900109059</v>
       </c>
       <c r="E36">
-        <v>0.6746884947445592</v>
+        <v>0.6632355716412642</v>
       </c>
       <c r="F36">
-        <v>3.218602976783226</v>
+        <v>3.1476204899878</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1.907197154846678</v>
+        <v>1.814552373336116</v>
       </c>
       <c r="I36">
-        <v>0.9999999422542546</v>
+        <v>0.9999999987994502</v>
       </c>
     </row>
     <row r="37">
@@ -1496,28 +1496,28 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.8002211744348641</v>
+        <v>0.7491371272969805</v>
       </c>
       <c r="C37">
-        <v>0.1353685397318635</v>
+        <v>0.1231315000610165</v>
       </c>
       <c r="D37">
-        <v>146.3901993255846</v>
+        <v>151.4670014166724</v>
       </c>
       <c r="E37">
-        <v>0.4182553258505409</v>
+        <v>0.3990489425968772</v>
       </c>
       <c r="F37">
-        <v>1.531012012128536</v>
+        <v>1.406359911249553</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>-1.317462610201784</v>
+        <v>-1.757273300256224</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.9999999999225159</v>
       </c>
     </row>
     <row r="38">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B38">
-        <v>1.617445868712303</v>
+        <v>1.659993416252463</v>
       </c>
       <c r="C38">
-        <v>0.3785373344754943</v>
+        <v>0.3869042522627021</v>
       </c>
       <c r="D38">
-        <v>131.1878757013428</v>
+        <v>135.782446127436</v>
       </c>
       <c r="E38">
-        <v>0.6573985474337748</v>
+        <v>0.6777824139346562</v>
       </c>
       <c r="F38">
-        <v>3.979520716050931</v>
+        <v>4.065579285253015</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2.054608606455098</v>
+        <v>2.174458653576061</v>
       </c>
       <c r="I38">
-        <v>0.9999926016352325</v>
+        <v>0.9998502207544079</v>
       </c>
     </row>
     <row r="39">
@@ -1558,25 +1558,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.8094880480151556</v>
+        <v>0.8014711055521978</v>
       </c>
       <c r="C39">
-        <v>0.1809638874532681</v>
+        <v>0.1780983807312129</v>
       </c>
       <c r="D39">
-        <v>136.1681909378072</v>
+        <v>140.6482121821055</v>
       </c>
       <c r="E39">
-        <v>0.3428603994824192</v>
+        <v>0.3414767555935549</v>
       </c>
       <c r="F39">
-        <v>1.911188637907969</v>
+        <v>1.881111737513492</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>-0.9454259017476235</v>
+        <v>-0.9959138916470218</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1589,25 +1589,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.9583794097028947</v>
+        <v>1.020552590817752</v>
       </c>
       <c r="C40">
-        <v>0.2463561877649262</v>
+        <v>0.2611767034412965</v>
       </c>
       <c r="D40">
-        <v>141.0994986079415</v>
+        <v>146.282347496671</v>
       </c>
       <c r="E40">
-        <v>0.3572347722772062</v>
+        <v>0.382435388329167</v>
       </c>
       <c r="F40">
-        <v>2.571113352397118</v>
+        <v>2.723407985791234</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>-0.1653791651684933</v>
+        <v>0.07949546339274889</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1620,25 +1620,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>1.197235537858268</v>
+        <v>1.196656956087513</v>
       </c>
       <c r="C41">
-        <v>0.2350560156113316</v>
+        <v>0.2353536504718321</v>
       </c>
       <c r="D41">
-        <v>129.5765903586606</v>
+        <v>134.6780662243843</v>
       </c>
       <c r="E41">
-        <v>0.5624032943914723</v>
+        <v>0.5618637896249623</v>
       </c>
       <c r="F41">
-        <v>2.548656715572236</v>
+        <v>2.548638828475613</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.9168902617887671</v>
+        <v>0.9128304396895973</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.6212528875905624</v>
+        <v>0.5963067800766715</v>
       </c>
       <c r="C42">
-        <v>0.1403143900711369</v>
+        <v>0.1340849448168023</v>
       </c>
       <c r="D42">
-        <v>137.67474646342</v>
+        <v>142.0481123332321</v>
       </c>
       <c r="E42">
-        <v>0.2608834561063478</v>
+        <v>0.2515553879519629</v>
       </c>
       <c r="F42">
-        <v>1.479415966424024</v>
+        <v>1.413532736708107</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>-2.107602569556413</v>
+        <v>-2.299218702577685</v>
       </c>
       <c r="I42">
-        <v>0.9999686660040369</v>
+        <v>0.9983520481337302</v>
       </c>
     </row>
     <row r="43">
@@ -1682,25 +1682,25 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.7533448034468738</v>
+        <v>0.7753514013414599</v>
       </c>
       <c r="C43">
-        <v>0.1894359914602759</v>
+        <v>0.1953224502849157</v>
       </c>
       <c r="D43">
-        <v>138.6679076332638</v>
+        <v>143.7365696868135</v>
       </c>
       <c r="E43">
-        <v>0.2867738132130588</v>
+        <v>0.2949127953956139</v>
       </c>
       <c r="F43">
-        <v>1.979010518853628</v>
+        <v>2.038466302405495</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>-1.126351660126852</v>
+        <v>-1.010020003625689</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.9870977667837727</v>
+        <v>0.9751151879093385</v>
       </c>
       <c r="C44">
-        <v>0.1436693657105151</v>
+        <v>0.1418878623780087</v>
       </c>
       <c r="D44">
-        <v>129.357320137681</v>
+        <v>134.8043533596955</v>
       </c>
       <c r="E44">
-        <v>0.5637592922355975</v>
+        <v>0.5573707783461862</v>
       </c>
       <c r="F44">
-        <v>1.728329829075919</v>
+        <v>1.705955293373644</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>-0.08922318997638548</v>
+        <v>-0.1731831318403056</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1744,28 +1744,28 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.5360247609744954</v>
+        <v>0.5055826417052206</v>
       </c>
       <c r="C45">
-        <v>0.119259749562958</v>
+        <v>0.1111049023551637</v>
       </c>
       <c r="D45">
-        <v>139.2328635712489</v>
+        <v>143.7381642389383</v>
       </c>
       <c r="E45">
-        <v>0.2280852832177923</v>
+        <v>0.2175595622172413</v>
       </c>
       <c r="F45">
-        <v>1.259715402608456</v>
+        <v>1.174914147595082</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>-2.802719277422292</v>
+        <v>-3.103638841163372</v>
       </c>
       <c r="I45">
-        <v>0.7986712978553271</v>
+        <v>0.4706963636793535</v>
       </c>
     </row>
     <row r="46">
@@ -1775,28 +1775,28 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.6698457602712766</v>
+        <v>0.6748866439572316</v>
       </c>
       <c r="C46">
-        <v>0.1710664926587619</v>
+        <v>0.1729122927012431</v>
       </c>
       <c r="D46">
-        <v>137.7121218259113</v>
+        <v>142.4051267449098</v>
       </c>
       <c r="E46">
-        <v>0.25112892555656</v>
+        <v>0.2524427725032329</v>
       </c>
       <c r="F46">
-        <v>1.786705141827035</v>
+        <v>1.804258357945352</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>-1.569053166817254</v>
+        <v>-1.53472338837173</v>
       </c>
       <c r="I46">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1806,28 +1806,28 @@
         </is>
       </c>
       <c r="B47">
-        <v>2.846224880542353</v>
+        <v>3.077045905212282</v>
       </c>
       <c r="C47">
-        <v>0.7223081832926467</v>
+        <v>0.7537035731660169</v>
       </c>
       <c r="D47">
-        <v>132.0927900590017</v>
+        <v>137.4555296973329</v>
       </c>
       <c r="E47">
-        <v>1.072425699461241</v>
+        <v>1.200741412142552</v>
       </c>
       <c r="F47">
-        <v>7.553899607859139</v>
+        <v>7.885304368647533</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>4.121693246959438</v>
+        <v>4.588683741888122</v>
       </c>
       <c r="I47">
-        <v>0.01805710927739435</v>
+        <v>0.002742673315830335</v>
       </c>
     </row>
     <row r="48">
@@ -1837,28 +1837,28 @@
         </is>
       </c>
       <c r="B48">
-        <v>1.424458813324411</v>
+        <v>1.485646484702853</v>
       </c>
       <c r="C48">
-        <v>0.2325124905234471</v>
+        <v>0.2404131183932242</v>
       </c>
       <c r="D48">
-        <v>129.4592116694477</v>
+        <v>134.9866494038351</v>
       </c>
       <c r="E48">
-        <v>0.7600414002200976</v>
+        <v>0.7975864755868929</v>
       </c>
       <c r="F48">
-        <v>2.669700506143474</v>
+        <v>2.767280470604579</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2.167462386447551</v>
+        <v>2.446177628467138</v>
       </c>
       <c r="I48">
-        <v>0.9998746960714335</v>
+        <v>0.9874061246440896</v>
       </c>
     </row>
     <row r="49">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="B49">
-        <v>1.686463438227782</v>
+        <v>1.891746762296768</v>
       </c>
       <c r="C49">
-        <v>0.470129505517661</v>
+        <v>0.5113538654423694</v>
       </c>
       <c r="D49">
-        <v>141.7398736831028</v>
+        <v>147.6393862785806</v>
       </c>
       <c r="E49">
-        <v>0.5784299094472763</v>
+        <v>0.6710008458151467</v>
       </c>
       <c r="F49">
-        <v>4.917032957712768</v>
+        <v>5.33338495022732</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1.874808132411398</v>
+        <v>2.358424969652378</v>
       </c>
       <c r="I49">
-        <v>0.999999983560509</v>
+        <v>0.9958353008580756</v>
       </c>
     </row>
     <row r="50">
@@ -1899,28 +1899,28 @@
         </is>
       </c>
       <c r="B50">
-        <v>2.10677936222657</v>
+        <v>2.21818252447386</v>
       </c>
       <c r="C50">
-        <v>0.5192121244694112</v>
+        <v>0.5291072294924664</v>
       </c>
       <c r="D50">
-        <v>129.102420301626</v>
+        <v>135.3351085740211</v>
       </c>
       <c r="E50">
-        <v>0.8159873287209397</v>
+        <v>0.8868243851795627</v>
       </c>
       <c r="F50">
-        <v>5.439446330693852</v>
+        <v>5.548261633429224</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>3.023597688157947</v>
+        <v>3.339965313632982</v>
       </c>
       <c r="I50">
-        <v>0.5653006691227775</v>
+        <v>0.2584754674518318</v>
       </c>
     </row>
     <row r="51">
@@ -1930,25 +1930,25 @@
         </is>
       </c>
       <c r="B51">
-        <v>1.093220774786594</v>
+        <v>1.105343742885173</v>
       </c>
       <c r="C51">
-        <v>0.1768291324580143</v>
+        <v>0.1782936311107631</v>
       </c>
       <c r="D51">
-        <v>125.9284274806812</v>
+        <v>132.2554692175251</v>
       </c>
       <c r="E51">
-        <v>0.5863288415892548</v>
+        <v>0.5943935186477323</v>
       </c>
       <c r="F51">
-        <v>2.03832999104321</v>
+        <v>2.055514994031244</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.5510221932445861</v>
+        <v>0.6209263444839064</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>1.325663358925782</v>
+        <v>1.437229709009579</v>
       </c>
       <c r="C52">
-        <v>0.3354552869008383</v>
+        <v>0.3534687590882986</v>
       </c>
       <c r="D52">
-        <v>138.4300236137955</v>
+        <v>144.8080745511532</v>
       </c>
       <c r="E52">
-        <v>0.5015466333482337</v>
+        <v>0.5594516047471331</v>
       </c>
       <c r="F52">
-        <v>3.503928098303473</v>
+        <v>3.692239362497501</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1.114073099362664</v>
+        <v>1.474835549427725</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1992,28 +1992,28 @@
         </is>
       </c>
       <c r="B53">
-        <v>1.736999226802252</v>
+        <v>1.807521744779259</v>
       </c>
       <c r="C53">
-        <v>0.4078228344856822</v>
+        <v>0.4107801574607813</v>
       </c>
       <c r="D53">
-        <v>130.2312141792332</v>
+        <v>136.6198618206554</v>
       </c>
       <c r="E53">
-        <v>0.7038148677986368</v>
+        <v>0.7548092576852546</v>
       </c>
       <c r="F53">
-        <v>4.286874932535296</v>
+        <v>4.328424465631302</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2.351756076758989</v>
+        <v>2.604737831994218</v>
       </c>
       <c r="I53">
-        <v>0.9964040827461246</v>
+        <v>0.9411693340896512</v>
       </c>
     </row>
     <row r="54">
@@ -2023,25 +2023,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.9432445566088646</v>
+        <v>0.9371729924794208</v>
       </c>
       <c r="C54">
-        <v>0.1290542326297612</v>
+        <v>0.1276476747014606</v>
       </c>
       <c r="D54">
-        <v>127.2670141788248</v>
+        <v>133.378751012568</v>
       </c>
       <c r="E54">
-        <v>0.5569730383981201</v>
+        <v>0.5550994249954393</v>
       </c>
       <c r="F54">
-        <v>1.597402804507559</v>
+        <v>1.582226855738588</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>-0.4270568031596025</v>
+        <v>-0.476394964572919</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2054,25 +2054,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>1.178729814635319</v>
+        <v>1.251003265398028</v>
       </c>
       <c r="C55">
-        <v>0.2592692260396508</v>
+        <v>0.2680599033764814</v>
       </c>
       <c r="D55">
-        <v>138.9677208593691</v>
+        <v>145.0969117843754</v>
       </c>
       <c r="E55">
-        <v>0.5064445537791484</v>
+        <v>0.5498773717996466</v>
       </c>
       <c r="F55">
-        <v>2.743447363669564</v>
+        <v>2.846105787031287</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.7475908531811704</v>
+        <v>1.045128255754301</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2085,28 +2085,28 @@
         </is>
       </c>
       <c r="B56">
-        <v>1.759703329551497</v>
+        <v>1.85364946335685</v>
       </c>
       <c r="C56">
-        <v>0.357193826069036</v>
+        <v>0.3652970927777535</v>
       </c>
       <c r="D56">
-        <v>137.4364745184984</v>
+        <v>142.9366374213176</v>
       </c>
       <c r="E56">
-        <v>0.8067907066897329</v>
+        <v>0.8701049329463827</v>
       </c>
       <c r="F56">
-        <v>3.838115365433262</v>
+        <v>3.948967765724495</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>2.784168913354393</v>
+        <v>3.131674499992918</v>
       </c>
       <c r="I56">
-        <v>0.8164475132177178</v>
+        <v>0.441528762435183</v>
       </c>
     </row>
     <row r="57">
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="B57">
-        <v>2.210113946718168</v>
+        <v>2.2453572343743</v>
       </c>
       <c r="C57">
-        <v>0.5420047233964767</v>
+        <v>0.5463738458981506</v>
       </c>
       <c r="D57">
-        <v>122.5803580678927</v>
+        <v>127.3550617736997</v>
       </c>
       <c r="E57">
-        <v>0.8587243003263321</v>
+        <v>0.8798085579654633</v>
       </c>
       <c r="F57">
-        <v>5.688209423702009</v>
+        <v>5.730370617916758</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>3.233768438192661</v>
+        <v>3.324079417274273</v>
       </c>
       <c r="I57">
-        <v>0.3518850228305167</v>
+        <v>0.2738527234104157</v>
       </c>
     </row>
     <row r="58">
@@ -2147,25 +2147,25 @@
         </is>
       </c>
       <c r="B58">
-        <v>1.106102441650357</v>
+        <v>1.084094025539136</v>
       </c>
       <c r="C58">
-        <v>0.2586426273125511</v>
+        <v>0.2536788290993596</v>
       </c>
       <c r="D58">
-        <v>128.6058318589937</v>
+        <v>132.7143222716159</v>
       </c>
       <c r="E58">
-        <v>0.4496785627277666</v>
+        <v>0.4408111811365046</v>
       </c>
       <c r="F58">
-        <v>2.720749248092487</v>
+        <v>2.666129868075443</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0.4312597709378344</v>
+        <v>0.345061433393526</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2178,25 +2178,25 @@
         </is>
       </c>
       <c r="B59">
-        <v>1.309550904054797</v>
+        <v>1.38043025979301</v>
       </c>
       <c r="C59">
-        <v>0.3192006663301057</v>
+        <v>0.3342563647418366</v>
       </c>
       <c r="D59">
-        <v>127.8214406352523</v>
+        <v>132.9614024675935</v>
       </c>
       <c r="E59">
-        <v>0.5123642118332401</v>
+        <v>0.5440381314778265</v>
       </c>
       <c r="F59">
-        <v>3.347079149370591</v>
+        <v>3.502673051566906</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1.106405154978251</v>
+        <v>1.331445507811226</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -2209,28 +2209,28 @@
         </is>
       </c>
       <c r="B60">
-        <v>1.635929220823795</v>
+        <v>1.618634343430902</v>
       </c>
       <c r="C60">
-        <v>0.4304182409237748</v>
+        <v>0.4234768848082902</v>
       </c>
       <c r="D60">
-        <v>126.5737141631767</v>
+        <v>132.0404230460388</v>
       </c>
       <c r="E60">
-        <v>0.5939223141569597</v>
+        <v>0.5917414568606832</v>
       </c>
       <c r="F60">
-        <v>4.506084973998592</v>
+        <v>4.42757070230221</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1.870790403633065</v>
+        <v>1.840729637237078</v>
       </c>
       <c r="I60">
-        <v>0.9999999870376793</v>
+        <v>0.9999999962771565</v>
       </c>
     </row>
     <row r="61">
@@ -2240,25 +2240,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.8488937391122423</v>
+        <v>0.8065825619804545</v>
       </c>
       <c r="C61">
-        <v>0.2051237874917605</v>
+        <v>0.1944648427452473</v>
       </c>
       <c r="D61">
-        <v>133.4025353713314</v>
+        <v>137.8686033946094</v>
       </c>
       <c r="E61">
-        <v>0.3352324747798113</v>
+        <v>0.3194595596656093</v>
       </c>
       <c r="F61">
-        <v>2.149614475081165</v>
+        <v>2.036487591643638</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>-0.6779654574612798</v>
+        <v>-0.8915448444401154</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2271,25 +2271,25 @@
         </is>
       </c>
       <c r="B62">
-        <v>1.029387065739103</v>
+        <v>1.048763724686679</v>
       </c>
       <c r="C62">
-        <v>0.2165676166655649</v>
+        <v>0.2194098290849642</v>
       </c>
       <c r="D62">
-        <v>125.47799913074</v>
+        <v>131.3487700618767</v>
       </c>
       <c r="E62">
-        <v>0.4577422279678023</v>
+        <v>0.4689924729048401</v>
       </c>
       <c r="F62">
-        <v>2.314922387246946</v>
+        <v>2.345251605865005</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0.1376692291928875</v>
+        <v>0.2275823616541889</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>1.348792304795961</v>
+        <v>1.318970256197388</v>
       </c>
       <c r="C63">
-        <v>0.3731328428733505</v>
+        <v>0.362941372294274</v>
       </c>
       <c r="D63">
-        <v>131.5002690795277</v>
+        <v>136.8813524770958</v>
       </c>
       <c r="E63">
-        <v>0.4653615965367957</v>
+        <v>0.4582102494325587</v>
       </c>
       <c r="F63">
-        <v>3.909305570153458</v>
+        <v>3.79669057793404</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1.081576220886269</v>
+        <v>1.006109219236472</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -2333,28 +2333,28 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.7324361346071879</v>
+        <v>0.6838663521266856</v>
       </c>
       <c r="C64">
-        <v>0.1688001134781935</v>
+        <v>0.1561406887389344</v>
       </c>
       <c r="D64">
-        <v>139.0301283083241</v>
+        <v>143.5812718779588</v>
       </c>
       <c r="E64">
-        <v>0.3022497143853892</v>
+        <v>0.284756841701215</v>
       </c>
       <c r="F64">
-        <v>1.774898918826741</v>
+        <v>1.642359792927372</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>-1.35109699738281</v>
+        <v>-1.664295661654456</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0.9999999999995964</v>
       </c>
     </row>
     <row r="65">
@@ -2364,25 +2364,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.915292119237475</v>
+        <v>0.9128720593440569</v>
       </c>
       <c r="C65">
-        <v>0.1407948788272044</v>
+        <v>0.139493044846655</v>
       </c>
       <c r="D65">
-        <v>126.4179720207261</v>
+        <v>132.4422556010925</v>
       </c>
       <c r="E65">
-        <v>0.5061517838551389</v>
+        <v>0.5072077380017956</v>
       </c>
       <c r="F65">
-        <v>1.655155015275014</v>
+        <v>1.642986362972462</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>-0.5754068944827919</v>
+        <v>-0.5965673588146051</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2395,25 +2395,25 @@
         </is>
       </c>
       <c r="B66">
-        <v>1.366422202727381</v>
+        <v>1.352630204668722</v>
       </c>
       <c r="C66">
-        <v>0.3668559661061018</v>
+        <v>0.3632241451778162</v>
       </c>
       <c r="D66">
-        <v>136.2379976412038</v>
+        <v>140.9347903879029</v>
       </c>
       <c r="E66">
-        <v>0.4869908180657339</v>
+        <v>0.4824431166988475</v>
       </c>
       <c r="F66">
-        <v>3.833972976168774</v>
+        <v>3.79238174875699</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1.162830381814159</v>
+        <v>1.124824180749387</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2426,28 +2426,28 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.776507141732605</v>
+        <v>0.7297119716578927</v>
       </c>
       <c r="C67">
-        <v>0.1413045824758638</v>
+        <v>0.1299813639208954</v>
       </c>
       <c r="D67">
-        <v>145.1664851135557</v>
+        <v>150.0005678604225</v>
       </c>
       <c r="E67">
-        <v>0.3863421075552257</v>
+        <v>0.368671646242039</v>
       </c>
       <c r="F67">
-        <v>1.560697965275632</v>
+        <v>1.444319266232011</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-1.390026016958899</v>
+        <v>-1.768993359473661</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0.9999999998603247</v>
       </c>
     </row>
     <row r="68">
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="B68">
-        <v>2.994015059050283</v>
+        <v>3.087093106385708</v>
       </c>
       <c r="C68">
-        <v>0.5396464674516973</v>
+        <v>0.5516567961980153</v>
       </c>
       <c r="D68">
-        <v>128.1319047715211</v>
+        <v>132.5826854592364</v>
       </c>
       <c r="E68">
-        <v>1.495939993018552</v>
+        <v>1.552710802197902</v>
       </c>
       <c r="F68">
-        <v>5.992303311399399</v>
+        <v>6.137745569879463</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>6.084136499175354</v>
+        <v>6.308022842621293</v>
       </c>
       <c r="I68">
-        <v>3.474013586135527e-06</v>
+        <v>1.078390422515341e-06</v>
       </c>
     </row>
     <row r="69">
@@ -2488,28 +2488,28 @@
         </is>
       </c>
       <c r="B69">
-        <v>1.498423812976263</v>
+        <v>1.490497432515857</v>
       </c>
       <c r="C69">
-        <v>0.3295122054001269</v>
+        <v>0.3209031663051525</v>
       </c>
       <c r="D69">
-        <v>134.7880193724442</v>
+        <v>139.4194038048988</v>
       </c>
       <c r="E69">
-        <v>0.6434630185015296</v>
+        <v>0.6520017478465491</v>
       </c>
       <c r="F69">
-        <v>3.489359697039038</v>
+        <v>3.40732613627781</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1.839031164180227</v>
+        <v>1.853743935699572</v>
       </c>
       <c r="I69">
-        <v>0.9999999964967213</v>
+        <v>0.9999999932397005</v>
       </c>
     </row>
     <row r="70">
@@ -2519,28 +2519,28 @@
         </is>
       </c>
       <c r="B70">
-        <v>1.774033023571047</v>
+        <v>1.897923712812123</v>
       </c>
       <c r="C70">
-        <v>0.4473610589395589</v>
+        <v>0.4739409835726246</v>
       </c>
       <c r="D70">
-        <v>132.5890099329711</v>
+        <v>137.2248330228402</v>
       </c>
       <c r="E70">
-        <v>0.6726477825471119</v>
+        <v>0.727132261632878</v>
       </c>
       <c r="F70">
-        <v>4.678812969252899</v>
+        <v>4.953864117602896</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>2.273273826368075</v>
+        <v>2.56596200913237</v>
       </c>
       <c r="I70">
-        <v>0.9989713298386731</v>
+        <v>0.9573144874743975</v>
       </c>
     </row>
     <row r="71">
@@ -2550,28 +2550,28 @@
         </is>
       </c>
       <c r="B71">
-        <v>2.216173844773907</v>
+        <v>2.225425356316249</v>
       </c>
       <c r="C71">
-        <v>0.4951280893676297</v>
+        <v>0.4941307459425968</v>
       </c>
       <c r="D71">
-        <v>139.6299049003315</v>
+        <v>144.4140550498005</v>
       </c>
       <c r="E71">
-        <v>0.9397234578870415</v>
+        <v>0.949382399722376</v>
       </c>
       <c r="F71">
-        <v>5.226459411051897</v>
+        <v>5.216568179464407</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>3.561889883153766</v>
+        <v>3.602740227147228</v>
       </c>
       <c r="I71">
-        <v>0.1299273254379423</v>
+        <v>0.1125288378956466</v>
       </c>
     </row>
     <row r="72">
@@ -2581,25 +2581,25 @@
         </is>
       </c>
       <c r="B72">
-        <v>1.149986244921723</v>
+        <v>1.108952922368567</v>
       </c>
       <c r="C72">
-        <v>0.2852092382474044</v>
+        <v>0.2695579578097713</v>
       </c>
       <c r="D72">
-        <v>142.1469985564145</v>
+        <v>146.9548759538428</v>
       </c>
       <c r="E72">
-        <v>0.4438847895095852</v>
+        <v>0.4365921936727444</v>
       </c>
       <c r="F72">
-        <v>2.979305429614429</v>
+        <v>2.816762649108626</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.5634829968570372</v>
+        <v>0.4254512138653893</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2612,25 +2612,25 @@
         </is>
       </c>
       <c r="B73">
-        <v>1.394498406288494</v>
+        <v>1.441922565880639</v>
       </c>
       <c r="C73">
-        <v>0.3375833158397072</v>
+        <v>0.3462624013293263</v>
       </c>
       <c r="D73">
-        <v>135.197813682958</v>
+        <v>139.833349112192</v>
       </c>
       <c r="E73">
-        <v>0.5499465017002179</v>
+        <v>0.5734071192561211</v>
       </c>
       <c r="F73">
-        <v>3.536027230156264</v>
+        <v>3.625941527710828</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1.373643797782809</v>
+        <v>1.524020455824167</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2643,28 +2643,28 @@
         </is>
       </c>
       <c r="B74">
-        <v>1.827192882107634</v>
+        <v>1.813423682922066</v>
       </c>
       <c r="C74">
-        <v>0.4929314313509339</v>
+        <v>0.485358886214042</v>
       </c>
       <c r="D74">
-        <v>142.2780172324785</v>
+        <v>147.1197128804922</v>
       </c>
       <c r="E74">
-        <v>0.6487736042879392</v>
+        <v>0.649752924836107</v>
       </c>
       <c r="F74">
-        <v>5.146069147016415</v>
+        <v>5.061162986857068</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2.234381496733398</v>
+        <v>2.223879901024054</v>
       </c>
       <c r="I74">
-        <v>0.9994787976502599</v>
+        <v>0.9995681677462438</v>
       </c>
     </row>
     <row r="75">
@@ -2674,25 +2674,25 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.9922225141662074</v>
+        <v>0.9402330591406921</v>
       </c>
       <c r="C75">
-        <v>0.2683885405816556</v>
+        <v>0.2482173726691694</v>
       </c>
       <c r="D75">
-        <v>143.9269196171666</v>
+        <v>149.0391191682325</v>
       </c>
       <c r="E75">
-        <v>0.3514481695200433</v>
+        <v>0.3417542604791611</v>
       </c>
       <c r="F75">
-        <v>2.801282245865169</v>
+        <v>2.586765719501453</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>-0.02886547413171326</v>
+        <v>-0.2334414044844427</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2705,25 +2705,25 @@
         </is>
       </c>
       <c r="B76">
-        <v>1.239935340210085</v>
+        <v>1.255088053816288</v>
       </c>
       <c r="C76">
-        <v>0.2930169113138218</v>
+        <v>0.2940126478827133</v>
       </c>
       <c r="D76">
-        <v>136.1716461133038</v>
+        <v>140.7175240488608</v>
       </c>
       <c r="E76">
-        <v>0.5000415944902837</v>
+        <v>0.5105909524652122</v>
       </c>
       <c r="F76">
-        <v>3.07462352100746</v>
+        <v>3.085142843261961</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.9100483052964887</v>
+        <v>0.9699011342042321</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2736,28 +2736,28 @@
         </is>
       </c>
       <c r="B77">
-        <v>1.851075895005937</v>
+        <v>1.859702018189331</v>
       </c>
       <c r="C77">
-        <v>0.5538771206376056</v>
+        <v>0.5532007509380886</v>
       </c>
       <c r="D77">
-        <v>140.9954524344935</v>
+        <v>145.8356781341235</v>
       </c>
       <c r="E77">
-        <v>0.5868553020258916</v>
+        <v>0.5941777626172755</v>
       </c>
       <c r="F77">
-        <v>5.838716898771166</v>
+        <v>5.820634520590717</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>2.057914062162905</v>
+        <v>2.085661284382628</v>
       </c>
       <c r="I77">
-        <v>0.9999915493185167</v>
+        <v>0.9999816909920679</v>
       </c>
     </row>
     <row r="78">
@@ -2767,25 +2767,25 @@
         </is>
       </c>
       <c r="B78">
-        <v>1.051924982990018</v>
+        <v>1.00326521003681</v>
       </c>
       <c r="C78">
-        <v>0.2895089407807697</v>
+        <v>0.2678850898896861</v>
       </c>
       <c r="D78">
-        <v>139.8510238704727</v>
+        <v>145.6161167094963</v>
       </c>
       <c r="E78">
-        <v>0.3656004573491817</v>
+        <v>0.3602486681058622</v>
       </c>
       <c r="F78">
-        <v>3.026654227573075</v>
+        <v>2.79401749619911</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0.1839333145816734</v>
+        <v>0.01220872368762545</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2798,25 +2798,25 @@
         </is>
       </c>
       <c r="B79">
-        <v>1.354688098093829</v>
+        <v>1.374878375309384</v>
       </c>
       <c r="C79">
-        <v>0.319635005826116</v>
+        <v>0.3211181242098264</v>
       </c>
       <c r="D79">
-        <v>129.6851253773598</v>
+        <v>134.7294474405292</v>
       </c>
       <c r="E79">
-        <v>0.5463971947022365</v>
+        <v>0.5602119079227081</v>
       </c>
       <c r="F79">
-        <v>3.358691920292843</v>
+        <v>3.374241996930511</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1.286606100286518</v>
+        <v>1.363091946981187</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2829,28 +2829,28 @@
         </is>
       </c>
       <c r="B80">
-        <v>4.035651479509982</v>
+        <v>4.389810976343773</v>
       </c>
       <c r="C80">
-        <v>0.9119384341434917</v>
+        <v>0.9642028221780191</v>
       </c>
       <c r="D80">
-        <v>134.2244957163273</v>
+        <v>138.8962418717385</v>
       </c>
       <c r="E80">
-        <v>1.692907570957038</v>
+        <v>1.888324826990296</v>
       </c>
       <c r="F80">
-        <v>9.620420596774812</v>
+        <v>10.20504530395992</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>6.174112820300331</v>
+        <v>6.734876220791</v>
       </c>
       <c r="I80">
-        <v>2.03765941375611e-06</v>
+        <v>1.103750296715944e-07</v>
       </c>
     </row>
     <row r="81">
@@ -2860,28 +2860,28 @@
         </is>
       </c>
       <c r="B81">
-        <v>2.019734757008478</v>
+        <v>2.119470247248456</v>
       </c>
       <c r="C81">
-        <v>0.2335668298477412</v>
+        <v>0.241995282696955</v>
       </c>
       <c r="D81">
-        <v>132.4237336650746</v>
+        <v>137.5004901515918</v>
       </c>
       <c r="E81">
-        <v>1.294622310087406</v>
+        <v>1.366867318091238</v>
       </c>
       <c r="F81">
-        <v>3.150979599905614</v>
+        <v>3.286459533793301</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>6.078796619863953</v>
+        <v>6.578947899183914</v>
       </c>
       <c r="I81">
-        <v>3.339728380735707e-06</v>
+        <v>2.527765771143109e-07</v>
       </c>
     </row>
     <row r="82">
@@ -2891,28 +2891,28 @@
         </is>
       </c>
       <c r="B82">
-        <v>2.391230122451374</v>
+        <v>2.698825743069385</v>
       </c>
       <c r="C82">
-        <v>0.5513991397578701</v>
+        <v>0.6050608559678565</v>
       </c>
       <c r="D82">
-        <v>144.5117004239132</v>
+        <v>149.9668494890385</v>
       </c>
       <c r="E82">
-        <v>0.9871978046891171</v>
+        <v>1.142818180450481</v>
       </c>
       <c r="F82">
-        <v>5.792133523148878</v>
+        <v>6.373420125835691</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>3.780733829250722</v>
+        <v>4.428380098259476</v>
       </c>
       <c r="I82">
-        <v>0.06103572703292925</v>
+        <v>0.005009230144890298</v>
       </c>
     </row>
     <row r="83">
@@ -2922,28 +2922,28 @@
         </is>
       </c>
       <c r="B83">
-        <v>2.987194479359144</v>
+        <v>3.164529322417605</v>
       </c>
       <c r="C83">
-        <v>0.6959537089261081</v>
+        <v>0.7220717899471744</v>
       </c>
       <c r="D83">
-        <v>136.0560178438089</v>
+        <v>141.1955888790184</v>
       </c>
       <c r="E83">
-        <v>1.220199659693698</v>
+        <v>1.317894687766345</v>
       </c>
       <c r="F83">
-        <v>7.313008806897828</v>
+        <v>7.598669245274547</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>4.697137712312734</v>
+        <v>5.048738278545787</v>
       </c>
       <c r="I83">
-        <v>0.00175747210832744</v>
+        <v>0.000372382107418745</v>
       </c>
     </row>
     <row r="84">
@@ -2953,28 +2953,28 @@
         </is>
       </c>
       <c r="B84">
-        <v>1.550073596559201</v>
+        <v>1.576918331615039</v>
       </c>
       <c r="C84">
-        <v>0.2454023050059244</v>
+        <v>0.249179882494091</v>
       </c>
       <c r="D84">
-        <v>137.2149981959672</v>
+        <v>141.9217311388836</v>
       </c>
       <c r="E84">
-        <v>0.8437059429944082</v>
+        <v>0.8597877736115074</v>
       </c>
       <c r="F84">
-        <v>2.847826514321357</v>
+        <v>2.892192121014221</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>2.768519208848814</v>
+        <v>2.882427579193254</v>
       </c>
       <c r="I84">
-        <v>0.830491489057104</v>
+        <v>0.7167818130947268</v>
       </c>
     </row>
     <row r="85">
@@ -2984,28 +2984,28 @@
         </is>
       </c>
       <c r="B85">
-        <v>1.879653056353568</v>
+        <v>2.05039734423538</v>
       </c>
       <c r="C85">
-        <v>0.4414863737372975</v>
+        <v>0.4729870014737161</v>
       </c>
       <c r="D85">
-        <v>140.7450636761324</v>
+        <v>145.9373015753655</v>
       </c>
       <c r="E85">
-        <v>0.7628603017058037</v>
+        <v>0.8463943267935674</v>
       </c>
       <c r="F85">
-        <v>4.631379564985996</v>
+        <v>4.967104736127173</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>2.686889298660904</v>
+        <v>3.112673675207756</v>
       </c>
       <c r="I85">
-        <v>0.8934767639539013</v>
+        <v>0.4601915783999866</v>
       </c>
     </row>
     <row r="86">
@@ -3015,28 +3015,28 @@
         </is>
       </c>
       <c r="B86">
-        <v>2.46288462569284</v>
+        <v>2.578667670108949</v>
       </c>
       <c r="C86">
-        <v>0.6040817394580275</v>
+        <v>0.621680625092555</v>
       </c>
       <c r="D86">
-        <v>138.5587069064702</v>
+        <v>143.6442022783449</v>
       </c>
       <c r="E86">
-        <v>0.9600619780802856</v>
+        <v>1.022419710548069</v>
       </c>
       <c r="F86">
-        <v>6.318134472529759</v>
+        <v>6.503715533125461</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3.674800479348889</v>
+        <v>3.929190965085311</v>
       </c>
       <c r="I86">
-        <v>0.08941194592672597</v>
+        <v>0.0357713157825621</v>
       </c>
     </row>
     <row r="87">
@@ -3046,25 +3046,25 @@
         </is>
       </c>
       <c r="B87">
-        <v>1.337422884762692</v>
+        <v>1.337000621976512</v>
       </c>
       <c r="C87">
-        <v>0.2529016182690915</v>
+        <v>0.251271856529625</v>
       </c>
       <c r="D87">
-        <v>138.5393376492093</v>
+        <v>143.2612439523966</v>
       </c>
       <c r="E87">
-        <v>0.6468948843551056</v>
+        <v>0.6500027572701929</v>
       </c>
       <c r="F87">
-        <v>2.765055059092219</v>
+        <v>2.750097046776869</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1.537548105002309</v>
+        <v>1.545351885266292</v>
       </c>
       <c r="I87">
         <v>0.9999999999999999</v>
@@ -3077,28 +3077,28 @@
         </is>
       </c>
       <c r="B88">
-        <v>1.671316540339254</v>
+        <v>1.784720811796696</v>
       </c>
       <c r="C88">
-        <v>0.4163234454217442</v>
+        <v>0.439958419567046</v>
       </c>
       <c r="D88">
-        <v>138.317237186644</v>
+        <v>142.9176942359064</v>
       </c>
       <c r="E88">
-        <v>0.6419679157626137</v>
+        <v>0.6929519318615146</v>
       </c>
       <c r="F88">
-        <v>4.351150438247879</v>
+        <v>4.596607974673806</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2.061876835703995</v>
+        <v>2.349815100824585</v>
       </c>
       <c r="I88">
-        <v>0.9999906566440852</v>
+        <v>0.9963697066338785</v>
       </c>
     </row>
     <row r="89">
@@ -3108,28 +3108,28 @@
         </is>
       </c>
       <c r="B89">
-        <v>2.495076687000898</v>
+        <v>2.644474931866923</v>
       </c>
       <c r="C89">
-        <v>0.6157257315720709</v>
+        <v>0.6452078147559552</v>
       </c>
       <c r="D89">
-        <v>140.9702668193161</v>
+        <v>145.6623906802099</v>
       </c>
       <c r="E89">
-        <v>0.9674475700826838</v>
+        <v>1.037276738439737</v>
       </c>
       <c r="F89">
-        <v>6.434878608959982</v>
+        <v>6.741930485968238</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>3.705054157438084</v>
+        <v>3.985815382792475</v>
       </c>
       <c r="I89">
-        <v>0.08016753853704806</v>
+        <v>0.02882327135580875</v>
       </c>
     </row>
     <row r="90">
@@ -3139,28 +3139,28 @@
         </is>
       </c>
       <c r="B90">
-        <v>1.417896213014968</v>
+        <v>1.426631617327439</v>
       </c>
       <c r="C90">
-        <v>0.2776427746523249</v>
+        <v>0.2762486477216333</v>
       </c>
       <c r="D90">
-        <v>134.8753460635512</v>
+        <v>140.4353719784091</v>
       </c>
       <c r="E90">
-        <v>0.6679742748940479</v>
+        <v>0.6783011598917823</v>
       </c>
       <c r="F90">
-        <v>3.00974116286301</v>
+        <v>3.000551807817958</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1.783200816788932</v>
+        <v>1.834960144306235</v>
       </c>
       <c r="I90">
-        <v>0.9999999997361962</v>
+        <v>0.9999999969935173</v>
       </c>
     </row>
     <row r="91">
@@ -3170,28 +3170,28 @@
         </is>
       </c>
       <c r="B91">
-        <v>1.825992494867779</v>
+        <v>1.955061274500071</v>
       </c>
       <c r="C91">
-        <v>0.4916218568576731</v>
+        <v>0.5232125580382088</v>
       </c>
       <c r="D91">
-        <v>135.4467365063483</v>
+        <v>139.8658014277709</v>
       </c>
       <c r="E91">
-        <v>0.6487825312092906</v>
+        <v>0.6996098454246164</v>
       </c>
       <c r="F91">
-        <v>5.139239160922881</v>
+        <v>5.463423095096643</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2.236420717967341</v>
+        <v>2.505129437964528</v>
       </c>
       <c r="I91">
-        <v>0.9994701757119014</v>
+        <v>0.97576580525083</v>
       </c>
     </row>
     <row r="92">
@@ -3201,28 +3201,28 @@
         </is>
       </c>
       <c r="B92">
-        <v>1.347906206186589</v>
+        <v>1.421988526119724</v>
       </c>
       <c r="C92">
-        <v>0.2745465980425331</v>
+        <v>0.2817125602696093</v>
       </c>
       <c r="D92">
-        <v>138.0445206454231</v>
+        <v>142.5756564457268</v>
       </c>
       <c r="E92">
-        <v>0.6163924284479027</v>
+        <v>0.6647833357543779</v>
       </c>
       <c r="F92">
-        <v>2.947555902416287</v>
+        <v>3.041669758646365</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1.465764559671443</v>
+        <v>1.777059444444957</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0.9999999997977281</v>
       </c>
     </row>
     <row r="93">
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="B93">
-        <v>2.626734346890464</v>
+        <v>2.687716576833169</v>
       </c>
       <c r="C93">
-        <v>0.6551392530305425</v>
+        <v>0.6632732388992847</v>
       </c>
       <c r="D93">
-        <v>125.434140204722</v>
+        <v>129.7449179570716</v>
       </c>
       <c r="E93">
-        <v>1.004996977879773</v>
+        <v>1.039811965272004</v>
       </c>
       <c r="F93">
-        <v>6.865426942566868</v>
+        <v>6.947237230044887</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>3.872071540729636</v>
+        <v>4.006378759078676</v>
       </c>
       <c r="I93">
-        <v>0.04655952698802235</v>
+        <v>0.02810774840356545</v>
       </c>
     </row>
     <row r="94">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B94">
-        <v>1.314609719094676</v>
+        <v>1.297672120356069</v>
       </c>
       <c r="C94">
-        <v>0.2731644888637341</v>
+        <v>0.2637266159245758</v>
       </c>
       <c r="D94">
-        <v>130.7075854693952</v>
+        <v>135.526023101999</v>
       </c>
       <c r="E94">
-        <v>0.5910201776261109</v>
+        <v>0.5942157072881942</v>
       </c>
       <c r="F94">
-        <v>2.924094267778909</v>
+        <v>2.833908480195561</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1.316416056104382</v>
+        <v>1.282149683803647</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3294,28 +3294,28 @@
         </is>
       </c>
       <c r="B95">
-        <v>1.556409498157354</v>
+        <v>1.652389755896322</v>
       </c>
       <c r="C95">
-        <v>0.2685056610821774</v>
+        <v>0.2823995937090089</v>
       </c>
       <c r="D95">
-        <v>130.7527671878726</v>
+        <v>135.3601536116362</v>
       </c>
       <c r="E95">
-        <v>0.8014436364497876</v>
+        <v>0.8567218513806102</v>
       </c>
       <c r="F95">
-        <v>3.02255881235161</v>
+        <v>3.187022603650265</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>2.564291815746051</v>
+        <v>2.938628312103775</v>
       </c>
       <c r="I95">
-        <v>0.9585661377603532</v>
+        <v>0.6577198325682645</v>
       </c>
     </row>
     <row r="96">
@@ -3325,28 +3325,28 @@
         </is>
       </c>
       <c r="B96">
-        <v>1.944312183451229</v>
+        <v>1.937522586637764</v>
       </c>
       <c r="C96">
-        <v>0.4780383296463073</v>
+        <v>0.4737450455396128</v>
       </c>
       <c r="D96">
-        <v>130.4123267005418</v>
+        <v>134.9047366640979</v>
       </c>
       <c r="E96">
-        <v>0.7549664249293168</v>
+        <v>0.756955542590649</v>
       </c>
       <c r="F96">
-        <v>5.007308592658037</v>
+        <v>4.959331905918281</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>2.704363211302136</v>
+        <v>2.705035328502645</v>
       </c>
       <c r="I96">
-        <v>0.8834284034320681</v>
+        <v>0.8819264279991323</v>
       </c>
     </row>
     <row r="97">
@@ -3356,25 +3356,25 @@
         </is>
       </c>
       <c r="B97">
-        <v>1.008915556004472</v>
+        <v>0.9654879362764476</v>
       </c>
       <c r="C97">
-        <v>0.245264171236609</v>
+        <v>0.2307936774453699</v>
       </c>
       <c r="D97">
-        <v>136.8036552518864</v>
+        <v>141.5205520476505</v>
       </c>
       <c r="E97">
-        <v>0.3964590643640404</v>
+        <v>0.3856784227403224</v>
       </c>
       <c r="F97">
-        <v>2.567504922054546</v>
+        <v>2.416953866571329</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0.03651239372007015</v>
+        <v>-0.1469258212758221</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3387,25 +3387,25 @@
         </is>
       </c>
       <c r="B98">
-        <v>1.223433011604128</v>
+        <v>1.255381373114634</v>
       </c>
       <c r="C98">
-        <v>0.2509522065151525</v>
+        <v>0.2570239782719324</v>
       </c>
       <c r="D98">
-        <v>131.3681216217022</v>
+        <v>135.8022870010105</v>
       </c>
       <c r="E98">
-        <v>0.5557728807707205</v>
+        <v>0.5715558652943347</v>
       </c>
       <c r="F98">
-        <v>2.693165474009939</v>
+        <v>2.757354945787492</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0.9831295991843134</v>
+        <v>1.110881560421725</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3418,28 +3418,28 @@
         </is>
       </c>
       <c r="B99">
-        <v>1.60304815011463</v>
+        <v>1.578821475558868</v>
       </c>
       <c r="C99">
-        <v>0.3934123044714578</v>
+        <v>0.3850316562124454</v>
       </c>
       <c r="D99">
-        <v>135.3928637470008</v>
+        <v>140.1038415779631</v>
       </c>
       <c r="E99">
-        <v>0.6241690309967385</v>
+        <v>0.6189412010375261</v>
       </c>
       <c r="F99">
-        <v>4.117095280235659</v>
+        <v>4.027324804856141</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1.922892323371561</v>
+        <v>1.872609889409122</v>
       </c>
       <c r="I99">
-        <v>0.9999998960273114</v>
+        <v>0.9999999850810913</v>
       </c>
     </row>
     <row r="100">
@@ -3449,25 +3449,25 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.8705049594991419</v>
+        <v>0.8185953231898607</v>
       </c>
       <c r="C100">
-        <v>0.2387924172037828</v>
+        <v>0.2200051737464338</v>
       </c>
       <c r="D100">
-        <v>138.7180308097011</v>
+        <v>143.7630551265582</v>
       </c>
       <c r="E100">
-        <v>0.3035272567606546</v>
+        <v>0.291874151128935</v>
       </c>
       <c r="F100">
-        <v>2.496576065688053</v>
+        <v>2.295846687883977</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>-0.505557151622264</v>
+        <v>-0.7447755911108529</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3480,25 +3480,25 @@
         </is>
       </c>
       <c r="B101">
-        <v>1.08783044901794</v>
+        <v>1.092717599171059</v>
       </c>
       <c r="C101">
-        <v>0.27102075721253</v>
+        <v>0.2711288671482803</v>
       </c>
       <c r="D101">
-        <v>132.2417548282072</v>
+        <v>136.7291555092851</v>
       </c>
       <c r="E101">
-        <v>0.4172740290628364</v>
+        <v>0.4211697931239322</v>
       </c>
       <c r="F101">
-        <v>2.835966303650237</v>
+        <v>2.835036536408991</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.3379052311088163</v>
+        <v>0.357353573191329</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3511,28 +3511,28 @@
         </is>
       </c>
       <c r="B102">
-        <v>1.624001394854521</v>
+        <v>1.619112793170502</v>
       </c>
       <c r="C102">
-        <v>0.3809685417125992</v>
+        <v>0.3773671217666761</v>
       </c>
       <c r="D102">
-        <v>137.9950186145311</v>
+        <v>143.1860848816842</v>
       </c>
       <c r="E102">
-        <v>0.6595167696943944</v>
+        <v>0.6619663160058799</v>
       </c>
       <c r="F102">
-        <v>3.998959013144631</v>
+        <v>3.960210925573891</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2.067013376627414</v>
+        <v>2.067523483516086</v>
       </c>
       <c r="I102">
-        <v>0.9999892429380641</v>
+        <v>0.9999888753591679</v>
       </c>
     </row>
     <row r="103">
@@ -3542,25 +3542,25 @@
         </is>
       </c>
       <c r="B103">
-        <v>0.9228836290651549</v>
+        <v>0.8734730191318827</v>
       </c>
       <c r="C103">
-        <v>0.2666119369421533</v>
+        <v>0.2454400254273619</v>
       </c>
       <c r="D103">
-        <v>136.1611546339426</v>
+        <v>142.1455946278844</v>
       </c>
       <c r="E103">
-        <v>0.3040965724408814</v>
+        <v>0.2970620410334986</v>
       </c>
       <c r="F103">
-        <v>2.800801685990887</v>
+        <v>2.568335935809889</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>-0.2777946822625506</v>
+        <v>-0.4814280644246289</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3573,25 +3573,25 @@
         </is>
       </c>
       <c r="B104">
-        <v>1.188506298867957</v>
+        <v>1.197010674153211</v>
       </c>
       <c r="C104">
-        <v>0.3480997064380345</v>
+        <v>0.3475875307358857</v>
       </c>
       <c r="D104">
-        <v>130.199205454129</v>
+        <v>135.3358166343717</v>
       </c>
       <c r="E104">
-        <v>0.3850914936097597</v>
+        <v>0.3920971219851644</v>
       </c>
       <c r="F104">
-        <v>3.668082120453805</v>
+        <v>3.654284802659015</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0.5896351940106159</v>
+        <v>0.6192835794937545</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3604,25 +3604,25 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.8773283684563958</v>
+        <v>0.8706302285712014</v>
       </c>
       <c r="C105">
-        <v>0.2279144920914105</v>
+        <v>0.2241148501772181</v>
       </c>
       <c r="D105">
-        <v>129.1671547858324</v>
+        <v>133.4162694348551</v>
       </c>
       <c r="E105">
-        <v>0.322808589204534</v>
+        <v>0.3235761432342417</v>
       </c>
       <c r="F105">
-        <v>2.384400824014848</v>
+        <v>2.342561436469119</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>-0.5037828625008082</v>
+        <v>-0.5381852591802652</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3635,28 +3635,28 @@
         </is>
       </c>
       <c r="B106">
-        <v>0.65088235696939</v>
+        <v>0.6122624849491219</v>
       </c>
       <c r="C106">
-        <v>0.1147785085082052</v>
+        <v>0.1044944438812488</v>
       </c>
       <c r="D106">
-        <v>140.1106445506859</v>
+        <v>145.5015707315593</v>
       </c>
       <c r="E106">
-        <v>0.3306986772242953</v>
+        <v>0.3181385115059184</v>
       </c>
       <c r="F106">
-        <v>1.281069057094204</v>
+        <v>1.178308620046146</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>-2.435177524216432</v>
+        <v>-2.874530047708065</v>
       </c>
       <c r="I106">
-        <v>0.9887945954852017</v>
+        <v>0.7240080046915733</v>
       </c>
     </row>
     <row r="107">
@@ -3666,28 +3666,28 @@
         </is>
       </c>
       <c r="B107">
-        <v>4.044865972477164</v>
+        <v>4.282392047185722</v>
       </c>
       <c r="C107">
-        <v>0.8869415223929654</v>
+        <v>0.9244030233664494</v>
       </c>
       <c r="D107">
-        <v>117.2618166337249</v>
+        <v>121.4708222755773</v>
       </c>
       <c r="E107">
-        <v>1.734948344270229</v>
+        <v>1.862958479295148</v>
       </c>
       <c r="F107">
-        <v>9.430217786792689</v>
+        <v>9.843956185613997</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>6.373014908887786</v>
+        <v>6.738175193422014</v>
       </c>
       <c r="I107">
-        <v>1.045407915345464e-06</v>
+        <v>1.57403776346321e-07</v>
       </c>
     </row>
     <row r="108">
@@ -3697,28 +3697,28 @@
         </is>
       </c>
       <c r="B108">
-        <v>2.024346362299103</v>
+        <v>2.067606687389347</v>
       </c>
       <c r="C108">
-        <v>0.463386461599476</v>
+        <v>0.4619179418154059</v>
       </c>
       <c r="D108">
-        <v>123.3096373439282</v>
+        <v>127.9431695891704</v>
       </c>
       <c r="E108">
-        <v>0.8377917433368449</v>
+        <v>0.8748730930960428</v>
       </c>
       <c r="F108">
-        <v>4.891404370054726</v>
+        <v>4.886420039057989</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>3.080935769138692</v>
+        <v>3.2514269339467</v>
       </c>
       <c r="I108">
-        <v>0.5050931100401287</v>
+        <v>0.3333393323516095</v>
       </c>
     </row>
     <row r="109">
@@ -3728,28 +3728,28 @@
         </is>
       </c>
       <c r="B109">
-        <v>2.396689952978889</v>
+        <v>2.632785320630478</v>
       </c>
       <c r="C109">
-        <v>0.6082828030392052</v>
+        <v>0.6587016231630588</v>
       </c>
       <c r="D109">
-        <v>130.6339991273538</v>
+        <v>135.4948577351847</v>
       </c>
       <c r="E109">
-        <v>0.9026789030059831</v>
+        <v>1.006483453662997</v>
       </c>
       <c r="F109">
-        <v>6.363417502704036</v>
+        <v>6.886907598232846</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>3.443989133197395</v>
+        <v>3.869199013528445</v>
       </c>
       <c r="I109">
-        <v>0.191719116217612</v>
+        <v>0.04556845338922733</v>
       </c>
     </row>
     <row r="110">
@@ -3759,28 +3759,28 @@
         </is>
       </c>
       <c r="B110">
-        <v>2.994015059050283</v>
+        <v>3.087093106385708</v>
       </c>
       <c r="C110">
-        <v>0.5396464674516973</v>
+        <v>0.5516567961980153</v>
       </c>
       <c r="D110">
-        <v>128.1319047715211</v>
+        <v>132.5826854592364</v>
       </c>
       <c r="E110">
-        <v>1.495939993018552</v>
+        <v>1.552710802197902</v>
       </c>
       <c r="F110">
-        <v>5.992303311399399</v>
+        <v>6.137745569879463</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>6.084136499175354</v>
+        <v>6.308022842621293</v>
       </c>
       <c r="I110">
-        <v>3.474013586135527e-06</v>
+        <v>1.078390422515341e-06</v>
       </c>
     </row>
     <row r="111">
@@ -3790,28 +3790,28 @@
         </is>
       </c>
       <c r="B111">
-        <v>1.553612837330271</v>
+        <v>1.538331048594286</v>
       </c>
       <c r="C111">
-        <v>0.308349997407535</v>
+        <v>0.2972711570661544</v>
       </c>
       <c r="D111">
-        <v>133.3903885172637</v>
+        <v>138.0816160351904</v>
       </c>
       <c r="E111">
-        <v>0.7242916552162126</v>
+        <v>0.7322654930426192</v>
       </c>
       <c r="F111">
-        <v>3.332515059277997</v>
+        <v>3.231700028955841</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2.219865532834816</v>
+        <v>2.228794267277134</v>
       </c>
       <c r="I111">
-        <v>0.9996184726808427</v>
+        <v>0.9995382005384593</v>
       </c>
     </row>
     <row r="112">
@@ -3821,28 +3821,28 @@
         </is>
       </c>
       <c r="B112">
-        <v>1.883944816917247</v>
+        <v>2.000224002318567</v>
       </c>
       <c r="C112">
-        <v>0.3663525341445856</v>
+        <v>0.3850748153800895</v>
       </c>
       <c r="D112">
-        <v>132.303177649385</v>
+        <v>137.0712831959724</v>
       </c>
       <c r="E112">
-        <v>0.8917904969109526</v>
+        <v>0.9546503718281418</v>
       </c>
       <c r="F112">
-        <v>3.979912418312929</v>
+        <v>4.190954277626947</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>3.257054431402321</v>
+        <v>3.601049944512941</v>
       </c>
       <c r="I112">
-        <v>0.3263517376343359</v>
+        <v>0.1148792742245189</v>
       </c>
     </row>
     <row r="113">
@@ -3852,28 +3852,28 @@
         </is>
       </c>
       <c r="B113">
-        <v>2.468508062993522</v>
+        <v>2.515567522683399</v>
       </c>
       <c r="C113">
-        <v>0.4974124933092677</v>
+        <v>0.5030675284199931</v>
       </c>
       <c r="D113">
-        <v>138.45353187658</v>
+        <v>143.1808292432492</v>
       </c>
       <c r="E113">
-        <v>1.138406345174213</v>
+        <v>1.167725499880755</v>
       </c>
       <c r="F113">
-        <v>5.352686308272042</v>
+        <v>5.419150272753055</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>4.484363258321385</v>
+        <v>4.612913708956836</v>
       </c>
       <c r="I113">
-        <v>0.004191882721563123</v>
+        <v>0.00240718789911587</v>
       </c>
     </row>
     <row r="114">
@@ -3883,25 +3883,25 @@
         </is>
       </c>
       <c r="B114">
-        <v>1.3404765859627</v>
+        <v>1.304284139223538</v>
       </c>
       <c r="C114">
-        <v>0.2841220126591207</v>
+        <v>0.2677291512440012</v>
       </c>
       <c r="D114">
-        <v>138.056079459658</v>
+        <v>143.3246340577724</v>
       </c>
       <c r="E114">
-        <v>0.5938233537669162</v>
+        <v>0.5932997501784374</v>
       </c>
       <c r="F114">
-        <v>3.025946127102833</v>
+        <v>2.867281025010472</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1.382481533084785</v>
+        <v>1.294176364017512</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="B115">
-        <v>1.675132611817448</v>
+        <v>1.741048590035347</v>
       </c>
       <c r="C115">
-        <v>0.3117863260008937</v>
+        <v>0.3212927970418534</v>
       </c>
       <c r="D115">
-        <v>131.2608134733445</v>
+        <v>136.0032880737166</v>
       </c>
       <c r="E115">
-        <v>0.8186393449039128</v>
+        <v>0.856678833552622</v>
       </c>
       <c r="F115">
-        <v>3.427723434797415</v>
+        <v>3.538374095568074</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>2.771731791164854</v>
+        <v>3.004704152239905</v>
       </c>
       <c r="I115">
-        <v>0.8293908048416552</v>
+        <v>0.5832080355602044</v>
       </c>
     </row>
     <row r="116">
@@ -3945,28 +3945,28 @@
         </is>
       </c>
       <c r="B116">
-        <v>2.500773627557256</v>
+        <v>2.579764476929965</v>
       </c>
       <c r="C116">
-        <v>0.6728435626207447</v>
+        <v>0.6897743741568585</v>
       </c>
       <c r="D116">
-        <v>136.0696266365722</v>
+        <v>141.0808096467854</v>
       </c>
       <c r="E116">
-        <v>0.8892730320377478</v>
+        <v>0.9242339461132631</v>
       </c>
       <c r="F116">
-        <v>7.032563128508786</v>
+        <v>7.200757756645045</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>3.406749461587525</v>
+        <v>3.544402346997097</v>
       </c>
       <c r="I116">
-        <v>0.212404115540919</v>
+        <v>0.1371202081494114</v>
       </c>
     </row>
     <row r="117">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B117">
-        <v>1.421133656770792</v>
+        <v>1.391721858920491</v>
       </c>
       <c r="C117">
-        <v>0.3791056345745691</v>
+        <v>0.3598172197374161</v>
       </c>
       <c r="D117">
-        <v>130.3368279331821</v>
+        <v>136.3592302257078</v>
       </c>
       <c r="E117">
-        <v>0.5091771473762284</v>
+        <v>0.5153293412310521</v>
       </c>
       <c r="F117">
-        <v>3.966440522348178</v>
+        <v>3.758547355309012</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1.317480791246195</v>
+        <v>1.278488418128083</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4007,28 +4007,28 @@
         </is>
       </c>
       <c r="B118">
-        <v>1.830161733734791</v>
+        <v>1.907220811738258</v>
       </c>
       <c r="C118">
-        <v>0.4624056396092193</v>
+        <v>0.4765554520633658</v>
       </c>
       <c r="D118">
-        <v>123.8421911123551</v>
+        <v>129.4105185776216</v>
       </c>
       <c r="E118">
-        <v>0.6912597264983704</v>
+        <v>0.729083078490235</v>
       </c>
       <c r="F118">
-        <v>4.845489825646647</v>
+        <v>4.989131324046027</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>2.392180379625657</v>
+        <v>2.583941910527829</v>
       </c>
       <c r="I118">
-        <v>0.9938055707575715</v>
+        <v>0.951132199868963</v>
       </c>
     </row>
     <row r="119">
@@ -4038,28 +4038,28 @@
         </is>
       </c>
       <c r="B119">
-        <v>1.350983843668514</v>
+        <v>1.387192384423883</v>
       </c>
       <c r="C119">
-        <v>0.1735957205261627</v>
+        <v>0.1755539393164848</v>
       </c>
       <c r="D119">
-        <v>132.2415186569505</v>
+        <v>137.2925103445045</v>
       </c>
       <c r="E119">
-        <v>0.8241797167013074</v>
+        <v>0.8530561284087472</v>
       </c>
       <c r="F119">
-        <v>2.21451378730643</v>
+        <v>2.255775027363236</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>2.341190535458684</v>
+        <v>2.586116117966462</v>
       </c>
       <c r="I119">
-        <v>0.996905131069922</v>
+        <v>0.9493304394206246</v>
       </c>
     </row>
     <row r="120">
@@ -4069,25 +4069,25 @@
         </is>
       </c>
       <c r="B120">
-        <v>1.002283272729066</v>
+        <v>0.9755299420095946</v>
       </c>
       <c r="C120">
-        <v>0.2097318700127078</v>
+        <v>0.1992472813997174</v>
       </c>
       <c r="D120">
-        <v>128.2273857558723</v>
+        <v>132.6968547402043</v>
       </c>
       <c r="E120">
-        <v>0.4478718129994684</v>
+        <v>0.4447551665523617</v>
       </c>
       <c r="F120">
-        <v>2.242989466259803</v>
+        <v>2.139736060031138</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0.01089904655146918</v>
+        <v>-0.1212974831158182</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -4100,28 +4100,28 @@
         </is>
       </c>
       <c r="B121">
-        <v>1.539883916036461</v>
+        <v>1.593319803173405</v>
       </c>
       <c r="C121">
-        <v>0.3920321593197089</v>
+        <v>0.4024394573891439</v>
       </c>
       <c r="D121">
-        <v>125.2215428656935</v>
+        <v>129.4167067282289</v>
       </c>
       <c r="E121">
-        <v>0.5775101474186317</v>
+        <v>0.602767611663244</v>
       </c>
       <c r="F121">
-        <v>4.105975428253205</v>
+        <v>4.211686139173064</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1.695724962580517</v>
+        <v>1.84425220826823</v>
       </c>
       <c r="I121">
-        <v>0.999999999997624</v>
+        <v>0.9999999957177977</v>
       </c>
     </row>
     <row r="122">
@@ -4131,28 +4131,28 @@
         </is>
       </c>
       <c r="B122">
-        <v>5.258424876362116</v>
+        <v>5.900162087580227</v>
       </c>
       <c r="C122">
-        <v>1.343432893609485</v>
+        <v>1.456912211966511</v>
       </c>
       <c r="D122">
-        <v>134.3721841734465</v>
+        <v>139.0695986267527</v>
       </c>
       <c r="E122">
-        <v>1.969320219614077</v>
+        <v>2.285613522000387</v>
       </c>
       <c r="F122">
-        <v>14.04090198482938</v>
+        <v>15.23088322878462</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>6.496862956700417</v>
+        <v>7.188263350323167</v>
       </c>
       <c r="I122">
-        <v>4.058627133263215e-07</v>
+        <v>1.011966377362228e-08</v>
       </c>
     </row>
     <row r="123">
@@ -4162,28 +4162,28 @@
         </is>
       </c>
       <c r="B123">
-        <v>2.631699873943563</v>
+        <v>2.84869167851621</v>
       </c>
       <c r="C123">
-        <v>0.4446387426644937</v>
+        <v>0.4697679132442268</v>
       </c>
       <c r="D123">
-        <v>128.8788501706533</v>
+        <v>134.0644322083332</v>
       </c>
       <c r="E123">
-        <v>1.373458143124546</v>
+        <v>1.511151957642942</v>
       </c>
       <c r="F123">
-        <v>5.042632177168957</v>
+        <v>5.370104732488422</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>5.727147558119431</v>
+        <v>6.348200459297671</v>
       </c>
       <c r="I123">
-        <v>1.886336894341145e-05</v>
+        <v>8.612454878154097e-07</v>
       </c>
     </row>
     <row r="124">
@@ -4193,28 +4193,28 @@
         </is>
       </c>
       <c r="B124">
-        <v>3.115755665435091</v>
+        <v>3.627379268960242</v>
       </c>
       <c r="C124">
-        <v>0.8485958894011638</v>
+        <v>0.9583510159889435</v>
       </c>
       <c r="D124">
-        <v>144.4339589846617</v>
+        <v>149.8515672848008</v>
       </c>
       <c r="E124">
-        <v>1.095851198858185</v>
+        <v>1.317629482241694</v>
       </c>
       <c r="F124">
-        <v>8.858806174420378</v>
+        <v>9.986024552590408</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>4.172737836271025</v>
+        <v>4.877039746890713</v>
       </c>
       <c r="I124">
-        <v>0.01417849272395644</v>
+        <v>0.0007507379355645716</v>
       </c>
     </row>
     <row r="125">
@@ -4224,28 +4224,28 @@
         </is>
       </c>
       <c r="B125">
-        <v>3.892292939701768</v>
+        <v>4.253312052337017</v>
       </c>
       <c r="C125">
-        <v>0.8008096307324345</v>
+        <v>0.8452678782978394</v>
       </c>
       <c r="D125">
-        <v>137.7415129298425</v>
+        <v>142.9101031599208</v>
       </c>
       <c r="E125">
-        <v>1.765825780020194</v>
+        <v>1.983803439497794</v>
       </c>
       <c r="F125">
-        <v>8.579523812524121</v>
+        <v>9.11918139386583</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>6.605340128068178</v>
+        <v>7.284686250980865</v>
       </c>
       <c r="I125">
-        <v>2.198712917289569e-07</v>
+        <v>5.508785427821294e-09</v>
       </c>
     </row>
     <row r="126">
@@ -4255,28 +4255,28 @@
         </is>
       </c>
       <c r="B126">
-        <v>2.019734757008478</v>
+        <v>2.119470247248456</v>
       </c>
       <c r="C126">
-        <v>0.2335668298477412</v>
+        <v>0.241995282696955</v>
       </c>
       <c r="D126">
-        <v>132.4237336650746</v>
+        <v>137.5004901515918</v>
       </c>
       <c r="E126">
-        <v>1.294622310087406</v>
+        <v>1.366867318091238</v>
       </c>
       <c r="F126">
-        <v>3.150979599905614</v>
+        <v>3.286459533793301</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>6.078796619863953</v>
+        <v>6.578947899183914</v>
       </c>
       <c r="I126">
-        <v>3.339728380735707e-06</v>
+        <v>2.527765771143109e-07</v>
       </c>
     </row>
     <row r="127">
@@ -4286,28 +4286,28 @@
         </is>
       </c>
       <c r="B127">
-        <v>2.449174424660631</v>
+        <v>2.755853666621609</v>
       </c>
       <c r="C127">
-        <v>0.5412689485460173</v>
+        <v>0.5919463363488255</v>
       </c>
       <c r="D127">
-        <v>145.7361485368542</v>
+        <v>151.2014710146358</v>
       </c>
       <c r="E127">
-        <v>1.049218908587849</v>
+        <v>1.209976725816869</v>
       </c>
       <c r="F127">
-        <v>5.717067537874525</v>
+        <v>6.276756626623933</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>4.053161448952741</v>
+        <v>4.719488579183548</v>
       </c>
       <c r="I127">
-        <v>0.02235622660642955</v>
+        <v>0.001473463689357635</v>
       </c>
     </row>
     <row r="128">
@@ -4317,28 +4317,28 @@
         </is>
       </c>
       <c r="B128">
-        <v>3.209120968227305</v>
+        <v>3.465879807954213</v>
       </c>
       <c r="C128">
-        <v>0.6512605904135194</v>
+        <v>0.6840833692788674</v>
       </c>
       <c r="D128">
-        <v>141.3762330480142</v>
+        <v>146.6189379606324</v>
       </c>
       <c r="E128">
-        <v>1.472463353604439</v>
+        <v>1.625795147179502</v>
       </c>
       <c r="F128">
-        <v>6.994033069486306</v>
+        <v>7.388583281248085</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>5.745512107889772</v>
+        <v>6.297437905479825</v>
       </c>
       <c r="I128">
-        <v>1.492131206337621e-05</v>
+        <v>9.180196214320091e-07</v>
       </c>
     </row>
     <row r="129">
@@ -4348,28 +4348,28 @@
         </is>
       </c>
       <c r="B129">
-        <v>1.742652407711395</v>
+        <v>1.797006846847712</v>
       </c>
       <c r="C129">
-        <v>0.2214897885414814</v>
+        <v>0.2258693792764426</v>
       </c>
       <c r="D129">
-        <v>136.2294944269453</v>
+        <v>141.3469424348423</v>
       </c>
       <c r="E129">
-        <v>1.069288457632238</v>
+        <v>1.109162949399756</v>
       </c>
       <c r="F129">
-        <v>2.840054423505975</v>
+        <v>2.911414963297426</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>4.369879355822187</v>
+        <v>4.663164177095744</v>
       </c>
       <c r="I129">
-        <v>0.006728726964901899</v>
+        <v>0.001968258824287528</v>
       </c>
     </row>
     <row r="130">
@@ -4379,28 +4379,28 @@
         </is>
       </c>
       <c r="B130">
-        <v>2.177713441464603</v>
+        <v>2.398768905409388</v>
       </c>
       <c r="C130">
-        <v>0.4732472659469129</v>
+        <v>0.5113698050523179</v>
       </c>
       <c r="D130">
-        <v>143.619036822473</v>
+        <v>148.5276569997204</v>
       </c>
       <c r="E130">
-        <v>0.9459077884913502</v>
+        <v>1.059344753193044</v>
       </c>
       <c r="F130">
-        <v>5.013634405843538</v>
+        <v>5.431746600165005</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>3.581343247980462</v>
+        <v>4.104302571834376</v>
       </c>
       <c r="I130">
-        <v>0.1209667822001969</v>
+        <v>0.01822937165961769</v>
       </c>
     </row>
     <row r="131">
@@ -4410,28 +4410,28 @@
         </is>
       </c>
       <c r="B131">
-        <v>3.251066992769597</v>
+        <v>3.554328607459301</v>
       </c>
       <c r="C131">
-        <v>0.8203687729933105</v>
+        <v>0.8837537745167161</v>
       </c>
       <c r="D131">
-        <v>140.641976901056</v>
+        <v>145.3889192726705</v>
       </c>
       <c r="E131">
-        <v>1.233869141472694</v>
+        <v>1.369406394330785</v>
       </c>
       <c r="F131">
-        <v>8.566092007828898</v>
+        <v>9.225348955652658</v>
       </c>
       <c r="G131">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>4.672232352755293</v>
+        <v>5.100379185448114</v>
       </c>
       <c r="I131">
-        <v>0.001901764646978332</v>
+        <v>0.000287307790105551</v>
       </c>
     </row>
     <row r="132">
@@ -4441,28 +4441,28 @@
         </is>
       </c>
       <c r="B132">
-        <v>1.847508576117891</v>
+        <v>1.917476134361791</v>
       </c>
       <c r="C132">
-        <v>0.3676648668539932</v>
+        <v>0.3759372659935631</v>
       </c>
       <c r="D132">
-        <v>129.6786222575513</v>
+        <v>135.7642227584831</v>
       </c>
       <c r="E132">
-        <v>0.8590021891032107</v>
+        <v>0.9026028354288279</v>
       </c>
       <c r="F132">
-        <v>3.973549755900613</v>
+        <v>4.073457983433239</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>3.084523708558051</v>
+        <v>3.320489568097929</v>
       </c>
       <c r="I132">
-        <v>0.4977718782920135</v>
+        <v>0.2729600063595589</v>
       </c>
     </row>
     <row r="133">
@@ -4472,28 +4472,28 @@
         </is>
       </c>
       <c r="B133">
-        <v>2.379255098666035</v>
+        <v>2.627716426256951</v>
       </c>
       <c r="C133">
-        <v>0.6642306227457505</v>
+        <v>0.724907563697764</v>
       </c>
       <c r="D133">
-        <v>137.0411328843467</v>
+        <v>141.8796978314461</v>
       </c>
       <c r="E133">
-        <v>0.813957783744308</v>
+        <v>0.9113675834630929</v>
       </c>
       <c r="F133">
-        <v>6.95472779741436</v>
+        <v>7.576409060527249</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>3.104807879981014</v>
+        <v>3.502069617733691</v>
       </c>
       <c r="I133">
-        <v>0.4723885280482339</v>
+        <v>0.1567782041164454</v>
       </c>
     </row>
     <row r="134">
@@ -4503,28 +4503,28 @@
         </is>
       </c>
       <c r="B134">
-        <v>1.756312100190343</v>
+        <v>1.911235548864929</v>
       </c>
       <c r="C134">
-        <v>0.4170224544024828</v>
+        <v>0.440380941390671</v>
       </c>
       <c r="D134">
-        <v>143.071063397097</v>
+        <v>147.9932840883465</v>
       </c>
       <c r="E134">
-        <v>0.7060993830762785</v>
+        <v>0.790001250987221</v>
       </c>
       <c r="F134">
-        <v>4.368552454806191</v>
+        <v>4.623817137859334</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>2.372014838761588</v>
+        <v>2.811208551636859</v>
       </c>
       <c r="I134">
-        <v>0.9950123141250267</v>
+        <v>0.7880069119650326</v>
       </c>
     </row>
     <row r="135">
@@ -4534,28 +4534,28 @@
         </is>
       </c>
       <c r="B135">
-        <v>1.302992813690791</v>
+        <v>1.344058347700066</v>
       </c>
       <c r="C135">
-        <v>0.1510112232375628</v>
+        <v>0.1535131447678093</v>
       </c>
       <c r="D135">
-        <v>133.69623125565</v>
+        <v>138.6881296067031</v>
       </c>
       <c r="E135">
-        <v>0.8344894412633255</v>
+        <v>0.8667575755632647</v>
       </c>
       <c r="F135">
-        <v>2.034525769384902</v>
+        <v>2.084196196206625</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>2.283638260797574</v>
+        <v>2.588895729177079</v>
       </c>
       <c r="I135">
-        <v>0.9987643941772214</v>
+        <v>0.9479996127376047</v>
       </c>
     </row>
     <row r="136">
@@ -4565,28 +4565,28 @@
         </is>
       </c>
       <c r="B136">
-        <v>2.001886822924083</v>
+        <v>2.195232242282092</v>
       </c>
       <c r="C136">
-        <v>0.4420340697524966</v>
+        <v>0.4712320522823457</v>
       </c>
       <c r="D136">
-        <v>141.5788734283151</v>
+        <v>146.6757751014771</v>
       </c>
       <c r="E136">
-        <v>0.8576741602781676</v>
+        <v>0.9637106480594061</v>
       </c>
       <c r="F136">
-        <v>4.672579678158099</v>
+        <v>5.000509859737277</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>3.143400056374504</v>
+        <v>3.662918137778431</v>
       </c>
       <c r="I136">
-        <v>0.4300241669872771</v>
+        <v>0.09148215274643412</v>
       </c>
     </row>
     <row r="137">
@@ -4596,28 +4596,28 @@
         </is>
       </c>
       <c r="B137">
-        <v>1.300024503195526</v>
+        <v>1.377772521191202</v>
       </c>
       <c r="C137">
-        <v>0.2344420199919734</v>
+        <v>0.2396710194044957</v>
       </c>
       <c r="D137">
-        <v>138.2804890676932</v>
+        <v>142.8648483336819</v>
       </c>
       <c r="E137">
-        <v>0.6502989279217615</v>
+        <v>0.7067101776236983</v>
       </c>
       <c r="F137">
-        <v>2.598902806606056</v>
+        <v>2.686047520261306</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1.454963048043772</v>
+        <v>1.842242402290276</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0.9999999958176324</v>
       </c>
     </row>
     <row r="138">
@@ -4627,28 +4627,28 @@
         </is>
       </c>
       <c r="B138">
-        <v>3.341641305947801</v>
+        <v>3.537694148904916</v>
       </c>
       <c r="C138">
-        <v>0.8180909991416635</v>
+        <v>0.8502255462096138</v>
       </c>
       <c r="D138">
-        <v>123.7685165153936</v>
+        <v>128.148760860622</v>
       </c>
       <c r="E138">
-        <v>1.300849706562529</v>
+        <v>1.402546150075148</v>
       </c>
       <c r="F138">
-        <v>8.584055914594446</v>
+        <v>8.923257099615228</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>4.928013602139888</v>
+        <v>5.257179869593317</v>
       </c>
       <c r="I138">
-        <v>0.0007190354736950066</v>
+        <v>0.0001639777064460501</v>
       </c>
     </row>
     <row r="139">
@@ -4658,28 +4658,28 @@
         </is>
       </c>
       <c r="B139">
-        <v>1.672401376914114</v>
+        <v>1.708054750620254</v>
       </c>
       <c r="C139">
-        <v>0.3745508827426746</v>
+        <v>0.3737840398011799</v>
       </c>
       <c r="D139">
-        <v>124.8005199554217</v>
+        <v>129.6837171726689</v>
       </c>
       <c r="E139">
-        <v>0.7056850739804196</v>
+        <v>0.7358142633883337</v>
       </c>
       <c r="F139">
-        <v>3.963420041929113</v>
+        <v>3.964928618917929</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>2.296216832471543</v>
+        <v>2.446374939233472</v>
       </c>
       <c r="I139">
-        <v>0.9985198957731587</v>
+        <v>0.987564763429136</v>
       </c>
     </row>
     <row r="140">
@@ -4689,28 +4689,28 @@
         </is>
       </c>
       <c r="B140">
-        <v>1.980010759051069</v>
+        <v>2.174950149703858</v>
       </c>
       <c r="C140">
-        <v>0.4363423532321161</v>
+        <v>0.471186158499746</v>
       </c>
       <c r="D140">
-        <v>131.88516825213</v>
+        <v>136.7592531070718</v>
       </c>
       <c r="E140">
-        <v>0.8482923659452136</v>
+        <v>0.9460941366509127</v>
       </c>
       <c r="F140">
-        <v>4.621570066341007</v>
+        <v>4.999933907678627</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>3.09974461808294</v>
+        <v>3.586584049758159</v>
       </c>
       <c r="I140">
-        <v>0.480261446288151</v>
+        <v>0.1205632405536706</v>
       </c>
     </row>
     <row r="141">
@@ -4720,28 +4720,28 @@
         </is>
       </c>
       <c r="B141">
-        <v>2.473487245320253</v>
+        <v>2.550254880741838</v>
       </c>
       <c r="C141">
-        <v>0.4729809428287229</v>
+        <v>0.4825492457657248</v>
       </c>
       <c r="D141">
-        <v>125.5613972208475</v>
+        <v>129.9125799006635</v>
       </c>
       <c r="E141">
-        <v>1.184184939427769</v>
+        <v>1.231315655661874</v>
       </c>
       <c r="F141">
-        <v>5.166540249801208</v>
+        <v>5.281992417493918</v>
       </c>
       <c r="G141">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>4.736050791131216</v>
+        <v>4.947746934605705</v>
       </c>
       <c r="I141">
-        <v>0.001596731212959668</v>
+        <v>0.0006292166081174333</v>
       </c>
     </row>
     <row r="142">
@@ -4751,25 +4751,25 @@
         </is>
       </c>
       <c r="B142">
-        <v>1.283507751801758</v>
+        <v>1.270818899747212</v>
       </c>
       <c r="C142">
-        <v>0.2526455520313677</v>
+        <v>0.2448228693642494</v>
       </c>
       <c r="D142">
-        <v>130.5776508919437</v>
+        <v>135.2956620268942</v>
       </c>
       <c r="E142">
-        <v>0.6018563973056784</v>
+        <v>0.6060498259673537</v>
       </c>
       <c r="F142">
-        <v>2.737184744251384</v>
+        <v>2.664765513919493</v>
       </c>
       <c r="G142">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1.268019068030257</v>
+        <v>1.244027402230731</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -4782,28 +4782,28 @@
         </is>
       </c>
       <c r="B143">
-        <v>1.556409498157354</v>
+        <v>1.652389755896322</v>
       </c>
       <c r="C143">
-        <v>0.2685056610821774</v>
+        <v>0.2823995937090089</v>
       </c>
       <c r="D143">
-        <v>130.7527671878726</v>
+        <v>135.3601536116362</v>
       </c>
       <c r="E143">
-        <v>0.8014436364497876</v>
+        <v>0.8567218513806102</v>
       </c>
       <c r="F143">
-        <v>3.02255881235161</v>
+        <v>3.187022603650265</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2.564291815746051</v>
+        <v>2.938628312103775</v>
       </c>
       <c r="I143">
-        <v>0.9585661377603532</v>
+        <v>0.6577198325682645</v>
       </c>
     </row>
     <row r="144">
@@ -4813,28 +4813,28 @@
         </is>
       </c>
       <c r="B144">
-        <v>2.039342851776263</v>
+        <v>2.078116250944538</v>
       </c>
       <c r="C144">
-        <v>0.3784120108476067</v>
+        <v>0.3830747036283576</v>
       </c>
       <c r="D144">
-        <v>132.9934419849173</v>
+        <v>137.6615909819938</v>
       </c>
       <c r="E144">
-        <v>0.9990897072350831</v>
+        <v>1.023573097958944</v>
       </c>
       <c r="F144">
-        <v>4.162708550566982</v>
+        <v>4.219109666960981</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>3.840501914046306</v>
+        <v>3.968058217907471</v>
       </c>
       <c r="I144">
-        <v>0.05088443040817758</v>
+        <v>0.03154203127034505</v>
       </c>
     </row>
     <row r="145">
@@ -4844,25 +4844,25 @@
         </is>
       </c>
       <c r="B145">
-        <v>1.107426540159393</v>
+        <v>1.077472197080345</v>
       </c>
       <c r="C145">
-        <v>0.2370042376190162</v>
+        <v>0.2245724312830487</v>
       </c>
       <c r="D145">
-        <v>135.1669439223208</v>
+        <v>140.4913916365864</v>
       </c>
       <c r="E145">
-        <v>0.486484492819485</v>
+        <v>0.4840175728340425</v>
       </c>
       <c r="F145">
-        <v>2.520930389253888</v>
+        <v>2.398562367650245</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>0.4767871557928251</v>
+        <v>0.3580071661032406</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -4875,28 +4875,28 @@
         </is>
       </c>
       <c r="B146">
-        <v>1.383900570915891</v>
+        <v>1.438284337832856</v>
       </c>
       <c r="C146">
-        <v>0.2622305891692353</v>
+        <v>0.2702014120068027</v>
       </c>
       <c r="D146">
-        <v>131.3978141820478</v>
+        <v>136.1395822777769</v>
       </c>
       <c r="E146">
-        <v>0.6676426674208235</v>
+        <v>0.6987362089473573</v>
       </c>
       <c r="F146">
-        <v>2.8685715932145</v>
+        <v>2.960576266072893</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1.714665013032569</v>
+        <v>1.934652508201508</v>
       </c>
       <c r="I146">
-        <v>0.9999999999927874</v>
+        <v>0.999999839447931</v>
       </c>
     </row>
     <row r="147">
@@ -4906,28 +4906,28 @@
         </is>
       </c>
       <c r="B147">
-        <v>2.065998850773399</v>
+        <v>2.131149505936884</v>
       </c>
       <c r="C147">
-        <v>0.4864121019252926</v>
+        <v>0.4988778679214203</v>
       </c>
       <c r="D147">
-        <v>134.8509951640673</v>
+        <v>140.0876753077159</v>
       </c>
       <c r="E147">
-        <v>0.8357895193639419</v>
+        <v>0.8674515677717216</v>
       </c>
       <c r="F147">
-        <v>5.1069691022751</v>
+        <v>5.23579457965801</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>3.081990149516377</v>
+        <v>3.232371895530865</v>
       </c>
       <c r="I147">
-        <v>0.4979705089593224</v>
+        <v>0.3447928356679504</v>
       </c>
     </row>
     <row r="148">
@@ -4937,25 +4937,25 @@
         </is>
       </c>
       <c r="B148">
-        <v>1.174060886331317</v>
+        <v>1.149704703109021</v>
       </c>
       <c r="C148">
-        <v>0.3172669610029291</v>
+        <v>0.301749534308923</v>
       </c>
       <c r="D148">
-        <v>131.6986555356162</v>
+        <v>138.0899273320848</v>
       </c>
       <c r="E148">
-        <v>0.4152094910378103</v>
+        <v>0.4195032095865873</v>
       </c>
       <c r="F148">
-        <v>3.319815646236164</v>
+        <v>3.150919645295759</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>0.5938213214220655</v>
+        <v>0.5315325634457804</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -4968,28 +4968,28 @@
         </is>
       </c>
       <c r="B149">
-        <v>1.511976932641802</v>
+        <v>1.57555960127242</v>
       </c>
       <c r="C149">
-        <v>0.4109607774486692</v>
+        <v>0.4226645018647437</v>
       </c>
       <c r="D149">
-        <v>129.4890247185436</v>
+        <v>135.115880644608</v>
       </c>
       <c r="E149">
-        <v>0.5312128497250327</v>
+        <v>0.5618585663467736</v>
       </c>
       <c r="F149">
-        <v>4.303499521941595</v>
+        <v>4.418172482983204</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1.521017445640364</v>
+        <v>1.694644222971155</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0.999999999997641</v>
       </c>
     </row>
     <row r="150">
@@ -4999,25 +4999,25 @@
         </is>
       </c>
       <c r="B150">
-        <v>1.116107046905699</v>
+        <v>1.145962893567133</v>
       </c>
       <c r="C150">
-        <v>0.2861787079894285</v>
+        <v>0.2900908658127152</v>
       </c>
       <c r="D150">
-        <v>131.7175575422988</v>
+        <v>136.1345578065332</v>
       </c>
       <c r="E150">
-        <v>0.4162698060341349</v>
+        <v>0.433205872256372</v>
       </c>
       <c r="F150">
-        <v>2.992518126694037</v>
+        <v>3.031424635572772</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0.4284063114604721</v>
+        <v>0.5382175254550808</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -5030,25 +5030,25 @@
         </is>
       </c>
       <c r="B151">
-        <v>0.828030201050352</v>
+        <v>0.8058875810300663</v>
       </c>
       <c r="C151">
-        <v>0.1578390132893407</v>
+        <v>0.1498750568114919</v>
       </c>
       <c r="D151">
-        <v>133.6597206974363</v>
+        <v>138.8868861062164</v>
       </c>
       <c r="E151">
-        <v>0.3978771022353904</v>
+        <v>0.3945183297480899</v>
       </c>
       <c r="F151">
-        <v>1.723230640816958</v>
+        <v>1.646196752564539</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>-0.9899578977287159</v>
+        <v>-1.160429411383905</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -5061,28 +5061,28 @@
         </is>
       </c>
       <c r="B152">
-        <v>1.272165687369051</v>
+        <v>1.316245239322534</v>
       </c>
       <c r="C152">
-        <v>0.1586787576890508</v>
+        <v>0.1623716727486638</v>
       </c>
       <c r="D152">
-        <v>133.4353030886216</v>
+        <v>138.2113739237488</v>
       </c>
       <c r="E152">
-        <v>0.7875123636115395</v>
+        <v>0.8194917637752607</v>
       </c>
       <c r="F152">
-        <v>2.055085876616775</v>
+        <v>2.114117074292353</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1.9299157416927</v>
+        <v>2.227494673736449</v>
       </c>
       <c r="I152">
-        <v>0.9999998665321429</v>
+        <v>0.9995494908844603</v>
       </c>
     </row>
     <row r="153">
@@ -5092,25 +5092,25 @@
         </is>
       </c>
       <c r="B153">
-        <v>0.8261438892377705</v>
+        <v>0.8261023535268794</v>
       </c>
       <c r="C153">
-        <v>0.1682140721487878</v>
+        <v>0.1668047164865548</v>
       </c>
       <c r="D153">
-        <v>124.0916273591121</v>
+        <v>128.0185941257988</v>
       </c>
       <c r="E153">
-        <v>0.3769727239420612</v>
+        <v>0.3797045319543532</v>
       </c>
       <c r="F153">
-        <v>1.810512226422537</v>
+        <v>1.797305644444324</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>-0.9379844365278818</v>
+        <v>-0.9461110388170716</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -5123,28 +5123,28 @@
         </is>
       </c>
       <c r="B154">
-        <v>0.6354833214351473</v>
+        <v>0.5995927054871463</v>
       </c>
       <c r="C154">
-        <v>0.1037700957702337</v>
+        <v>0.09465937613367344</v>
       </c>
       <c r="D154">
-        <v>140.647628825049</v>
+        <v>145.9124863430278</v>
       </c>
       <c r="E154">
-        <v>0.3394878848673655</v>
+        <v>0.3272445424133831</v>
       </c>
       <c r="F154">
-        <v>1.189553647783404</v>
+        <v>1.098601705690945</v>
       </c>
       <c r="G154">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>-2.77641367960421</v>
+        <v>-3.239979878948172</v>
       </c>
       <c r="I154">
-        <v>0.8225559351916631</v>
+        <v>0.3356567671399496</v>
       </c>
     </row>
     <row r="155">
@@ -5154,28 +5154,28 @@
         </is>
       </c>
       <c r="B155">
-        <v>4.905955064513993</v>
+        <v>5.255332185878225</v>
       </c>
       <c r="C155">
-        <v>1.291030836266717</v>
+        <v>1.361843874589603</v>
       </c>
       <c r="D155">
-        <v>115.2893242549246</v>
+        <v>119.3110286023971</v>
       </c>
       <c r="E155">
-        <v>1.775389947795239</v>
+        <v>1.933754920497368</v>
       </c>
       <c r="F155">
-        <v>13.55668095615825</v>
+        <v>14.28232507189899</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>6.043755862183743</v>
+        <v>6.402991148982018</v>
       </c>
       <c r="I155">
-        <v>5.237638294741664e-06</v>
+        <v>8.656202339363261e-07</v>
       </c>
     </row>
     <row r="156">
@@ -5185,28 +5185,28 @@
         </is>
       </c>
       <c r="B156">
-        <v>2.455298236339234</v>
+        <v>2.537357591796183</v>
       </c>
       <c r="C156">
-        <v>0.5922820121844172</v>
+        <v>0.5990925285605428</v>
       </c>
       <c r="D156">
-        <v>118.3551700234261</v>
+        <v>122.6844519185501</v>
       </c>
       <c r="E156">
-        <v>0.9678524821208153</v>
+        <v>1.021210512194942</v>
       </c>
       <c r="F156">
-        <v>6.228727559969234</v>
+        <v>6.304462666377959</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>3.723677677154248</v>
+        <v>3.943618826668903</v>
       </c>
       <c r="I156">
-        <v>0.08001766555448209</v>
+        <v>0.03633217173634762</v>
       </c>
     </row>
     <row r="157">
@@ -5216,28 +5216,28 @@
         </is>
       </c>
       <c r="B157">
-        <v>2.906907989756134</v>
+        <v>3.230942258803662</v>
       </c>
       <c r="C157">
-        <v>0.7420829740942521</v>
+        <v>0.811567953293498</v>
       </c>
       <c r="D157">
-        <v>130.2736190127669</v>
+        <v>135.2790062942311</v>
       </c>
       <c r="E157">
-        <v>1.088536284791693</v>
+        <v>1.230387714778483</v>
       </c>
       <c r="F157">
-        <v>7.762822589349973</v>
+        <v>8.48430763273894</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>4.18003439952422</v>
+        <v>4.66894295879362</v>
       </c>
       <c r="I157">
-        <v>0.01454948080874985</v>
+        <v>0.001987149084994089</v>
       </c>
     </row>
     <row r="158">
@@ -5247,28 +5247,28 @@
         </is>
       </c>
       <c r="B158">
-        <v>3.631394326072893</v>
+        <v>3.788466722343509</v>
       </c>
       <c r="C158">
-        <v>0.7163018165952998</v>
+        <v>0.7405818558309556</v>
       </c>
       <c r="D158">
-        <v>117.0496029643544</v>
+        <v>121.1681191828592</v>
       </c>
       <c r="E158">
-        <v>1.695736838601328</v>
+        <v>1.782706136202028</v>
       </c>
       <c r="F158">
-        <v>7.776575027001996</v>
+        <v>8.05095119988842</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>6.537895911009884</v>
+        <v>6.81368483190032</v>
       </c>
       <c r="I158">
-        <v>4.70597486534885e-07</v>
+        <v>1.085653654753216e-07</v>
       </c>
     </row>
     <row r="159">
@@ -5278,28 +5278,28 @@
         </is>
       </c>
       <c r="B159">
-        <v>1.884352860998889</v>
+        <v>1.887832917475699</v>
       </c>
       <c r="C159">
-        <v>0.3680908976082106</v>
+        <v>0.3610884193517508</v>
       </c>
       <c r="D159">
-        <v>123.9555476793184</v>
+        <v>128.0432780048406</v>
       </c>
       <c r="E159">
-        <v>0.8876664800360773</v>
+        <v>0.9040179344910154</v>
       </c>
       <c r="F159">
-        <v>4.000134943262004</v>
+        <v>3.942303563160371</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3.243483288594134</v>
+        <v>3.322136043358192</v>
       </c>
       <c r="I159">
-        <v>0.3424091468106233</v>
+        <v>0.2750281773550156</v>
       </c>
     </row>
     <row r="160">
@@ -5309,28 +5309,28 @@
         </is>
       </c>
       <c r="B160">
-        <v>2.285007384350912</v>
+        <v>2.454665864901145</v>
       </c>
       <c r="C160">
-        <v>0.4374804454419853</v>
+        <v>0.4660630995451521</v>
       </c>
       <c r="D160">
-        <v>130.5579065302303</v>
+        <v>135.5050843421574</v>
       </c>
       <c r="E160">
-        <v>1.093893889490356</v>
+        <v>1.183242469843689</v>
       </c>
       <c r="F160">
-        <v>4.773094352845114</v>
+        <v>5.092265247297002</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>4.316215437384496</v>
+        <v>4.729546263108821</v>
       </c>
       <c r="I160">
-        <v>0.008548620323615697</v>
+        <v>0.001538178575734461</v>
       </c>
     </row>
     <row r="161">
@@ -5340,28 +5340,28 @@
         </is>
       </c>
       <c r="B161">
-        <v>2.994015059050283</v>
+        <v>3.087093106385708</v>
       </c>
       <c r="C161">
-        <v>0.5396464674516973</v>
+        <v>0.5516567961980153</v>
       </c>
       <c r="D161">
-        <v>128.1319047715211</v>
+        <v>132.5826854592364</v>
       </c>
       <c r="E161">
-        <v>1.495939993018552</v>
+        <v>1.552710802197902</v>
       </c>
       <c r="F161">
-        <v>5.992303311399399</v>
+        <v>6.137745569879463</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>6.084136499175354</v>
+        <v>6.308022842621293</v>
       </c>
       <c r="I161">
-        <v>3.474013586135527e-06</v>
+        <v>1.078390422515341e-06</v>
       </c>
     </row>
     <row r="162">
@@ -5371,28 +5371,28 @@
         </is>
       </c>
       <c r="B162">
-        <v>1.625843214710685</v>
+        <v>1.600611606986451</v>
       </c>
       <c r="C162">
-        <v>0.3204865211505571</v>
+        <v>0.3065732959969737</v>
       </c>
       <c r="D162">
-        <v>129.7427365653597</v>
+        <v>134.3144485741473</v>
       </c>
       <c r="E162">
-        <v>0.761452101682764</v>
+        <v>0.7664875557387961</v>
       </c>
       <c r="F162">
-        <v>3.47148054746857</v>
+        <v>3.342464593505827</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>2.465635742140771</v>
+        <v>2.455872699917717</v>
       </c>
       <c r="I162">
-        <v>0.9844952158760994</v>
+        <v>0.9859376010983972</v>
       </c>
     </row>
     <row r="163">
@@ -5402,28 +5402,28 @@
         </is>
       </c>
       <c r="B163">
-        <v>2.0317423065678</v>
+        <v>2.136606969089546</v>
       </c>
       <c r="C163">
-        <v>0.380490761451316</v>
+        <v>0.3982243066527213</v>
       </c>
       <c r="D163">
-        <v>128.4405878891756</v>
+        <v>133.2381627628728</v>
       </c>
       <c r="E163">
-        <v>0.9880882642295581</v>
+        <v>1.043461039167487</v>
       </c>
       <c r="F163">
-        <v>4.177740946570347</v>
+        <v>4.374949489253784</v>
       </c>
       <c r="G163">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>3.785346387555854</v>
+        <v>4.073464802935672</v>
       </c>
       <c r="I163">
-        <v>0.06268211701558102</v>
+        <v>0.02158800176808495</v>
       </c>
     </row>
     <row r="164">
@@ -5433,28 +5433,28 @@
         </is>
       </c>
       <c r="B164">
-        <v>3.033149460772847</v>
+        <v>3.16587531879642</v>
       </c>
       <c r="C164">
-        <v>0.7060157518619558</v>
+        <v>0.7294806500650696</v>
       </c>
       <c r="D164">
-        <v>130.9201830876219</v>
+        <v>135.9032344758679</v>
       </c>
       <c r="E164">
-        <v>1.238759877004079</v>
+        <v>1.305930833304763</v>
       </c>
       <c r="F164">
-        <v>7.426778847274791</v>
+        <v>7.674806565980924</v>
       </c>
       <c r="G164">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>4.767014333291655</v>
+        <v>5.001432679108743</v>
       </c>
       <c r="I164">
-        <v>0.001351802760493848</v>
+        <v>0.0004764076973334808</v>
       </c>
     </row>
     <row r="165">
@@ -5464,28 +5464,28 @@
         </is>
       </c>
       <c r="B165">
-        <v>1.72367092215818</v>
+        <v>1.707914781828926</v>
       </c>
       <c r="C165">
-        <v>0.438444931405358</v>
+        <v>0.4208002880298817</v>
       </c>
       <c r="D165">
-        <v>124.4712500450397</v>
+        <v>130.0875459472003</v>
       </c>
       <c r="E165">
-        <v>0.6468642843132701</v>
+        <v>0.6618094582610839</v>
       </c>
       <c r="F165">
-        <v>4.592990399907103</v>
+        <v>4.407572097343765</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>2.14043630106</v>
+        <v>2.172529434011731</v>
       </c>
       <c r="I165">
-        <v>0.9999339032760485</v>
+        <v>0.9998595105573221</v>
       </c>
     </row>
     <row r="166">
@@ -5495,28 +5495,28 @@
         </is>
       </c>
       <c r="B166">
-        <v>2.219774718764578</v>
+        <v>2.340532769317973</v>
       </c>
       <c r="C166">
-        <v>0.5885389778434376</v>
+        <v>0.6139852950596246</v>
       </c>
       <c r="D166">
-        <v>123.0366283486233</v>
+        <v>128.4444835402215</v>
       </c>
       <c r="E166">
-        <v>0.7988967220117391</v>
+        <v>0.8526505799744919</v>
       </c>
       <c r="F166">
-        <v>6.167755688943678</v>
+        <v>6.424781467239657</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>3.007551085465971</v>
+        <v>3.241671999369356</v>
       </c>
       <c r="I166">
-        <v>0.5864550768479267</v>
+        <v>0.3417290064787064</v>
       </c>
     </row>
     <row r="167">
@@ -5526,28 +5526,28 @@
         </is>
       </c>
       <c r="B167">
-        <v>1.638587304256976</v>
+        <v>1.702356231176661</v>
       </c>
       <c r="C167">
-        <v>0.3216299621955332</v>
+        <v>0.329485791675928</v>
       </c>
       <c r="D167">
-        <v>132.4951441795678</v>
+        <v>137.2436388383124</v>
       </c>
       <c r="E167">
-        <v>0.7702476950673237</v>
+        <v>0.8092953005681113</v>
       </c>
       <c r="F167">
-        <v>3.485850552837375</v>
+        <v>3.580913834284776</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>2.515906443206442</v>
+        <v>2.748756382907837</v>
       </c>
       <c r="I167">
-        <v>0.9734896389785446</v>
+        <v>0.8473654076041188</v>
       </c>
     </row>
     <row r="168">
@@ -5557,25 +5557,25 @@
         </is>
       </c>
       <c r="B168">
-        <v>1.215653801975409</v>
+        <v>1.197165940446788</v>
       </c>
       <c r="C168">
-        <v>0.2686014690022002</v>
+        <v>0.2592201640272005</v>
       </c>
       <c r="D168">
-        <v>124.4104192626053</v>
+        <v>128.5985666852207</v>
       </c>
       <c r="E168">
-        <v>0.5188921950185508</v>
+        <v>0.5202208609966951</v>
       </c>
       <c r="F168">
-        <v>2.848017720144033</v>
+        <v>2.754995803551499</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>0.8838200181815374</v>
+        <v>0.8311021965372958</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -5588,28 +5588,28 @@
         </is>
       </c>
       <c r="B169">
-        <v>1.867701265764343</v>
+        <v>1.955314868828311</v>
       </c>
       <c r="C169">
-        <v>0.4715540089020812</v>
+        <v>0.4892009820793505</v>
       </c>
       <c r="D169">
-        <v>123.2791119004115</v>
+        <v>127.4759359501913</v>
       </c>
       <c r="E169">
-        <v>0.70583116350546</v>
+        <v>0.7462217119675706</v>
       </c>
       <c r="F169">
-        <v>4.942128087421495</v>
+        <v>5.123485654391178</v>
       </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>2.474305502273708</v>
+        <v>2.680163890421384</v>
       </c>
       <c r="I169">
-        <v>0.9832602492668846</v>
+        <v>0.9006315238475687</v>
       </c>
     </row>
     <row r="170">
@@ -5619,28 +5619,28 @@
         </is>
       </c>
       <c r="B170">
-        <v>1.212884455973575</v>
+        <v>1.22719548513357</v>
       </c>
       <c r="C170">
-        <v>0.1034085576212698</v>
+        <v>0.1039159210665038</v>
       </c>
       <c r="D170">
-        <v>131.6715354326412</v>
+        <v>136.2175809617289</v>
       </c>
       <c r="E170">
-        <v>0.8737624517588197</v>
+        <v>0.8863291532721238</v>
       </c>
       <c r="F170">
-        <v>1.683625452868938</v>
+        <v>1.699152908569441</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>2.263723311138674</v>
+        <v>2.417777144183765</v>
       </c>
       <c r="I170">
-        <v>0.99913426930518</v>
+        <v>0.9910393050773689</v>
       </c>
     </row>
     <row r="171">
@@ -5650,25 +5650,25 @@
         </is>
       </c>
       <c r="B171">
-        <v>0.9329704578584815</v>
+        <v>0.8907097987936026</v>
       </c>
       <c r="C171">
-        <v>0.163012948883162</v>
+        <v>0.1512482379045831</v>
       </c>
       <c r="D171">
-        <v>131.4235779861192</v>
+        <v>135.2789279444181</v>
       </c>
       <c r="E171">
-        <v>0.476398480909975</v>
+        <v>0.4637569508769747</v>
       </c>
       <c r="F171">
-        <v>1.827113036914051</v>
+        <v>1.710732193159954</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>-0.397091864586433</v>
+        <v>-0.6815797109311016</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5681,28 +5681,28 @@
         </is>
       </c>
       <c r="B172">
-        <v>1.468127370756958</v>
+        <v>1.485524741449172</v>
       </c>
       <c r="C172">
-        <v>0.2879803764364924</v>
+        <v>0.2898062659336573</v>
       </c>
       <c r="D172">
-        <v>119.1594248856461</v>
+        <v>123.043996119613</v>
       </c>
       <c r="E172">
-        <v>0.688779020679809</v>
+        <v>0.7003541262882108</v>
       </c>
       <c r="F172">
-        <v>3.129302594957683</v>
+        <v>3.150954173930991</v>
       </c>
       <c r="G172">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1.95757379906466</v>
+        <v>2.028676845804567</v>
       </c>
       <c r="I172">
-        <v>0.999999668139936</v>
+        <v>0.9999966510352083</v>
       </c>
     </row>
     <row r="173">
@@ -5712,28 +5712,28 @@
         </is>
       </c>
       <c r="B173">
-        <v>6.094516291894674</v>
+        <v>6.958915053944358</v>
       </c>
       <c r="C173">
-        <v>1.692627530773529</v>
+        <v>1.863231714324385</v>
       </c>
       <c r="D173">
-        <v>134.101164479603</v>
+        <v>138.867064936431</v>
       </c>
       <c r="E173">
-        <v>2.095220891155612</v>
+        <v>2.488490445900118</v>
       </c>
       <c r="F173">
-        <v>17.72754795876603</v>
+        <v>19.46019073844463</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>6.507730693026401</v>
+        <v>7.245722142932149</v>
       </c>
       <c r="I173">
-        <v>3.860472358452327e-07</v>
+        <v>7.479443731028823e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5743,28 +5743,28 @@
         </is>
       </c>
       <c r="B174">
-        <v>3.050141084876021</v>
+        <v>3.359874374875457</v>
       </c>
       <c r="C174">
-        <v>0.6158009337645218</v>
+        <v>0.663014709724798</v>
       </c>
       <c r="D174">
-        <v>128.9839141920506</v>
+        <v>133.9506422579172</v>
       </c>
       <c r="E174">
-        <v>1.40232735051966</v>
+        <v>1.573390046568357</v>
       </c>
       <c r="F174">
-        <v>6.634228901120076</v>
+        <v>7.17479803534164</v>
       </c>
       <c r="G174">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>5.523668579628633</v>
+        <v>6.141407935330215</v>
       </c>
       <c r="I174">
-        <v>4.852392211485146e-05</v>
+        <v>2.403258404615194e-06</v>
       </c>
     </row>
     <row r="175">
@@ -5774,28 +5774,28 @@
         </is>
       </c>
       <c r="B175">
-        <v>3.611161918451573</v>
+        <v>4.278293346257138</v>
       </c>
       <c r="C175">
-        <v>1.099615068638271</v>
+        <v>1.262924005499519</v>
       </c>
       <c r="D175">
-        <v>143.7262788201616</v>
+        <v>149.1955255291732</v>
       </c>
       <c r="E175">
-        <v>1.122541719128366</v>
+        <v>1.37981689084164</v>
       </c>
       <c r="F175">
-        <v>11.61693162851938</v>
+        <v>13.26537896304735</v>
       </c>
       <c r="G175">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>4.216783545057811</v>
+        <v>4.924073931766648</v>
       </c>
       <c r="I175">
-        <v>0.01196868254809969</v>
+        <v>0.000613197290919798</v>
       </c>
     </row>
     <row r="176">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B176">
-        <v>4.511168894030135</v>
+        <v>5.016546466144619</v>
       </c>
       <c r="C176">
-        <v>0.9890662840501421</v>
+        <v>1.056979323472072</v>
       </c>
       <c r="D176">
-        <v>136.2958650185606</v>
+        <v>141.6034165305387</v>
       </c>
       <c r="E176">
-        <v>1.942632161082434</v>
+        <v>2.234313903378358</v>
       </c>
       <c r="F176">
-        <v>10.47580967625168</v>
+        <v>11.26329581932809</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>6.871460506937685</v>
+        <v>7.654259366277649</v>
       </c>
       <c r="I176">
-        <v>5.719370410606217e-08</v>
+        <v>7.582401373440462e-10</v>
       </c>
     </row>
     <row r="177">
@@ -5836,28 +5836,28 @@
         </is>
       </c>
       <c r="B177">
-        <v>2.3408732978629</v>
+        <v>2.499798004026258</v>
       </c>
       <c r="C177">
-        <v>0.3112200534999772</v>
+        <v>0.327785904711534</v>
       </c>
       <c r="D177">
-        <v>128.2097798528103</v>
+        <v>133.2674864880232</v>
       </c>
       <c r="E177">
-        <v>1.403158858285174</v>
+        <v>1.50985036175093</v>
       </c>
       <c r="F177">
-        <v>3.905251186843063</v>
+        <v>4.138814162806764</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>6.397303284689039</v>
+        <v>6.987303974676166</v>
       </c>
       <c r="I177">
-        <v>7.475075666230069e-07</v>
+        <v>3.343169419078862e-08</v>
       </c>
     </row>
     <row r="178">
@@ -5867,28 +5867,28 @@
         </is>
       </c>
       <c r="B178">
-        <v>2.838594024587921</v>
+        <v>3.250377071418058</v>
       </c>
       <c r="C178">
-        <v>0.6853281330102542</v>
+        <v>0.7602868576974647</v>
       </c>
       <c r="D178">
-        <v>145.7082789599547</v>
+        <v>151.364923155656</v>
       </c>
       <c r="E178">
-        <v>1.124376018752793</v>
+        <v>1.326352101608985</v>
       </c>
       <c r="F178">
-        <v>7.166300154074888</v>
+        <v>7.965419660121916</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>4.321331892503309</v>
+        <v>5.03947980912928</v>
       </c>
       <c r="I178">
-        <v>0.0078529483603893</v>
+        <v>0.0003628534817278206</v>
       </c>
     </row>
     <row r="179">
@@ -5898,28 +5898,28 @@
         </is>
       </c>
       <c r="B179">
-        <v>3.719372337416136</v>
+        <v>4.087813658798304</v>
       </c>
       <c r="C179">
-        <v>0.763054021655628</v>
+        <v>0.8089886139201422</v>
       </c>
       <c r="D179">
-        <v>140.5676180022558</v>
+        <v>146.202087865032</v>
       </c>
       <c r="E179">
-        <v>1.691921036105424</v>
+        <v>1.913563518807554</v>
       </c>
       <c r="F179">
-        <v>8.176345283926356</v>
+        <v>8.732514152167274</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>6.402691975331682</v>
+        <v>7.114665783732192</v>
       </c>
       <c r="I179">
-        <v>5.889270409120684e-07</v>
+        <v>1.281856343293697e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5929,28 +5929,28 @@
         </is>
       </c>
       <c r="B180">
-        <v>2.019734757008478</v>
+        <v>2.119470247248456</v>
       </c>
       <c r="C180">
-        <v>0.2335668298477412</v>
+        <v>0.241995282696955</v>
       </c>
       <c r="D180">
-        <v>132.4237336650746</v>
+        <v>137.5004901515918</v>
       </c>
       <c r="E180">
-        <v>1.294622310087406</v>
+        <v>1.366867318091238</v>
       </c>
       <c r="F180">
-        <v>3.150979599905614</v>
+        <v>3.286459533793301</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>6.078796619863953</v>
+        <v>6.578947899183914</v>
       </c>
       <c r="I180">
-        <v>3.339728380735707e-06</v>
+        <v>2.527765771143109e-07</v>
       </c>
     </row>
     <row r="181">
@@ -5960,28 +5960,28 @@
         </is>
       </c>
       <c r="B181">
-        <v>2.523970649033206</v>
+        <v>2.829215333240631</v>
       </c>
       <c r="C181">
-        <v>0.553559077806684</v>
+        <v>0.6043344150474642</v>
       </c>
       <c r="D181">
-        <v>146.0286438680561</v>
+        <v>151.3733298915824</v>
       </c>
       <c r="E181">
-        <v>1.088299009829912</v>
+        <v>1.247898520501731</v>
       </c>
       <c r="F181">
-        <v>5.853563937521842</v>
+        <v>6.414351223547903</v>
       </c>
       <c r="G181">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>4.221367165340581</v>
+        <v>4.868798122689626</v>
       </c>
       <c r="I181">
-        <v>0.01165884504216419</v>
+        <v>0.0007717297913355514</v>
       </c>
     </row>
     <row r="182">
@@ -5991,28 +5991,28 @@
         </is>
       </c>
       <c r="B182">
-        <v>3.767987794699243</v>
+        <v>4.192134128853676</v>
       </c>
       <c r="C182">
-        <v>0.9451977048206988</v>
+        <v>1.029008502454317</v>
       </c>
       <c r="D182">
-        <v>140.9970588252085</v>
+        <v>145.9166401885467</v>
       </c>
       <c r="E182">
-        <v>1.43834760564939</v>
+        <v>1.635107132259362</v>
       </c>
       <c r="F182">
-        <v>9.870862902151133</v>
+        <v>10.74791260314323</v>
       </c>
       <c r="G182">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>5.288196019152567</v>
+        <v>5.838832527706852</v>
       </c>
       <c r="I182">
-        <v>0.0001271011056027671</v>
+        <v>9.049803040950266e-06</v>
       </c>
     </row>
     <row r="183">
@@ -6022,28 +6022,28 @@
         </is>
       </c>
       <c r="B183">
-        <v>2.141263093284938</v>
+        <v>2.2615571129948</v>
       </c>
       <c r="C183">
-        <v>0.3885103612114159</v>
+        <v>0.4024692020801455</v>
       </c>
       <c r="D183">
-        <v>129.1172055516075</v>
+        <v>135.003929165436</v>
       </c>
       <c r="E183">
-        <v>1.065114673412076</v>
+        <v>1.141123398800351</v>
       </c>
       <c r="F183">
-        <v>4.30470798038693</v>
+        <v>4.482109981018995</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>4.196410370503789</v>
+        <v>4.585572592679537</v>
       </c>
       <c r="I183">
-        <v>0.01372806308241137</v>
+        <v>0.0028152027944639</v>
       </c>
     </row>
     <row r="184">
@@ -6053,28 +6053,28 @@
         </is>
       </c>
       <c r="B184">
-        <v>2.757557501025915</v>
+        <v>3.099246279126519</v>
       </c>
       <c r="C184">
-        <v>0.7472184566597549</v>
+        <v>0.8246798344534482</v>
       </c>
       <c r="D184">
-        <v>140.2547308794995</v>
+        <v>145.2595814602456</v>
       </c>
       <c r="E184">
-        <v>0.9742377156968026</v>
+        <v>1.116738384651896</v>
       </c>
       <c r="F184">
-        <v>7.805203236281614</v>
+        <v>8.601233404969504</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>3.743370540883373</v>
+        <v>4.251031744119566</v>
       </c>
       <c r="I184">
-        <v>0.07031450139141715</v>
+        <v>0.01040183409779383</v>
       </c>
     </row>
     <row r="185">
@@ -6084,28 +6084,28 @@
         </is>
       </c>
       <c r="B185">
-        <v>2.035566345423756</v>
+        <v>2.254196687346331</v>
       </c>
       <c r="C185">
-        <v>0.533909212931855</v>
+        <v>0.5720426803249717</v>
       </c>
       <c r="D185">
-        <v>143.7744696312074</v>
+        <v>148.9144666042926</v>
       </c>
       <c r="E185">
-        <v>0.7440344234042779</v>
+        <v>0.8520971534640654</v>
       </c>
       <c r="F185">
-        <v>5.569003551829484</v>
+        <v>5.963407675504536</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>2.709876073846316</v>
+        <v>3.202902281272285</v>
       </c>
       <c r="I185">
-        <v>0.876515124303902</v>
+        <v>0.3684873944743497</v>
       </c>
     </row>
     <row r="186">
@@ -6115,28 +6115,28 @@
         </is>
       </c>
       <c r="B186">
-        <v>1.510169132007079</v>
+        <v>1.585242528993895</v>
       </c>
       <c r="C186">
-        <v>0.2382329752090123</v>
+        <v>0.2460646852048315</v>
       </c>
       <c r="D186">
-        <v>134.5164328830699</v>
+        <v>139.3677170766737</v>
       </c>
       <c r="E186">
-        <v>0.8234899682776926</v>
+        <v>0.8733919851658386</v>
       </c>
       <c r="F186">
-        <v>2.769445767550577</v>
+        <v>2.877280669405037</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2.613090881367371</v>
+        <v>2.968246083870289</v>
       </c>
       <c r="I186">
-        <v>0.9374756193080737</v>
+        <v>0.6228349238543436</v>
       </c>
     </row>
     <row r="187">
@@ -6146,28 +6146,28 @@
         </is>
       </c>
       <c r="B187">
-        <v>2.320187535945301</v>
+        <v>2.589155089463999</v>
       </c>
       <c r="C187">
-        <v>0.5945742351401768</v>
+        <v>0.6440026549427389</v>
       </c>
       <c r="D187">
-        <v>141.4557983747444</v>
+        <v>146.7617210946423</v>
       </c>
       <c r="E187">
-        <v>0.8675445340075191</v>
+        <v>0.9974379961224865</v>
       </c>
       <c r="F187">
-        <v>6.205180242550258</v>
+        <v>6.720943159733114</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>3.284335450451465</v>
+        <v>3.824743641527788</v>
       </c>
       <c r="I187">
-        <v>0.2994291394432996</v>
+        <v>0.0518896531251527</v>
       </c>
     </row>
     <row r="188">
@@ -6177,28 +6177,28 @@
         </is>
       </c>
       <c r="B188">
-        <v>1.506728859093014</v>
+        <v>1.62500653309348</v>
       </c>
       <c r="C188">
-        <v>0.2968521435820558</v>
+        <v>0.3072542782174113</v>
       </c>
       <c r="D188">
-        <v>140.7688914418495</v>
+        <v>145.821917927486</v>
       </c>
       <c r="E188">
-        <v>0.707179707168749</v>
+        <v>0.786834186392248</v>
       </c>
       <c r="F188">
-        <v>3.210261595193099</v>
+        <v>3.356039021009301</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>2.080732520166664</v>
+        <v>2.567775167190864</v>
       </c>
       <c r="I188">
-        <v>0.9999842275331696</v>
+        <v>0.9558509774330057</v>
       </c>
     </row>
     <row r="189">
@@ -6208,28 +6208,28 @@
         </is>
       </c>
       <c r="B189">
-        <v>1.159000353754408</v>
+        <v>1.179444725525896</v>
       </c>
       <c r="C189">
-        <v>0.06897624703315569</v>
+        <v>0.06937373094316235</v>
       </c>
       <c r="D189">
-        <v>131.4654168229467</v>
+        <v>136.6644027804056</v>
       </c>
       <c r="E189">
-        <v>0.92185002097638</v>
+        <v>0.9408564816531739</v>
       </c>
       <c r="F189">
-        <v>1.457158745389086</v>
+        <v>1.478535661599079</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2.479398784365153</v>
+        <v>2.80596106060417</v>
       </c>
       <c r="I189">
-        <v>0.9818749708140702</v>
+        <v>0.796375135623989</v>
       </c>
     </row>
     <row r="190">
@@ -6239,28 +6239,28 @@
         </is>
       </c>
       <c r="B190">
-        <v>1.823809240401422</v>
+        <v>1.9670765083235</v>
       </c>
       <c r="C190">
-        <v>0.3386656722349848</v>
+        <v>0.3515988775361362</v>
       </c>
       <c r="D190">
-        <v>142.1441800713253</v>
+        <v>147.9140364751605</v>
       </c>
       <c r="E190">
-        <v>0.8942123233121715</v>
+        <v>0.9912407366294576</v>
       </c>
       <c r="F190">
-        <v>3.719787860955702</v>
+        <v>3.903582496776074</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>3.236161376838794</v>
+        <v>3.785059104174024</v>
       </c>
       <c r="I190">
-        <v>0.3405424413085197</v>
+        <v>0.05963062726391455</v>
       </c>
     </row>
     <row r="191">
@@ -6270,28 +6270,28 @@
         </is>
       </c>
       <c r="B191">
-        <v>1.2422690815042</v>
+        <v>1.32416273754186</v>
       </c>
       <c r="C191">
-        <v>0.2221817129877407</v>
+        <v>0.2279437829575238</v>
       </c>
       <c r="D191">
-        <v>135.5969519628178</v>
+        <v>139.9989826063987</v>
       </c>
       <c r="E191">
-        <v>0.6247285020118393</v>
+        <v>0.6837083404735921</v>
       </c>
       <c r="F191">
-        <v>2.470245019863111</v>
+        <v>2.564553994294996</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1.21295928766592</v>
+        <v>1.631099080541345</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0.9999999999999513</v>
       </c>
     </row>
     <row r="192">
@@ -6301,28 +6301,28 @@
         </is>
       </c>
       <c r="B192">
-        <v>3.758190709156227</v>
+        <v>4.064321231469997</v>
       </c>
       <c r="C192">
-        <v>0.907595308374477</v>
+        <v>0.9620363165161102</v>
       </c>
       <c r="D192">
-        <v>122.6924079802861</v>
+        <v>126.9041099202229</v>
       </c>
       <c r="E192">
-        <v>1.481465021200111</v>
+        <v>1.633572714928877</v>
       </c>
       <c r="F192">
-        <v>9.533804176454032</v>
+        <v>10.11201210795014</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>5.482190266260424</v>
+        <v>5.924081182050632</v>
       </c>
       <c r="I192">
-        <v>6.309337935028747e-05</v>
+        <v>7.633660324302127e-06</v>
       </c>
     </row>
     <row r="193">
@@ -6332,28 +6332,28 @@
         </is>
       </c>
       <c r="B193">
-        <v>1.880873122292223</v>
+        <v>1.962318644648237</v>
       </c>
       <c r="C193">
-        <v>0.4580555525208391</v>
+        <v>0.4710121645919226</v>
       </c>
       <c r="D193">
-        <v>122.6691688112509</v>
+        <v>127.0663752714342</v>
       </c>
       <c r="E193">
-        <v>0.7356344049253857</v>
+        <v>0.7787067841030012</v>
       </c>
       <c r="F193">
-        <v>4.809024263241358</v>
+        <v>4.944986407906719</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>2.594042221289229</v>
+        <v>2.808529379210086</v>
       </c>
       <c r="I193">
-        <v>0.9477867196996451</v>
+        <v>0.7971589184585652</v>
       </c>
     </row>
     <row r="194">
@@ -6363,28 +6363,28 @@
         </is>
       </c>
       <c r="B194">
-        <v>2.226827285576813</v>
+        <v>2.498716875670709</v>
       </c>
       <c r="C194">
-        <v>0.5957350993568246</v>
+        <v>0.6586628320596892</v>
       </c>
       <c r="D194">
-        <v>131.4099828331743</v>
+        <v>136.1038505019758</v>
       </c>
       <c r="E194">
-        <v>0.7957043709146094</v>
+        <v>0.9073669290237772</v>
       </c>
       <c r="F194">
-        <v>6.231912178752555</v>
+        <v>6.880993592613049</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>2.992518921840416</v>
+        <v>3.474111804073858</v>
       </c>
       <c r="I194">
-        <v>0.5990466836445681</v>
+        <v>0.1729613010049659</v>
       </c>
     </row>
     <row r="195">
@@ -6394,28 +6394,28 @@
         </is>
       </c>
       <c r="B195">
-        <v>2.781817655902597</v>
+        <v>2.929890098234613</v>
       </c>
       <c r="C195">
-        <v>0.5169816416780796</v>
+        <v>0.5390858585134231</v>
       </c>
       <c r="D195">
-        <v>121.2978102738588</v>
+        <v>125.5836121318365</v>
       </c>
       <c r="E195">
-        <v>1.35862697848114</v>
+        <v>1.442279831144075</v>
       </c>
       <c r="F195">
-        <v>5.695830859580449</v>
+        <v>5.951865790790299</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>5.505205724005302</v>
+        <v>5.842351464740174</v>
       </c>
       <c r="I195">
-        <v>5.780632745289171e-05</v>
+        <v>1.146333756696372e-05</v>
       </c>
     </row>
     <row r="196">
@@ -6425,28 +6425,28 @@
         </is>
       </c>
       <c r="B196">
-        <v>1.44350229911442</v>
+        <v>1.459995131912337</v>
       </c>
       <c r="C196">
-        <v>0.2865165683075991</v>
+        <v>0.2868108503806459</v>
       </c>
       <c r="D196">
-        <v>124.5035376514081</v>
+        <v>128.5970476483129</v>
       </c>
       <c r="E196">
-        <v>0.6718691544158878</v>
+        <v>0.6854172247859149</v>
       </c>
       <c r="F196">
-        <v>3.101346257457152</v>
+        <v>3.109909859463349</v>
       </c>
       <c r="G196">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1.849351088762965</v>
+        <v>1.926393248641025</v>
       </c>
       <c r="I196">
-        <v>0.9999999948030125</v>
+        <v>0.9999998854406353</v>
       </c>
     </row>
     <row r="197">
@@ -6456,28 +6456,28 @@
         </is>
       </c>
       <c r="B197">
-        <v>1.750422376335338</v>
+        <v>1.898367265477662</v>
       </c>
       <c r="C197">
-        <v>0.3453064202753536</v>
+        <v>0.3710148849346829</v>
       </c>
       <c r="D197">
-        <v>129.4687035624861</v>
+        <v>134.0588512439271</v>
       </c>
       <c r="E197">
-        <v>0.8192854690319035</v>
+        <v>0.8954965816183679</v>
       </c>
       <c r="F197">
-        <v>3.739817940620815</v>
+        <v>4.024357377360665</v>
       </c>
       <c r="G197">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>2.838019703990466</v>
+        <v>3.279766994131067</v>
       </c>
       <c r="I197">
-        <v>0.767495264967999</v>
+        <v>0.3062584288321077</v>
       </c>
     </row>
     <row r="198">
@@ -6487,28 +6487,28 @@
         </is>
       </c>
       <c r="B198">
-        <v>2.293555368940438</v>
+        <v>2.387468120383216</v>
       </c>
       <c r="C198">
-        <v>0.4228530046019507</v>
+        <v>0.4384590177463403</v>
       </c>
       <c r="D198">
-        <v>128.6600777605251</v>
+        <v>133.1461300705755</v>
       </c>
       <c r="E198">
-        <v>1.1280087538547</v>
+        <v>1.178268991525182</v>
       </c>
       <c r="F198">
-        <v>4.663435644820454</v>
+        <v>4.837608446665418</v>
       </c>
       <c r="G198">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>4.502480948187872</v>
+        <v>4.738537725414484</v>
       </c>
       <c r="I198">
-        <v>0.004097645377057813</v>
+        <v>0.001502645213941611</v>
       </c>
     </row>
     <row r="199">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B199">
-        <v>1.245471836517055</v>
+        <v>1.23786651490713</v>
       </c>
       <c r="C199">
-        <v>0.2424065610004852</v>
+        <v>0.2365731602951345</v>
       </c>
       <c r="D199">
-        <v>130.1698565212675</v>
+        <v>134.6994251656338</v>
       </c>
       <c r="E199">
-        <v>0.5889664173098716</v>
+        <v>0.5937759411922287</v>
       </c>
       <c r="F199">
-        <v>2.63376662907596</v>
+        <v>2.580625792368123</v>
       </c>
       <c r="G199">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>1.127853370297955</v>
+        <v>1.116557452337238</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -6549,28 +6549,28 @@
         </is>
       </c>
       <c r="B200">
-        <v>1.556409498157354</v>
+        <v>1.652389755896322</v>
       </c>
       <c r="C200">
-        <v>0.2685056610821774</v>
+        <v>0.2823995937090089</v>
       </c>
       <c r="D200">
-        <v>130.7527671878726</v>
+        <v>135.3601536116362</v>
       </c>
       <c r="E200">
-        <v>0.8014436364497876</v>
+        <v>0.8567218513806102</v>
       </c>
       <c r="F200">
-        <v>3.02255881235161</v>
+        <v>3.187022603650265</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2.564291815746051</v>
+        <v>2.938628312103775</v>
       </c>
       <c r="I200">
-        <v>0.9585661377603532</v>
+        <v>0.6577198325682645</v>
       </c>
     </row>
     <row r="201">
@@ -6580,28 +6580,28 @@
         </is>
       </c>
       <c r="B201">
-        <v>2.32353414840908</v>
+        <v>2.448395994633191</v>
       </c>
       <c r="C201">
-        <v>0.5640186535872606</v>
+        <v>0.591841192099645</v>
       </c>
       <c r="D201">
-        <v>133.2371551149175</v>
+        <v>138.0048040690268</v>
       </c>
       <c r="E201">
-        <v>0.9136543978727963</v>
+        <v>0.9674101613349257</v>
       </c>
       <c r="F201">
-        <v>5.909029663068246</v>
+        <v>6.196588774986472</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>3.473195293351348</v>
+        <v>3.704329606057457</v>
       </c>
       <c r="I201">
-        <v>0.1743984815257443</v>
+        <v>0.08092894607656753</v>
       </c>
     </row>
     <row r="202">
@@ -6611,25 +6611,25 @@
         </is>
       </c>
       <c r="B202">
-        <v>1.320412429407228</v>
+        <v>1.320851672893585</v>
       </c>
       <c r="C202">
-        <v>0.3203944426377491</v>
+        <v>0.3119141936347694</v>
       </c>
       <c r="D202">
-        <v>129.6279192374145</v>
+        <v>135.5720103559873</v>
       </c>
       <c r="E202">
-        <v>0.5190104180500752</v>
+        <v>0.5329616158186182</v>
       </c>
       <c r="F202">
-        <v>3.359256236673236</v>
+        <v>3.273498672331281</v>
       </c>
       <c r="G202">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1.145465840831745</v>
+        <v>1.178408353393616</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -6642,28 +6642,28 @@
         </is>
       </c>
       <c r="B203">
-        <v>1.700451107843024</v>
+        <v>1.810100045217338</v>
       </c>
       <c r="C203">
-        <v>0.3980025880486807</v>
+        <v>0.4167115880152597</v>
       </c>
       <c r="D203">
-        <v>130.6772042128815</v>
+        <v>136.2157123452352</v>
       </c>
       <c r="E203">
-        <v>0.6910031615201929</v>
+        <v>0.7473022025885235</v>
       </c>
       <c r="F203">
-        <v>4.184545210767563</v>
+        <v>4.384387149330913</v>
       </c>
       <c r="G203">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>2.268222851232372</v>
+        <v>2.577516508633239</v>
       </c>
       <c r="I203">
-        <v>0.9990652983042604</v>
+        <v>0.9529641727855875</v>
       </c>
     </row>
     <row r="204">
@@ -6673,25 +6673,25 @@
         </is>
       </c>
       <c r="B204">
-        <v>1.255234404314702</v>
+        <v>1.316552851309498</v>
       </c>
       <c r="C204">
-        <v>0.3187697648473959</v>
+        <v>0.3297740027580265</v>
       </c>
       <c r="D204">
-        <v>131.7851159337725</v>
+        <v>136.0771848484581</v>
       </c>
       <c r="E204">
-        <v>0.4726092721942658</v>
+        <v>0.5027988351441552</v>
       </c>
       <c r="F204">
-        <v>3.333860553475618</v>
+        <v>3.447325827225153</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>0.8951376285369157</v>
+        <v>1.097946495814097</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -6704,25 +6704,25 @@
         </is>
       </c>
       <c r="B205">
-        <v>0.9312475887071782</v>
+        <v>0.9258533575527957</v>
       </c>
       <c r="C205">
-        <v>0.1969418655367152</v>
+        <v>0.1933107275480206</v>
       </c>
       <c r="D205">
-        <v>130.2080346885742</v>
+        <v>134.5980565052891</v>
       </c>
       <c r="E205">
-        <v>0.4127287012255693</v>
+        <v>0.4149261212535926</v>
       </c>
       <c r="F205">
-        <v>2.101191579111842</v>
+        <v>2.065920644142533</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>-0.336814406542445</v>
+        <v>-0.368976956274967</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -6735,28 +6735,28 @@
         </is>
       </c>
       <c r="B206">
-        <v>1.43074639946182</v>
+        <v>1.512183712561995</v>
       </c>
       <c r="C206">
-        <v>0.2754268917663374</v>
+        <v>0.28817765449273</v>
       </c>
       <c r="D206">
-        <v>132.7104114205579</v>
+        <v>137.3244625257592</v>
       </c>
       <c r="E206">
-        <v>0.6824181921307073</v>
+        <v>0.7271643736846832</v>
       </c>
       <c r="F206">
-        <v>2.999678618152787</v>
+        <v>3.144680437176297</v>
       </c>
       <c r="G206">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>1.860704356997149</v>
+        <v>2.170087731746409</v>
       </c>
       <c r="I206">
-        <v>0.9999999912069791</v>
+        <v>0.9998631540195402</v>
       </c>
     </row>
     <row r="207">
@@ -6766,25 +6766,25 @@
         </is>
       </c>
       <c r="B207">
-        <v>0.9291261403291019</v>
+        <v>0.9490773349770639</v>
       </c>
       <c r="C207">
-        <v>0.1853411720663368</v>
+        <v>0.1879440866497928</v>
       </c>
       <c r="D207">
-        <v>121.4594775290935</v>
+        <v>125.2542718437473</v>
       </c>
       <c r="E207">
-        <v>0.4305508676476305</v>
+        <v>0.4425861134593066</v>
       </c>
       <c r="F207">
-        <v>2.005048530872715</v>
+        <v>2.035192158937867</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>-0.3685137843969602</v>
+        <v>-0.2639270053304908</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -6797,28 +6797,28 @@
         </is>
       </c>
       <c r="B208">
-        <v>0.7146989445547084</v>
+        <v>0.6888490809473434</v>
       </c>
       <c r="C208">
-        <v>0.116462878775971</v>
+        <v>0.110396658959167</v>
       </c>
       <c r="D208">
-        <v>133.9853236652169</v>
+        <v>138.0187465678782</v>
       </c>
       <c r="E208">
-        <v>0.3819809801620409</v>
+        <v>0.3721854195493093</v>
       </c>
       <c r="F208">
-        <v>1.337225170559353</v>
+        <v>1.274937252772025</v>
       </c>
       <c r="G208">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>-2.061283433234562</v>
+        <v>-2.325766349929185</v>
       </c>
       <c r="I208">
-        <v>0.9999909692521871</v>
+        <v>0.9975097985069949</v>
       </c>
     </row>
     <row r="209">
@@ -6828,28 +6828,28 @@
         </is>
       </c>
       <c r="B209">
-        <v>1.124654134023005</v>
+        <v>1.148861676673801</v>
       </c>
       <c r="C209">
-        <v>0.0983579283754937</v>
+        <v>0.09973604576886703</v>
       </c>
       <c r="D209">
-        <v>129.0576639718826</v>
+        <v>133.986600958197</v>
       </c>
       <c r="E209">
-        <v>0.8032217333999576</v>
+        <v>0.8228441044200419</v>
       </c>
       <c r="F209">
-        <v>1.574717003511675</v>
+        <v>1.604050080737979</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1.343250791727759</v>
+        <v>1.598513140015278</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0.9999999999999947</v>
       </c>
     </row>
     <row r="210">
@@ -6859,25 +6859,25 @@
         </is>
       </c>
       <c r="B210">
-        <v>0.7660467044103535</v>
+        <v>0.7733709473953652</v>
       </c>
       <c r="C210">
-        <v>0.1501088754369103</v>
+        <v>0.1511516447224823</v>
       </c>
       <c r="D210">
-        <v>115.8246448467201</v>
+        <v>119.541891111579</v>
       </c>
       <c r="E210">
-        <v>0.3594229485191336</v>
+        <v>0.3638538173351842</v>
       </c>
       <c r="F210">
-        <v>1.632693615573976</v>
+        <v>1.643799223148535</v>
       </c>
       <c r="G210">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>-1.360084441313157</v>
+        <v>-1.314928462808178</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -6890,28 +6890,28 @@
         </is>
       </c>
       <c r="B211">
-        <v>0.6166511875855326</v>
+        <v>0.5840452426799367</v>
       </c>
       <c r="C211">
-        <v>0.09904607371306753</v>
+        <v>0.09107157545527444</v>
       </c>
       <c r="D211">
-        <v>139.3920591460212</v>
+        <v>144.2078975295218</v>
       </c>
       <c r="E211">
-        <v>0.332776523098434</v>
+        <v>0.3210809211255933</v>
       </c>
       <c r="F211">
-        <v>1.142684837289945</v>
+        <v>1.062376563207998</v>
       </c>
       <c r="G211">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>-3.00992341527033</v>
+        <v>-3.44878187207304</v>
       </c>
       <c r="I211">
-        <v>0.5758413520354045</v>
+        <v>0.1844626517353927</v>
       </c>
     </row>
     <row r="212">
@@ -6921,28 +6921,28 @@
         </is>
       </c>
       <c r="B212">
-        <v>4.842657288123301</v>
+        <v>5.12455423195864</v>
       </c>
       <c r="C212">
-        <v>1.411748584432157</v>
+        <v>1.485480817644997</v>
       </c>
       <c r="D212">
-        <v>116.0478926146103</v>
+        <v>120.2355600032208</v>
       </c>
       <c r="E212">
-        <v>1.570996015496275</v>
+        <v>1.675218094047954</v>
       </c>
       <c r="F212">
-        <v>14.92768242496496</v>
+        <v>15.67620130751374</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>5.41110199562073</v>
+        <v>5.637060168981318</v>
       </c>
       <c r="I212">
-        <v>9.425415910879753e-05</v>
+        <v>3.210461173885903e-05</v>
       </c>
     </row>
     <row r="213">
@@ -6952,28 +6952,28 @@
         </is>
       </c>
       <c r="B213">
-        <v>2.423619405878594</v>
+        <v>2.474215924917522</v>
       </c>
       <c r="C213">
-        <v>0.58162139278489</v>
+        <v>0.5909904792593504</v>
       </c>
       <c r="D213">
-        <v>119.1519208679789</v>
+        <v>123.2323972500718</v>
       </c>
       <c r="E213">
-        <v>0.9601611196642262</v>
+        <v>0.9854203754933367</v>
       </c>
       <c r="F213">
-        <v>6.117651406886226</v>
+        <v>6.212317702534518</v>
       </c>
       <c r="G213">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>3.688891602709594</v>
+        <v>3.792701485773982</v>
       </c>
       <c r="I213">
-        <v>0.08977640299769452</v>
+        <v>0.0620893264201251</v>
       </c>
     </row>
     <row r="214">
@@ -6983,28 +6983,28 @@
         </is>
       </c>
       <c r="B214">
-        <v>2.869402384934187</v>
+        <v>3.150540867817555</v>
       </c>
       <c r="C214">
-        <v>0.6935461787707922</v>
+        <v>0.7571898261463684</v>
       </c>
       <c r="D214">
-        <v>130.8985933518157</v>
+        <v>136.079618077433</v>
       </c>
       <c r="E214">
-        <v>1.132270123646829</v>
+        <v>1.251051674406603</v>
       </c>
       <c r="F214">
-        <v>7.271648235447159</v>
+        <v>7.934050977148195</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>4.361134113968655</v>
+        <v>4.774865045597418</v>
       </c>
       <c r="I214">
-        <v>0.007144260980947337</v>
+        <v>0.001264998790345251</v>
       </c>
     </row>
     <row r="215">
@@ -7014,28 +7014,28 @@
         </is>
       </c>
       <c r="B215">
-        <v>3.584541229577817</v>
+        <v>3.694191439846266</v>
       </c>
       <c r="C215">
-        <v>0.9461883341120013</v>
+        <v>0.9755551077555532</v>
       </c>
       <c r="D215">
-        <v>120.5306056974762</v>
+        <v>125.2064574640321</v>
       </c>
       <c r="E215">
-        <v>1.2950577290425</v>
+        <v>1.335697326078454</v>
       </c>
       <c r="F215">
-        <v>9.92151588180019</v>
+        <v>10.21717280388705</v>
       </c>
       <c r="G215">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>4.836388786888641</v>
+        <v>4.948390783926619</v>
       </c>
       <c r="I215">
-        <v>0.001088766491354809</v>
+        <v>0.0006512249262692338</v>
       </c>
     </row>
     <row r="216">
@@ -7045,28 +7045,28 @@
         </is>
       </c>
       <c r="B216">
-        <v>1.860040500924616</v>
+        <v>1.840854550065751</v>
       </c>
       <c r="C216">
-        <v>0.4529847480939465</v>
+        <v>0.4484701978596734</v>
       </c>
       <c r="D216">
-        <v>127.5734531241282</v>
+        <v>131.6830380319868</v>
       </c>
       <c r="E216">
-        <v>0.7283023979105713</v>
+        <v>0.7211849625683908</v>
       </c>
       <c r="F216">
-        <v>4.750431517190639</v>
+        <v>4.69885764454832</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>2.548293087820275</v>
+        <v>2.504836399000541</v>
       </c>
       <c r="I216">
-        <v>0.9643886416050135</v>
+        <v>0.9763233221784167</v>
       </c>
     </row>
     <row r="217">
@@ -7076,28 +7076,28 @@
         </is>
       </c>
       <c r="B217">
-        <v>2.255525686177215</v>
+        <v>2.393581966107719</v>
       </c>
       <c r="C217">
-        <v>0.5342537333026204</v>
+        <v>0.5698859147195391</v>
       </c>
       <c r="D217">
-        <v>131.7736043352387</v>
+        <v>136.9008681799373</v>
       </c>
       <c r="E217">
-        <v>0.9069207228347799</v>
+        <v>0.9588618440865319</v>
       </c>
       <c r="F217">
-        <v>5.609526822921657</v>
+        <v>5.975036616389819</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>3.433960838830147</v>
+        <v>3.665815706128524</v>
       </c>
       <c r="I217">
-        <v>0.1972154475535752</v>
+        <v>0.09253523221247728</v>
       </c>
     </row>
     <row r="218">
@@ -7107,28 +7107,28 @@
         </is>
       </c>
       <c r="B218">
-        <v>2.955385578505519</v>
+        <v>3.010271374526923</v>
       </c>
       <c r="C218">
-        <v>0.6814192515587777</v>
+        <v>0.6937883842226296</v>
       </c>
       <c r="D218">
-        <v>126.1601537189816</v>
+        <v>130.9234183664958</v>
       </c>
       <c r="E218">
-        <v>1.216058447190103</v>
+        <v>1.240309729983545</v>
       </c>
       <c r="F218">
-        <v>7.182470495411138</v>
+        <v>7.306024881717597</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>4.699811288586822</v>
+        <v>4.781587783448403</v>
       </c>
       <c r="I218">
-        <v>0.001849586180579621</v>
+        <v>0.001271017624333903</v>
       </c>
     </row>
     <row r="219">
@@ -7138,28 +7138,28 @@
         </is>
       </c>
       <c r="B219">
-        <v>1.604866206381467</v>
+        <v>1.560780687916462</v>
       </c>
       <c r="C219">
-        <v>0.3876807136146319</v>
+        <v>0.3748243614749366</v>
       </c>
       <c r="D219">
-        <v>132.0534082368767</v>
+        <v>136.145997753108</v>
       </c>
       <c r="E219">
-        <v>0.6337699794024888</v>
+        <v>0.6202197786499806</v>
       </c>
       <c r="F219">
-        <v>4.063927961393003</v>
+        <v>3.927698599156983</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>1.958226225015366</v>
+        <v>1.853769382835569</v>
       </c>
       <c r="I219">
-        <v>0.9999996371699761</v>
+        <v>0.9999999933333363</v>
       </c>
     </row>
     <row r="220">
@@ -7169,28 +7169,28 @@
         </is>
       </c>
       <c r="B220">
-        <v>2.005528293493187</v>
+        <v>2.083437906152156</v>
       </c>
       <c r="C220">
-        <v>0.4848799372342655</v>
+        <v>0.5071857059703245</v>
       </c>
       <c r="D220">
-        <v>131.5985064600789</v>
+        <v>136.2690861254218</v>
       </c>
       <c r="E220">
-        <v>0.7912927762192462</v>
+        <v>0.8175457060907011</v>
       </c>
       <c r="F220">
-        <v>5.083003228235293</v>
+        <v>5.309444446290204</v>
       </c>
       <c r="G220">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>2.878366585136742</v>
+        <v>3.015234378159088</v>
       </c>
       <c r="I220">
-        <v>0.7249991036394855</v>
+        <v>0.571249329343179</v>
       </c>
     </row>
     <row r="221">
@@ -7200,28 +7200,28 @@
         </is>
       </c>
       <c r="B221">
-        <v>2.994015059050283</v>
+        <v>3.087093106385708</v>
       </c>
       <c r="C221">
-        <v>0.5396464674516973</v>
+        <v>0.5516567961980153</v>
       </c>
       <c r="D221">
-        <v>128.1319047715211</v>
+        <v>132.5826854592364</v>
       </c>
       <c r="E221">
-        <v>1.495939993018552</v>
+        <v>1.552710802197902</v>
       </c>
       <c r="F221">
-        <v>5.992303311399399</v>
+        <v>6.137745569879463</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>6.084136499175354</v>
+        <v>6.308022842621293</v>
       </c>
       <c r="I221">
-        <v>3.474013586135527e-06</v>
+        <v>1.078390422515341e-06</v>
       </c>
     </row>
     <row r="222">
@@ -7231,28 +7231,28 @@
         </is>
       </c>
       <c r="B222">
-        <v>1.701431717932465</v>
+        <v>1.66541364341625</v>
       </c>
       <c r="C222">
-        <v>0.3814850654811114</v>
+        <v>0.3645132391866658</v>
       </c>
       <c r="D222">
-        <v>126.5465915306307</v>
+        <v>131.0011059815503</v>
       </c>
       <c r="E222">
-        <v>0.7174942301110211</v>
+        <v>0.7175237089733989</v>
       </c>
       <c r="F222">
-        <v>4.034694314320387</v>
+        <v>3.865520496382391</v>
       </c>
       <c r="G222">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>2.370368172337793</v>
+        <v>2.330459691971097</v>
       </c>
       <c r="I222">
-        <v>0.9953617193494072</v>
+        <v>0.9973812939276987</v>
       </c>
     </row>
     <row r="223">
@@ -7262,28 +7262,28 @@
         </is>
       </c>
       <c r="B223">
-        <v>2.191134667655592</v>
+        <v>2.28228905116146</v>
       </c>
       <c r="C223">
-        <v>0.5600796630718516</v>
+        <v>0.5828492859090266</v>
       </c>
       <c r="D223">
-        <v>126.1048521064867</v>
+        <v>130.7805162720691</v>
       </c>
       <c r="E223">
-        <v>0.8186825075383535</v>
+        <v>0.8544158765267483</v>
       </c>
       <c r="F223">
-        <v>5.864387094623811</v>
+        <v>6.096379358288302</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>3.068793465615602</v>
+        <v>3.231190009313031</v>
       </c>
       <c r="I223">
-        <v>0.5167899184736946</v>
+        <v>0.350025039276158</v>
       </c>
     </row>
     <row r="224">
@@ -7293,28 +7293,28 @@
         </is>
       </c>
       <c r="B224">
-        <v>1.617445868712303</v>
+        <v>1.659993416252463</v>
       </c>
       <c r="C224">
-        <v>0.3785373344754943</v>
+        <v>0.3869042522627021</v>
       </c>
       <c r="D224">
-        <v>131.1878757013428</v>
+        <v>135.782446127436</v>
       </c>
       <c r="E224">
-        <v>0.6573985474337748</v>
+        <v>0.6777824139346562</v>
       </c>
       <c r="F224">
-        <v>3.979520716050931</v>
+        <v>4.065579285253015</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>2.054608606455098</v>
+        <v>2.174458653576061</v>
       </c>
       <c r="I224">
-        <v>0.9999926016352325</v>
+        <v>0.9998502207544079</v>
       </c>
     </row>
     <row r="225">
@@ -7324,25 +7324,25 @@
         </is>
       </c>
       <c r="B225">
-        <v>1.199969153112128</v>
+        <v>1.16737469097743</v>
       </c>
       <c r="C225">
-        <v>0.2657596635503422</v>
+        <v>0.2565630142301601</v>
       </c>
       <c r="D225">
-        <v>126.2255760828174</v>
+        <v>129.9978448279855</v>
       </c>
       <c r="E225">
-        <v>0.511365642240495</v>
+        <v>0.5011054085853155</v>
       </c>
       <c r="F225">
-        <v>2.815844181693072</v>
+        <v>2.719514987838397</v>
       </c>
       <c r="G225">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>0.8231098530394259</v>
+        <v>0.7041538776697378</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -7355,28 +7355,28 @@
         </is>
       </c>
       <c r="B226">
-        <v>1.843603748455208</v>
+        <v>1.906657225739442</v>
       </c>
       <c r="C226">
-        <v>0.4441449699715876</v>
+        <v>0.4570231654270505</v>
       </c>
       <c r="D226">
-        <v>122.7180344714374</v>
+        <v>127.2425689448163</v>
       </c>
       <c r="E226">
-        <v>0.728391529558318</v>
+        <v>0.7576090935193508</v>
       </c>
       <c r="F226">
-        <v>4.666274446353191</v>
+        <v>4.79843999703994</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>2.539201037944287</v>
+        <v>2.692345416966915</v>
       </c>
       <c r="I226">
-        <v>0.9677008308276286</v>
+        <v>0.8925651161535701</v>
       </c>
     </row>
     <row r="227">
@@ -7386,25 +7386,25 @@
         </is>
       </c>
       <c r="B227">
-        <v>1.197235537858268</v>
+        <v>1.196656956087513</v>
       </c>
       <c r="C227">
-        <v>0.2350560156113316</v>
+        <v>0.2353536504718321</v>
       </c>
       <c r="D227">
-        <v>129.5765903586606</v>
+        <v>134.6780662243843</v>
       </c>
       <c r="E227">
-        <v>0.5624032943914723</v>
+        <v>0.5618637896249623</v>
       </c>
       <c r="F227">
-        <v>2.548656715572236</v>
+        <v>2.548638828475613</v>
       </c>
       <c r="G227">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>0.9168902617887671</v>
+        <v>0.9128304396895973</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="B228">
-        <v>0.9209330554273411</v>
+        <v>0.8685446528233127</v>
       </c>
       <c r="C228">
-        <v>0.2110309729145895</v>
+        <v>0.1975089255644777</v>
       </c>
       <c r="D228">
-        <v>133.0073946444618</v>
+        <v>136.9859130068577</v>
       </c>
       <c r="E228">
-        <v>0.3815408105117221</v>
+        <v>0.3625263228148719</v>
       </c>
       <c r="F228">
-        <v>2.222875428296239</v>
+        <v>2.080869074804249</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>-0.3594512711736433</v>
+        <v>-0.6197666905909973</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -7448,25 +7448,25 @@
         </is>
       </c>
       <c r="B229">
-        <v>1.449185249028325</v>
+        <v>1.448557737402181</v>
       </c>
       <c r="C229">
-        <v>0.3519075907993601</v>
+        <v>0.3515206459689605</v>
       </c>
       <c r="D229">
-        <v>123.9405391395807</v>
+        <v>128.6317448549688</v>
       </c>
       <c r="E229">
-        <v>0.5685021641653865</v>
+        <v>0.5692099487153591</v>
       </c>
       <c r="F229">
-        <v>3.694159879029633</v>
+        <v>3.686371826991762</v>
       </c>
       <c r="G229">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>1.527815588778711</v>
+        <v>1.527050333133786</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -7479,25 +7479,25 @@
         </is>
       </c>
       <c r="B230">
-        <v>0.9870977667837727</v>
+        <v>0.9751151879093385</v>
       </c>
       <c r="C230">
-        <v>0.1436693657105151</v>
+        <v>0.1418878623780087</v>
       </c>
       <c r="D230">
-        <v>129.357320137681</v>
+        <v>134.8043533596955</v>
       </c>
       <c r="E230">
-        <v>0.5637592922355975</v>
+        <v>0.5573707783461862</v>
       </c>
       <c r="F230">
-        <v>1.728329829075919</v>
+        <v>1.705955293373644</v>
       </c>
       <c r="G230">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>-0.08922318997638548</v>
+        <v>-0.1731831318403056</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -7510,25 +7510,25 @@
         </is>
       </c>
       <c r="B231">
-        <v>0.7945925576675763</v>
+        <v>0.736401320066985</v>
       </c>
       <c r="C231">
-        <v>0.1817427501685257</v>
+        <v>0.1658640968900204</v>
       </c>
       <c r="D231">
-        <v>136.5200336791208</v>
+        <v>140.6282589066757</v>
       </c>
       <c r="E231">
-        <v>0.3299507266499048</v>
+        <v>0.3101329988406155</v>
       </c>
       <c r="F231">
-        <v>1.913550362841374</v>
+        <v>1.748562411041889</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>-1.005252373163047</v>
+        <v>-1.358486299372455</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -7541,25 +7541,25 @@
         </is>
       </c>
       <c r="B232">
-        <v>1.28856081633243</v>
+        <v>1.260863484972415</v>
       </c>
       <c r="C232">
-        <v>0.3229665803707431</v>
+        <v>0.3162614926997344</v>
       </c>
       <c r="D232">
-        <v>123.5371955652014</v>
+        <v>127.7898844217157</v>
       </c>
       <c r="E232">
-        <v>0.4904563429557641</v>
+        <v>0.4800449125248776</v>
       </c>
       <c r="F232">
-        <v>3.385396072932539</v>
+        <v>3.311724978763098</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>1.011509004573269</v>
+        <v>0.9241217076329773</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -7572,28 +7572,28 @@
         </is>
       </c>
       <c r="B233">
-        <v>5.748619317493694</v>
+        <v>6.521707245515123</v>
       </c>
       <c r="C233">
-        <v>1.61236848896034</v>
+        <v>1.768337857422991</v>
       </c>
       <c r="D233">
-        <v>131.294400066347</v>
+        <v>136.4104476497868</v>
       </c>
       <c r="E233">
-        <v>1.954238021742934</v>
+        <v>2.30070990176668</v>
       </c>
       <c r="F233">
-        <v>16.91023493033271</v>
+        <v>18.48675722373528</v>
       </c>
       <c r="G233">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>6.235611541420902</v>
+        <v>6.915584156992069</v>
       </c>
       <c r="I233">
-        <v>1.576075547515821e-06</v>
+        <v>4.532918473909575e-08</v>
       </c>
     </row>
     <row r="234">
@@ -7603,28 +7603,28 @@
         </is>
       </c>
       <c r="B234">
-        <v>2.877028975198364</v>
+        <v>3.148783522256954</v>
       </c>
       <c r="C234">
-        <v>0.5874402661768889</v>
+        <v>0.6372033150308544</v>
       </c>
       <c r="D234">
-        <v>126.1404029142941</v>
+        <v>131.356961432815</v>
       </c>
       <c r="E234">
-        <v>1.310439080124881</v>
+        <v>1.445653074418073</v>
       </c>
       <c r="F234">
-        <v>6.316429240909201</v>
+        <v>6.858379680081949</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>5.175545513627326</v>
+        <v>5.668058544071037</v>
       </c>
       <c r="I234">
-        <v>0.0002401985021189823</v>
+        <v>2.414203724132591e-05</v>
       </c>
     </row>
     <row r="235">
@@ -7634,28 +7634,28 @@
         </is>
       </c>
       <c r="B235">
-        <v>3.406208822612671</v>
+        <v>4.009500978016598</v>
       </c>
       <c r="C235">
-        <v>1.071044711036582</v>
+        <v>1.225627277868622</v>
       </c>
       <c r="D235">
-        <v>141.3226673629271</v>
+        <v>147.0790239435796</v>
       </c>
       <c r="E235">
-        <v>1.018672361068391</v>
+        <v>1.24163544099146</v>
       </c>
       <c r="F235">
-        <v>11.38958804288737</v>
+        <v>12.94751870152732</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>3.897735656855539</v>
+        <v>4.54286629380346</v>
       </c>
       <c r="I235">
-        <v>0.04040632446409431</v>
+        <v>0.003163998469228102</v>
       </c>
     </row>
     <row r="236">
@@ -7665,28 +7665,28 @@
         </is>
       </c>
       <c r="B236">
-        <v>4.255135503237158</v>
+        <v>4.701371863588816</v>
       </c>
       <c r="C236">
-        <v>1.151741833298289</v>
+        <v>1.237910609387479</v>
       </c>
       <c r="D236">
-        <v>131.0642724698061</v>
+        <v>136.9811058397484</v>
       </c>
       <c r="E236">
-        <v>1.502070885427149</v>
+        <v>1.709452200452137</v>
       </c>
       <c r="F236">
-        <v>12.05414360039368</v>
+        <v>12.92981306754207</v>
       </c>
       <c r="G236">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>5.350135560930535</v>
+        <v>5.878484960239752</v>
       </c>
       <c r="I236">
-        <v>0.0001048982706748358</v>
+        <v>8.290281176770442e-06</v>
       </c>
     </row>
     <row r="237">
@@ -7696,28 +7696,28 @@
         </is>
       </c>
       <c r="B237">
-        <v>2.208015995920222</v>
+        <v>2.342743176027371</v>
       </c>
       <c r="C237">
-        <v>0.4386651684901099</v>
+        <v>0.4666140077198081</v>
       </c>
       <c r="D237">
-        <v>126.6979222808333</v>
+        <v>132.4052739669112</v>
       </c>
       <c r="E237">
-        <v>1.02740460491658</v>
+        <v>1.089063552483918</v>
       </c>
       <c r="F237">
-        <v>4.745291791480167</v>
+        <v>5.039600835327616</v>
       </c>
       <c r="G237">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>3.986997763466366</v>
+        <v>4.274261035215527</v>
       </c>
       <c r="I237">
-        <v>0.03053623857468679</v>
+        <v>0.009997382058401061</v>
       </c>
     </row>
     <row r="238">
@@ -7727,28 +7727,28 @@
         </is>
       </c>
       <c r="B238">
-        <v>2.677488362115006</v>
+        <v>3.046165606707358</v>
       </c>
       <c r="C238">
-        <v>0.7734754699711958</v>
+        <v>0.8601405619551539</v>
       </c>
       <c r="D238">
-        <v>139.899057711402</v>
+        <v>145.9345075454376</v>
       </c>
       <c r="E238">
-        <v>0.8830166305542041</v>
+        <v>1.031305423645928</v>
       </c>
       <c r="F238">
-        <v>8.118696388268342</v>
+        <v>8.997455739816372</v>
       </c>
       <c r="G238">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>3.409290451085087</v>
+        <v>3.944790105255081</v>
       </c>
       <c r="I238">
-        <v>0.2094643722486765</v>
+        <v>0.03355378974425782</v>
       </c>
     </row>
     <row r="239">
@@ -7758,28 +7758,28 @@
         </is>
       </c>
       <c r="B239">
-        <v>3.50827771126936</v>
+        <v>3.830988559314257</v>
       </c>
       <c r="C239">
-        <v>0.9073584098563924</v>
+        <v>0.9647198470539422</v>
       </c>
       <c r="D239">
-        <v>133.8296334332613</v>
+        <v>139.9455249627288</v>
       </c>
       <c r="E239">
-        <v>1.297905546605926</v>
+        <v>1.456670692352682</v>
       </c>
       <c r="F239">
-        <v>9.482980122533043</v>
+        <v>10.07535431216277</v>
       </c>
       <c r="G239">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>4.852909108736671</v>
+        <v>5.333660751700391</v>
       </c>
       <c r="I239">
-        <v>0.0009199283034980743</v>
+        <v>0.0001041886530968039</v>
       </c>
     </row>
     <row r="240">
@@ -7789,28 +7789,28 @@
         </is>
       </c>
       <c r="B240">
-        <v>1.905103815341975</v>
+        <v>1.986310274084933</v>
       </c>
       <c r="C240">
-        <v>0.3368589606745654</v>
+        <v>0.3525706534198434</v>
       </c>
       <c r="D240">
-        <v>129.8202529773066</v>
+        <v>135.2420340500337</v>
       </c>
       <c r="E240">
-        <v>0.9647519710298433</v>
+        <v>1.004051902895332</v>
       </c>
       <c r="F240">
-        <v>3.762024495639281</v>
+        <v>3.929506526065173</v>
       </c>
       <c r="G240">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>3.645172297552251</v>
+        <v>3.866352989044753</v>
       </c>
       <c r="I240">
-        <v>0.1009019556279278</v>
+        <v>0.04607248782895901</v>
       </c>
     </row>
     <row r="241">
@@ -7820,28 +7820,28 @@
         </is>
       </c>
       <c r="B241">
-        <v>2.380721575741114</v>
+        <v>2.651464200221783</v>
       </c>
       <c r="C241">
-        <v>0.6164106536921994</v>
+        <v>0.6730943774544396</v>
       </c>
       <c r="D241">
-        <v>141.1886335365679</v>
+        <v>146.9880061146334</v>
       </c>
       <c r="E241">
-        <v>0.8811031298877293</v>
+        <v>1.001593807198127</v>
       </c>
       <c r="F241">
-        <v>6.432658140621352</v>
+        <v>7.019075352237154</v>
       </c>
       <c r="G241">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>3.350114914641759</v>
+        <v>3.841176939952191</v>
       </c>
       <c r="I241">
-        <v>0.2488612068629982</v>
+        <v>0.04888170414750814</v>
       </c>
     </row>
     <row r="242">
@@ -7851,28 +7851,28 @@
         </is>
       </c>
       <c r="B242">
-        <v>3.554133976718702</v>
+        <v>3.92875488641291</v>
       </c>
       <c r="C242">
-        <v>0.8243699566377996</v>
+        <v>0.8847380877820927</v>
       </c>
       <c r="D242">
-        <v>140.3098517691873</v>
+        <v>145.8878915484475</v>
       </c>
       <c r="E242">
-        <v>1.458658343389995</v>
+        <v>1.656240355374627</v>
       </c>
       <c r="F242">
-        <v>8.659922580025972</v>
+        <v>9.319368959598885</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>5.467251530432402</v>
+        <v>6.076152920372489</v>
       </c>
       <c r="I242">
-        <v>5.607915867822388e-05</v>
+        <v>2.817529034748745e-06</v>
       </c>
     </row>
     <row r="243">
@@ -7882,28 +7882,28 @@
         </is>
       </c>
       <c r="B243">
-        <v>2.019734757008478</v>
+        <v>2.119470247248456</v>
       </c>
       <c r="C243">
-        <v>0.2335668298477412</v>
+        <v>0.241995282696955</v>
       </c>
       <c r="D243">
-        <v>132.4237336650746</v>
+        <v>137.5004901515918</v>
       </c>
       <c r="E243">
-        <v>1.294622310087406</v>
+        <v>1.366867318091238</v>
       </c>
       <c r="F243">
-        <v>3.150979599905614</v>
+        <v>3.286459533793301</v>
       </c>
       <c r="G243">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>6.078796619863953</v>
+        <v>6.578947899183914</v>
       </c>
       <c r="I243">
-        <v>3.339728380735707e-06</v>
+        <v>2.527765771143109e-07</v>
       </c>
     </row>
     <row r="244">
@@ -7913,28 +7913,28 @@
         </is>
       </c>
       <c r="B244">
-        <v>2.601051102378638</v>
+        <v>2.904529909839709</v>
       </c>
       <c r="C244">
-        <v>0.5965361912884565</v>
+        <v>0.6515553773186601</v>
       </c>
       <c r="D244">
-        <v>144.8504204285405</v>
+        <v>149.9786893369324</v>
       </c>
       <c r="E244">
-        <v>1.079032939043906</v>
+        <v>1.229314258004205</v>
       </c>
       <c r="F244">
-        <v>6.269935413815798</v>
+        <v>6.862601602660829</v>
       </c>
       <c r="G244">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>4.168037829973655</v>
+        <v>4.75326846293787</v>
       </c>
       <c r="I244">
-        <v>0.01441921737787699</v>
+        <v>0.001282645461102239</v>
       </c>
     </row>
     <row r="245">
@@ -7944,28 +7944,28 @@
         </is>
       </c>
       <c r="B245">
-        <v>1.920036874937158</v>
+        <v>2.112572255117558</v>
       </c>
       <c r="C245">
-        <v>0.5099767301563319</v>
+        <v>0.5423949755363749</v>
       </c>
       <c r="D245">
-        <v>139.5465933434686</v>
+        <v>144.9915714199256</v>
       </c>
       <c r="E245">
-        <v>0.6923606336718409</v>
+        <v>0.7889573535994643</v>
       </c>
       <c r="F245">
-        <v>5.324597358413307</v>
+        <v>5.656784251684952</v>
       </c>
       <c r="G245">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>2.456043997446214</v>
+        <v>2.913017514408688</v>
       </c>
       <c r="I245">
-        <v>0.985716829245306</v>
+        <v>0.6823796391309078</v>
       </c>
     </row>
     <row r="246">
@@ -7975,28 +7975,28 @@
         </is>
       </c>
       <c r="B246">
-        <v>1.424458813324411</v>
+        <v>1.485646484702853</v>
       </c>
       <c r="C246">
-        <v>0.2325124905234471</v>
+        <v>0.2404131183932242</v>
       </c>
       <c r="D246">
-        <v>129.4592116694477</v>
+        <v>134.9866494038351</v>
       </c>
       <c r="E246">
-        <v>0.7600414002200976</v>
+        <v>0.7975864755868929</v>
       </c>
       <c r="F246">
-        <v>2.669700506143474</v>
+        <v>2.767280470604579</v>
       </c>
       <c r="G246">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>2.167462386447551</v>
+        <v>2.446177628467138</v>
       </c>
       <c r="I246">
-        <v>0.9998746960714335</v>
+        <v>0.9874061246440896</v>
       </c>
     </row>
     <row r="247">
@@ -8006,28 +8006,28 @@
         </is>
       </c>
       <c r="B247">
-        <v>2.18850426359214</v>
+        <v>2.426486223186298</v>
       </c>
       <c r="C247">
-        <v>0.5915078952791032</v>
+        <v>0.6351219125096196</v>
       </c>
       <c r="D247">
-        <v>138.608499795364</v>
+        <v>144.6958330537265</v>
       </c>
       <c r="E247">
-        <v>0.7749883081858779</v>
+        <v>0.8889291089465849</v>
       </c>
       <c r="F247">
-        <v>6.180158927781163</v>
+        <v>6.623515117296832</v>
       </c>
       <c r="G247">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>2.897808565322908</v>
+        <v>3.386664239034165</v>
       </c>
       <c r="I247">
-        <v>0.7013843097719792</v>
+        <v>0.2224558161259937</v>
       </c>
     </row>
     <row r="248">
@@ -8037,28 +8037,28 @@
         </is>
       </c>
       <c r="B248">
-        <v>1.421213794624971</v>
+        <v>1.522912235417825</v>
       </c>
       <c r="C248">
-        <v>0.3601742032869142</v>
+        <v>0.3742058551847078</v>
       </c>
       <c r="D248">
-        <v>131.6497151681389</v>
+        <v>137.3952377495033</v>
       </c>
       <c r="E248">
-        <v>0.5361687690549944</v>
+        <v>0.5925090446877519</v>
       </c>
       <c r="F248">
-        <v>3.767188181423403</v>
+        <v>3.914305946177669</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1.387030752901047</v>
+        <v>1.711822801953604</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0.9999999999936519</v>
       </c>
     </row>
     <row r="249">
@@ -8068,25 +8068,25 @@
         </is>
       </c>
       <c r="B249">
-        <v>1.093220774786594</v>
+        <v>1.105343742885173</v>
       </c>
       <c r="C249">
-        <v>0.1768291324580143</v>
+        <v>0.1782936311107631</v>
       </c>
       <c r="D249">
-        <v>125.9284274806812</v>
+        <v>132.2554692175251</v>
       </c>
       <c r="E249">
-        <v>0.5863288415892548</v>
+        <v>0.5943935186477323</v>
       </c>
       <c r="F249">
-        <v>2.03832999104321</v>
+        <v>2.055514994031244</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>0.5510221932445861</v>
+        <v>0.6209263444839064</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -8099,28 +8099,28 @@
         </is>
       </c>
       <c r="B250">
-        <v>1.720298138301589</v>
+        <v>1.843490977741505</v>
       </c>
       <c r="C250">
-        <v>0.4244512902944919</v>
+        <v>0.4413226874674696</v>
       </c>
       <c r="D250">
-        <v>135.5390412115144</v>
+        <v>142.1690005618656</v>
       </c>
       <c r="E250">
-        <v>0.6664615754844396</v>
+        <v>0.7354998712778653</v>
       </c>
       <c r="F250">
-        <v>4.440504589469779</v>
+        <v>4.620611257361351</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>2.198739062270887</v>
+        <v>2.55502753235931</v>
       </c>
       <c r="I250">
-        <v>0.9997492127208349</v>
+        <v>0.9608257478309591</v>
       </c>
     </row>
     <row r="251">
@@ -8130,25 +8130,25 @@
         </is>
       </c>
       <c r="B251">
-        <v>1.17176354897233</v>
+        <v>1.240969555271847</v>
       </c>
       <c r="C251">
-        <v>0.2797703272556392</v>
+        <v>0.2872235811794089</v>
       </c>
       <c r="D251">
-        <v>127.4798484601454</v>
+        <v>132.9367326877604</v>
       </c>
       <c r="E251">
-        <v>0.4673093174163893</v>
+        <v>0.5095936064964511</v>
       </c>
       <c r="F251">
-        <v>2.938160579145508</v>
+        <v>3.022026606062473</v>
       </c>
       <c r="G251">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>0.6638879438675863</v>
+        <v>0.9327806798364763</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -8161,25 +8161,25 @@
         </is>
       </c>
       <c r="B252">
-        <v>0.9432445566088646</v>
+        <v>0.9371729924794208</v>
       </c>
       <c r="C252">
-        <v>0.1290542326297612</v>
+        <v>0.1276476747014606</v>
       </c>
       <c r="D252">
-        <v>127.2670141788248</v>
+        <v>133.378751012568</v>
       </c>
       <c r="E252">
-        <v>0.5569730383981201</v>
+        <v>0.5550994249954393</v>
       </c>
       <c r="F252">
-        <v>1.597402804507559</v>
+        <v>1.582226855738588</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>-0.4270568031596025</v>
+        <v>-0.476394964572919</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -8192,28 +8192,28 @@
         </is>
       </c>
       <c r="B253">
-        <v>1.529624162895222</v>
+        <v>1.604623964025681</v>
       </c>
       <c r="C253">
-        <v>0.3279522876527934</v>
+        <v>0.3345694977585307</v>
       </c>
       <c r="D253">
-        <v>135.0800357326091</v>
+        <v>141.3528385579693</v>
       </c>
       <c r="E253">
-        <v>0.6709438671245513</v>
+        <v>0.7207019964627842</v>
       </c>
       <c r="F253">
-        <v>3.487251608305656</v>
+        <v>3.572652883664445</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>1.982373769939351</v>
+        <v>2.268018247105331</v>
       </c>
       <c r="I253">
-        <v>0.9999991701452234</v>
+        <v>0.9990351378369332</v>
       </c>
     </row>
     <row r="254">
@@ -8223,25 +8223,25 @@
         </is>
       </c>
       <c r="B254">
-        <v>1.1870795258612</v>
+        <v>1.272638936054831</v>
       </c>
       <c r="C254">
-        <v>0.2473150329170628</v>
+        <v>0.2573174631954583</v>
       </c>
       <c r="D254">
-        <v>131.7224324282652</v>
+        <v>135.9995169614548</v>
       </c>
       <c r="E254">
-        <v>0.5326581648747514</v>
+        <v>0.5851280643620197</v>
       </c>
       <c r="F254">
-        <v>2.645519948145729</v>
+        <v>2.767957922730428</v>
       </c>
       <c r="G254">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>0.8231587033828085</v>
+        <v>1.192394352047585</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -8254,28 +8254,28 @@
         </is>
       </c>
       <c r="B255">
-        <v>3.439842338682193</v>
+        <v>3.71020529240779</v>
       </c>
       <c r="C255">
-        <v>0.8195608410357534</v>
+        <v>0.8761985325242312</v>
       </c>
       <c r="D255">
-        <v>118.0777526632312</v>
+        <v>122.6439293662107</v>
       </c>
       <c r="E255">
-        <v>1.371488022772705</v>
+        <v>1.49294357983354</v>
       </c>
       <c r="F255">
-        <v>8.62750174884434</v>
+        <v>9.220457824230442</v>
       </c>
       <c r="G255">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>5.185300718406296</v>
+        <v>5.551712910568567</v>
       </c>
       <c r="I255">
-        <v>0.0002494013664774419</v>
+        <v>4.599473189459413e-05</v>
       </c>
     </row>
     <row r="256">
@@ -8285,28 +8285,28 @@
         </is>
       </c>
       <c r="B256">
-        <v>1.721548346119656</v>
+        <v>1.791345862229275</v>
       </c>
       <c r="C256">
-        <v>0.4474720167473473</v>
+        <v>0.4669935061819225</v>
       </c>
       <c r="D256">
-        <v>120.3519083244344</v>
+        <v>124.5741649116135</v>
       </c>
       <c r="E256">
-        <v>0.6317137188797027</v>
+        <v>0.65608745422784</v>
       </c>
       <c r="F256">
-        <v>4.691569328719462</v>
+        <v>4.890994298774655</v>
       </c>
       <c r="G256">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>2.089932987432186</v>
+        <v>2.23621077335998</v>
       </c>
       <c r="I256">
-        <v>0.9999815756831256</v>
+        <v>0.9994934193279592</v>
       </c>
     </row>
     <row r="257">
@@ -8316,28 +8316,28 @@
         </is>
       </c>
       <c r="B257">
-        <v>2.038197465391435</v>
+        <v>2.281008820011268</v>
       </c>
       <c r="C257">
-        <v>0.6201158187997794</v>
+        <v>0.6894485918931161</v>
       </c>
       <c r="D257">
-        <v>127.5096451802365</v>
+        <v>132.2874563119086</v>
       </c>
       <c r="E257">
-        <v>0.6317015423190754</v>
+        <v>0.7132959650455272</v>
       </c>
       <c r="F257">
-        <v>6.57628425708313</v>
+        <v>7.294309083379027</v>
       </c>
       <c r="G257">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>2.340418852907856</v>
+        <v>2.72820993460906</v>
       </c>
       <c r="I257">
-        <v>0.9969888540163948</v>
+        <v>0.8651604518036267</v>
       </c>
     </row>
     <row r="258">
@@ -8347,28 +8347,28 @@
         </is>
       </c>
       <c r="B258">
-        <v>2.546175777603313</v>
+        <v>2.674614807627193</v>
       </c>
       <c r="C258">
-        <v>0.6357770568892153</v>
+        <v>0.6675940927254591</v>
       </c>
       <c r="D258">
-        <v>120.7895550508474</v>
+        <v>126.0628678189276</v>
       </c>
       <c r="E258">
-        <v>0.971999944110243</v>
+        <v>1.022710333035029</v>
       </c>
       <c r="F258">
-        <v>6.669764879861495</v>
+        <v>6.99471212728387</v>
       </c>
       <c r="G258">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>3.742879453624387</v>
+        <v>3.941467497493572</v>
       </c>
       <c r="I258">
-        <v>0.07435418529827065</v>
+        <v>0.03616241046835256</v>
       </c>
     </row>
     <row r="259">
@@ -8378,25 +8378,25 @@
         </is>
       </c>
       <c r="B259">
-        <v>1.321226278480605</v>
+        <v>1.332788762701113</v>
       </c>
       <c r="C259">
-        <v>0.3443452839629401</v>
+        <v>0.349450795193804</v>
       </c>
       <c r="D259">
-        <v>123.8526761651028</v>
+        <v>128.2050047059592</v>
       </c>
       <c r="E259">
-        <v>0.4839453240458863</v>
+        <v>0.4857512171991767</v>
       </c>
       <c r="F259">
-        <v>3.607099381297445</v>
+        <v>3.65686347884951</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>1.068814388302788</v>
+        <v>1.095647739973875</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -8409,28 +8409,28 @@
         </is>
       </c>
       <c r="B260">
-        <v>1.602147806396668</v>
+        <v>1.732966435027939</v>
       </c>
       <c r="C260">
-        <v>0.4363319679412858</v>
+        <v>0.4713767987005225</v>
       </c>
       <c r="D260">
-        <v>125.7849321511547</v>
+        <v>130.8671091408723</v>
       </c>
       <c r="E260">
-        <v>0.5612156439522314</v>
+        <v>0.6085793571765328</v>
       </c>
       <c r="F260">
-        <v>4.573781257174185</v>
+        <v>4.934726473251548</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>1.730710987083336</v>
+        <v>2.021408314423526</v>
       </c>
       <c r="I260">
-        <v>0.9999999999831357</v>
+        <v>0.9999972063779125</v>
       </c>
     </row>
     <row r="261">
@@ -8440,28 +8440,28 @@
         </is>
       </c>
       <c r="B261">
-        <v>2.099273154225983</v>
+        <v>2.179452939672511</v>
       </c>
       <c r="C261">
-        <v>0.5467566361500411</v>
+        <v>0.5678009974803249</v>
       </c>
       <c r="D261">
-        <v>125.5945067384264</v>
+        <v>130.7203145517306</v>
       </c>
       <c r="E261">
-        <v>0.7697824431753026</v>
+        <v>0.7999139360036632</v>
       </c>
       <c r="F261">
-        <v>5.72492632837342</v>
+        <v>5.93815772228951</v>
       </c>
       <c r="G261">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>2.847340712492462</v>
+        <v>2.99040492982226</v>
       </c>
       <c r="I261">
-        <v>0.7596287454968974</v>
+        <v>0.6017540932335717</v>
       </c>
     </row>
     <row r="262">
@@ -8471,25 +8471,25 @@
         </is>
       </c>
       <c r="B262">
-        <v>1.139970556696285</v>
+        <v>1.130013754656322</v>
       </c>
       <c r="C262">
-        <v>0.2815967161815836</v>
+        <v>0.279545847295889</v>
       </c>
       <c r="D262">
-        <v>128.0214709404771</v>
+        <v>132.2082055014126</v>
       </c>
       <c r="E262">
-        <v>0.440450601245968</v>
+        <v>0.4363892699571623</v>
       </c>
       <c r="F262">
-        <v>2.950462245841547</v>
+        <v>2.926128513283169</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0.5303290476533391</v>
+        <v>0.4940919785289259</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -8502,28 +8502,28 @@
         </is>
       </c>
       <c r="B263">
-        <v>1.424569347969779</v>
+        <v>1.508420439304099</v>
       </c>
       <c r="C263">
-        <v>0.3250553653293167</v>
+        <v>0.3443602311836151</v>
       </c>
       <c r="D263">
-        <v>126.9336446798089</v>
+        <v>131.8644291822111</v>
       </c>
       <c r="E263">
-        <v>0.5916886227386092</v>
+        <v>0.6268617115331313</v>
       </c>
       <c r="F263">
-        <v>3.429840881141245</v>
+        <v>3.629719569481338</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1.55084879857608</v>
+        <v>1.800602480041569</v>
       </c>
       <c r="I263">
-        <v>0.9999999999999999</v>
+        <v>0.999999999400209</v>
       </c>
     </row>
     <row r="264">
@@ -8533,28 +8533,28 @@
         </is>
       </c>
       <c r="B264">
-        <v>2.126712494817989</v>
+        <v>2.235072293710541</v>
       </c>
       <c r="C264">
-        <v>0.5398078523357985</v>
+        <v>0.5674476512524644</v>
       </c>
       <c r="D264">
-        <v>130.4692846460106</v>
+        <v>134.9500512937243</v>
       </c>
       <c r="E264">
-        <v>0.8009006817276072</v>
+        <v>0.8423118508877097</v>
       </c>
       <c r="F264">
-        <v>5.64727454827318</v>
+        <v>5.930758486714522</v>
       </c>
       <c r="G264">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>2.972852447545234</v>
+        <v>3.167886195706491</v>
       </c>
       <c r="I264">
-        <v>0.6216021529606088</v>
+        <v>0.408286468029056</v>
       </c>
     </row>
     <row r="265">
@@ -8564,25 +8564,25 @@
         </is>
       </c>
       <c r="B265">
-        <v>1.208563090779645</v>
+        <v>1.205768586722409</v>
       </c>
       <c r="C265">
-        <v>0.2484261560575975</v>
+        <v>0.2445639258729254</v>
       </c>
       <c r="D265">
-        <v>129.6224409262991</v>
+        <v>133.9703034159645</v>
       </c>
       <c r="E265">
-        <v>0.5479327452177755</v>
+        <v>0.5528453454490202</v>
       </c>
       <c r="F265">
-        <v>2.665700776496437</v>
+        <v>2.629809397320184</v>
       </c>
       <c r="G265">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>0.9215642946381963</v>
+        <v>0.9225401287796113</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -8595,28 +8595,28 @@
         </is>
       </c>
       <c r="B266">
-        <v>1.556409498157354</v>
+        <v>1.652389755896322</v>
       </c>
       <c r="C266">
-        <v>0.2685056610821774</v>
+        <v>0.2823995937090089</v>
       </c>
       <c r="D266">
-        <v>130.7527671878726</v>
+        <v>135.3601536116362</v>
       </c>
       <c r="E266">
-        <v>0.8014436364497876</v>
+        <v>0.8567218513806102</v>
       </c>
       <c r="F266">
-        <v>3.02255881235161</v>
+        <v>3.187022603650265</v>
       </c>
       <c r="G266">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>2.564291815746051</v>
+        <v>2.938628312103775</v>
       </c>
       <c r="I266">
-        <v>0.9585661377603532</v>
+        <v>0.6577198325682645</v>
       </c>
     </row>
     <row r="267">
@@ -8626,25 +8626,25 @@
         </is>
       </c>
       <c r="B267">
-        <v>1.148906158064993</v>
+        <v>1.201844312610191</v>
       </c>
       <c r="C267">
-        <v>0.2882788465478451</v>
+        <v>0.2991977952903858</v>
       </c>
       <c r="D267">
-        <v>123.7772765783896</v>
+        <v>128.1156356356809</v>
       </c>
       <c r="E267">
-        <v>0.436863386052228</v>
+        <v>0.4609329655902869</v>
       </c>
       <c r="F267">
-        <v>3.02150604097972</v>
+        <v>3.133708932932743</v>
       </c>
       <c r="G267">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>0.5532144887176275</v>
+        <v>0.7385343700689203</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -8657,25 +8657,25 @@
         </is>
       </c>
       <c r="B268">
-        <v>0.8523635790025815</v>
+        <v>0.8451856611598301</v>
       </c>
       <c r="C268">
-        <v>0.1977099933888564</v>
+        <v>0.1964114170610188</v>
       </c>
       <c r="D268">
-        <v>125.4757456489904</v>
+        <v>129.5273750718997</v>
       </c>
       <c r="E268">
-        <v>0.3488044746043901</v>
+        <v>0.3455851226963798</v>
       </c>
       <c r="F268">
-        <v>2.08289664756768</v>
+        <v>2.067041533086408</v>
       </c>
       <c r="G268">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>-0.688677147411061</v>
+        <v>-0.7237835254062743</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -8688,25 +8688,25 @@
         </is>
       </c>
       <c r="B269">
-        <v>1.309550904054797</v>
+        <v>1.38043025979301</v>
       </c>
       <c r="C269">
-        <v>0.3192006663301057</v>
+        <v>0.3342563647418366</v>
       </c>
       <c r="D269">
-        <v>127.8214406352523</v>
+        <v>132.9614024675935</v>
       </c>
       <c r="E269">
-        <v>0.5123642118332401</v>
+        <v>0.5440381314778265</v>
       </c>
       <c r="F269">
-        <v>3.347079149370591</v>
+        <v>3.502673051566906</v>
       </c>
       <c r="G269">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>1.106405154978251</v>
+        <v>1.331445507811226</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -8719,25 +8719,25 @@
         </is>
       </c>
       <c r="B270">
-        <v>0.8504218340207593</v>
+        <v>0.8663861812572817</v>
       </c>
       <c r="C270">
-        <v>0.221152755162927</v>
+        <v>0.2245160448857793</v>
       </c>
       <c r="D270">
-        <v>116.6860574593241</v>
+        <v>121.4510962352351</v>
       </c>
       <c r="E270">
-        <v>0.311592646903693</v>
+        <v>0.3189700330268746</v>
       </c>
       <c r="F270">
-        <v>2.321034539697478</v>
+        <v>2.353277541311638</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>-0.6230431418714323</v>
+        <v>-0.5534617070976515</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -8750,28 +8750,28 @@
         </is>
       </c>
       <c r="B271">
-        <v>0.6541583115782656</v>
+        <v>0.6288310791016624</v>
       </c>
       <c r="C271">
-        <v>0.1546763308387609</v>
+        <v>0.1486778632781927</v>
       </c>
       <c r="D271">
-        <v>127.5491952466138</v>
+        <v>131.8680184072418</v>
       </c>
       <c r="E271">
-        <v>0.2632176062616605</v>
+        <v>0.2532681412443766</v>
       </c>
       <c r="F271">
-        <v>1.625738880785716</v>
+        <v>1.561303858042749</v>
       </c>
       <c r="G271">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>-1.794900609820105</v>
+        <v>-1.962027742469555</v>
       </c>
       <c r="I271">
-        <v>0.9999999995530803</v>
+        <v>0.9999995868266213</v>
       </c>
     </row>
     <row r="272">
@@ -8781,25 +8781,25 @@
         </is>
       </c>
       <c r="B272">
-        <v>1.029387065739103</v>
+        <v>1.048763724686679</v>
       </c>
       <c r="C272">
-        <v>0.2165676166655649</v>
+        <v>0.2194098290849642</v>
       </c>
       <c r="D272">
-        <v>125.47799913074</v>
+        <v>131.3487700618767</v>
       </c>
       <c r="E272">
-        <v>0.4577422279678023</v>
+        <v>0.4689924729048401</v>
       </c>
       <c r="F272">
-        <v>2.314922387246946</v>
+        <v>2.345251605865005</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>0.1376692291928875</v>
+        <v>0.2275823616541889</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -8812,25 +8812,25 @@
         </is>
       </c>
       <c r="B273">
-        <v>0.701156511514636</v>
+        <v>0.7059887293856714</v>
       </c>
       <c r="C273">
-        <v>0.1884843594671504</v>
+        <v>0.1892200683410397</v>
       </c>
       <c r="D273">
-        <v>114.9002857330543</v>
+        <v>119.5069753653468</v>
       </c>
       <c r="E273">
-        <v>0.2482185957089556</v>
+        <v>0.2510348807865302</v>
       </c>
       <c r="F273">
-        <v>1.980594774679231</v>
+        <v>1.985461480324843</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>-1.320679836676761</v>
+        <v>-1.298985980812458</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -8843,28 +8843,28 @@
         </is>
       </c>
       <c r="B274">
-        <v>0.5644159723154678</v>
+        <v>0.5331585834353334</v>
       </c>
       <c r="C274">
-        <v>0.1259084990446736</v>
+        <v>0.1180812914616741</v>
       </c>
       <c r="D274">
-        <v>131.6148595040439</v>
+        <v>135.8522077991803</v>
       </c>
       <c r="E274">
-        <v>0.239297749385651</v>
+        <v>0.2276187431164887</v>
       </c>
       <c r="F274">
-        <v>1.331251090420481</v>
+        <v>1.2488342181263</v>
       </c>
       <c r="G274">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>-2.563968946076958</v>
+        <v>-2.839762501815072</v>
       </c>
       <c r="I274">
-        <v>0.9585961451568068</v>
+        <v>0.7634288536153041</v>
       </c>
     </row>
     <row r="275">
@@ -8874,25 +8874,25 @@
         </is>
       </c>
       <c r="B275">
-        <v>0.915292119237475</v>
+        <v>0.9128720593440569</v>
       </c>
       <c r="C275">
-        <v>0.1407948788272044</v>
+        <v>0.139493044846655</v>
       </c>
       <c r="D275">
-        <v>126.4179720207261</v>
+        <v>132.4422556010925</v>
       </c>
       <c r="E275">
-        <v>0.5061517838551389</v>
+        <v>0.5072077380017956</v>
       </c>
       <c r="F275">
-        <v>1.655155015275014</v>
+        <v>1.642986362972462</v>
       </c>
       <c r="G275">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>-0.5754068944827919</v>
+        <v>-0.5965673588146051</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -8905,25 +8905,25 @@
         </is>
       </c>
       <c r="B276">
-        <v>0.7103212418352344</v>
+        <v>0.7240054694454321</v>
       </c>
       <c r="C276">
-        <v>0.1856999167334066</v>
+        <v>0.1893956965534104</v>
       </c>
       <c r="D276">
-        <v>117.078675813662</v>
+        <v>121.0584885893375</v>
       </c>
       <c r="E276">
-        <v>0.2589056853030795</v>
+        <v>0.2640138925073082</v>
       </c>
       <c r="F276">
-        <v>1.948803349033093</v>
+        <v>1.985440670598009</v>
       </c>
       <c r="G276">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>-1.308330296230882</v>
+        <v>-1.234569502465609</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -8936,28 +8936,28 @@
         </is>
       </c>
       <c r="B277">
-        <v>0.5983771317426371</v>
+        <v>0.5689009262044445</v>
       </c>
       <c r="C277">
-        <v>0.1039340508362784</v>
+        <v>0.09673050666367733</v>
       </c>
       <c r="D277">
-        <v>136.4044839058351</v>
+        <v>140.7550542346779</v>
       </c>
       <c r="E277">
-        <v>0.3069791225197404</v>
+        <v>0.2961615349712222</v>
       </c>
       <c r="F277">
-        <v>1.166382875987016</v>
+        <v>1.092809921679139</v>
       </c>
       <c r="G277">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>-2.956557938635028</v>
+        <v>-3.317340079560263</v>
       </c>
       <c r="I277">
-        <v>0.6372246237765169</v>
+        <v>0.2734224168857428</v>
       </c>
     </row>
   </sheetData>
